--- a/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
@@ -13,53 +13,37 @@
     <sheet name="Selected" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Accuracy">'General Settings'!$D$23</definedName>
-    <definedName name="BondBasisDayCounter">#REF!</definedName>
-    <definedName name="Calendar" localSheetId="1">#REF!</definedName>
-    <definedName name="Calendar">'General Settings'!$D$18</definedName>
-    <definedName name="Currency" localSheetId="1">'General Settings'!$J$14</definedName>
-    <definedName name="Currency">'General Settings'!$D$4</definedName>
-    <definedName name="DayCounter">'General Settings'!$D$19</definedName>
+    <definedName name="Accuracy">'General Settings'!$D$19</definedName>
+    <definedName name="Calendar">'General Settings'!$D$14</definedName>
+    <definedName name="Currency">'General Settings'!$J$14</definedName>
+    <definedName name="DayCounter">'General Settings'!$D$15</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
     <definedName name="FamilyName">'General Settings'!$J$15</definedName>
     <definedName name="FileOverwrite">'General Settings'!$J$9</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
     <definedName name="GENERAL_SETTINGS">'General Settings'!$H$12</definedName>
-    <definedName name="IborType">'General Settings'!$D$7</definedName>
-    <definedName name="Index1M">#REF!</definedName>
-    <definedName name="Index1Y">#REF!</definedName>
-    <definedName name="Index3M">#REF!</definedName>
-    <definedName name="Index6M">#REF!</definedName>
-    <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
-    <definedName name="InterpolatorID">'General Settings'!$D$25</definedName>
+    <definedName name="IborType">'General Settings'!$D$6</definedName>
+    <definedName name="IndexTenor">'General Settings'!$D$5</definedName>
+    <definedName name="InterpolatorID">'General Settings'!$D$21</definedName>
     <definedName name="MinDistance">RateHelpers!$F$2:$F$19</definedName>
-    <definedName name="MoneyMarketDayCounter">#REF!</definedName>
-    <definedName name="Months">'General Settings'!$D$5</definedName>
-    <definedName name="NDays">'General Settings'!$D$17</definedName>
+    <definedName name="Months">'General Settings'!$D$4</definedName>
+    <definedName name="NDays">'General Settings'!$D$13</definedName>
     <definedName name="nIMMFutures">Selected!$B$2</definedName>
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
-    <definedName name="ObjectOverwrite" localSheetId="1">'General Settings'!$J$6</definedName>
-    <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
-    <definedName name="Permanent" localSheetId="1">'General Settings'!$J$5</definedName>
-    <definedName name="Permanent">'General Settings'!$D$10</definedName>
+    <definedName name="ObjectOverwrite">'General Settings'!$J$6</definedName>
+    <definedName name="Permanent">'General Settings'!$J$5</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$J$16</definedName>
-    <definedName name="RateHelperPrefix" localSheetId="1">#REF!</definedName>
-    <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
+    <definedName name="RateHelperPrefix">'General Settings'!$D$8</definedName>
     <definedName name="RateHelpers">RateHelpers!$A$2:$A$19</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$D$2:$D$19</definedName>
     <definedName name="RateHelpersPriority">RateHelpers!$E$2:$E$19</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
-    <definedName name="ReutersFloatingLegCode">#REF!</definedName>
     <definedName name="SerializationPath">'General Settings'!$J$8</definedName>
     <definedName name="Serialize">'General Settings'!$J$7</definedName>
-    <definedName name="SwapFixedFreq">'General Settings'!$D$8</definedName>
-    <definedName name="SwapMainSetConventions">#REF!</definedName>
-    <definedName name="SwapSecondarySetConventions">#REF!</definedName>
-    <definedName name="TraitsID">'General Settings'!$D$24</definedName>
-    <definedName name="Trigger" localSheetId="1">'General Settings'!$J$4</definedName>
-    <definedName name="Trigger">'General Settings'!$D$11</definedName>
-    <definedName name="YieldCurve">'General Settings'!$D$14</definedName>
-    <definedName name="YieldCurveFrequency">#REF!</definedName>
+    <definedName name="SwapFixedFreq">'General Settings'!$D$7</definedName>
+    <definedName name="TraitsID">'General Settings'!$D$20</definedName>
+    <definedName name="Trigger">'General Settings'!$J$4</definedName>
+    <definedName name="YieldCurve">'General Settings'!$D$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -71,20 +55,7 @@
     <author>Ferdinando Ametrano</author>
   </authors>
   <commentList>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>TRUE if the object must be permanent (i.e. resistant to garbage collection). Default is FALSE.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0">
+    <comment ref="D13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -1139,7 +1110,7 @@
     <xf numFmtId="173" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,12 +1290,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1347,14 +1312,9 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="18" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1432,6 +1392,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -1749,568 +1719,532 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="79" customWidth="1"/>
-    <col min="3" max="3" width="18" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="2.7109375" style="79" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="79" customWidth="1"/>
-    <col min="12" max="16384" width="8" style="79"/>
+    <col min="1" max="2" width="2.7109375" style="77" customWidth="1"/>
+    <col min="3" max="3" width="18" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="2.7109375" style="77" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="77" customWidth="1"/>
+    <col min="12" max="16384" width="8" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80" t="str">
+      <c r="A1" s="78"/>
+      <c r="B1" s="78" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov 12 2013 12:02:30</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="131" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="131" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="87"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="90" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="131">
         <v>6</v>
       </c>
-      <c r="J4" s="91">
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="89">
         <v>41598.740243055552</v>
       </c>
-      <c r="K4" s="92"/>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="94">
-        <v>6</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="90" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="92" t="str">
+        <f>_xll.qlPeriodEquivalent(D4&amp;"M")</f>
+        <v>6M</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="91" t="b">
+      <c r="J5" s="89" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="92"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="94" t="str">
-        <f>_xll.qlPeriodEquivalent(D5&amp;"M")</f>
-        <v>6M</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="90" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="91" t="b">
+      <c r="J6" s="89" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="92"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="90" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="91" t="b">
+      <c r="J7" s="89" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="92"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="91" t="e">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",#REF!),FIND("[",CELL("filename",#REF!),1)-1),"\XLS\","\XML\")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="92"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="93" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="94" t="str">
+      <c r="D8" s="96" t="str">
         <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
         <v>HKD_YC6MRH</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="90" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="89" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
+      </c>
+      <c r="K8" s="90"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="91" t="b">
+      <c r="J9" s="89" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="92"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="94" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="98"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="89" t="str">
+        <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D18),NA(),D16:E16),IF(ISERROR(D18),NA(),D17:E17),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
+        <v>_HKDYC6M#0003</v>
+      </c>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
     </row>
     <row r="11" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="99">
-        <v>41598.749120370368</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="101" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="105"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="91" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC6M#0001</v>
-      </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="105"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="108" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="91" t="str">
+      <c r="D11" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="105"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="106" t="s">
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="109" t="str">
+      <c r="D12" s="104" t="str">
         <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
         <v>_HKDYC6M</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="105"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="110" t="s">
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="111">
+      <c r="D13" s="106">
         <v>0</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="110" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D14" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="110" t="s">
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="100"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="110" t="s">
+      <c r="D15" s="110"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="100"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="116" t="str">
+      <c r="D16" s="111" t="str">
         <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>HKDTOY_SYNTH6M_Quote</v>
       </c>
-      <c r="E20" s="89" t="str">
+      <c r="E16" s="87" t="str">
         <f>Currency&amp;"TOY2_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>HKDTOY2_SYNTH6M_Quote</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="110" t="s">
+      <c r="F16" s="82"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="100"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D17" s="112">
         <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
         <v>41639</v>
       </c>
-      <c r="E21" s="118">
-        <f>DATE(YEAR(D21+1),12,31)</f>
+      <c r="E17" s="113">
+        <f>DATE(YEAR(D17+1),12,31)</f>
         <v>42004</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="109"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="114" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="115" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="116"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="119" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="120" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="80"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="80"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="122">
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="117">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41598</v>
-      </c>
-      <c r="D27" s="123">
+        <v>41599</v>
+      </c>
+      <c r="D23" s="118">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
         <v>1</v>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="80"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="124">
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="119">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>42328</v>
-      </c>
-      <c r="D28" s="94">
+        <v>42331</v>
+      </c>
+      <c r="D24" s="92">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.98768738870458617</v>
-      </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="80"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="125" t="s">
+        <v>0.98764373182174425</v>
+      </c>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="126" t="str">
+      <c r="D25" s="121" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-    </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="129">
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+    </row>
+    <row r="26" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="78"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124">
         <v>0.98768738899999997</v>
       </c>
-      <c r="E30" s="128"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2319,21 +2253,18 @@
     <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),'1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
       <formula1>"Discount,ZeroYield,ForwardRate"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"1D,1W,1M,2M,3M,6M,1Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"EUR,USD,GBP,JPY,CHF,HKD"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14">
       <formula1>"EUR,USD,GBP,JPY,CHF,HKD,CHY,AUD,PLN,HUF"</formula1>
@@ -2408,9 +2339,9 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="62" t="e">
+      <c r="I2" s="62">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
-        <v>#VALUE!</v>
+        <v>20</v>
       </c>
       <c r="J2" s="61" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
@@ -3265,11 +3196,11 @@
       </c>
       <c r="G2" s="5">
         <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>41628</v>
+        <v>41631</v>
       </c>
       <c r="H2" s="11">
         <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="I2" s="76">
         <v>10</v>
@@ -3298,7 +3229,7 @@
       </c>
       <c r="G3" s="5">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H3" s="11">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
@@ -3331,11 +3262,11 @@
       </c>
       <c r="G4" s="5">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="H4" s="11">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>41871</v>
+        <v>41872</v>
       </c>
       <c r="I4" s="76">
         <v>30</v>
@@ -3364,7 +3295,7 @@
       </c>
       <c r="G5" s="5">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="H5" s="11">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
@@ -3430,11 +3361,11 @@
       </c>
       <c r="G7" s="5">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="H7" s="11">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>41963</v>
+        <v>41964</v>
       </c>
       <c r="I7" s="76">
         <v>60</v>
@@ -3463,11 +3394,11 @@
       </c>
       <c r="G8" s="5">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="H8" s="11">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>41995</v>
+        <v>41996</v>
       </c>
       <c r="I8" s="76">
         <v>70</v>
@@ -3523,11 +3454,11 @@
       </c>
       <c r="G10" s="5">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>41871</v>
+        <v>41872</v>
       </c>
       <c r="H10" s="11">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
-        <v>42055</v>
+        <v>42058</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3577,11 +3508,11 @@
       </c>
       <c r="G12" s="5">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
-        <v>41932</v>
+        <v>41933</v>
       </c>
       <c r="H12" s="11">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
-        <v>42114</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3604,11 +3535,11 @@
       </c>
       <c r="G13" s="5">
         <f>_xll.qlRateHelperEarliestDate($A13,Trigger)</f>
-        <v>41963</v>
+        <v>41964</v>
       </c>
       <c r="H13" s="11">
         <f>_xll.qlRateHelperLatestDate($A13,Trigger)</f>
-        <v>42144</v>
+        <v>42145</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3658,11 +3589,11 @@
       </c>
       <c r="G15" s="5">
         <f>_xll.qlRateHelperEarliestDate($A15,Trigger)</f>
-        <v>42024</v>
+        <v>42025</v>
       </c>
       <c r="H15" s="11">
         <f>_xll.qlRateHelperLatestDate($A15,Trigger)</f>
-        <v>42205</v>
+        <v>42206</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3685,11 +3616,11 @@
       </c>
       <c r="G16" s="5">
         <f>_xll.qlRateHelperEarliestDate($A16,Trigger)</f>
-        <v>42055</v>
+        <v>42058</v>
       </c>
       <c r="H16" s="11">
         <f>_xll.qlRateHelperLatestDate($A16,Trigger)</f>
-        <v>42236</v>
+        <v>42240</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,11 +3643,11 @@
       </c>
       <c r="G17" s="5">
         <f>_xll.qlRateHelperEarliestDate($A17,Trigger)</f>
-        <v>42083</v>
+        <v>42086</v>
       </c>
       <c r="H17" s="11">
         <f>_xll.qlRateHelperLatestDate($A17,Trigger)</f>
-        <v>42268</v>
+        <v>42270</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3739,11 +3670,11 @@
       </c>
       <c r="G18" s="5">
         <f>_xll.qlRateHelperEarliestDate($A18,Trigger)</f>
-        <v>42114</v>
+        <v>42115</v>
       </c>
       <c r="H18" s="11">
         <f>_xll.qlRateHelperLatestDate($A18,Trigger)</f>
-        <v>42297</v>
+        <v>42298</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3766,11 +3697,11 @@
       </c>
       <c r="G19" s="9">
         <f>_xll.qlRateHelperEarliestDate($A19,Trigger)</f>
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="H19" s="12">
         <f>_xll.qlRateHelperLatestDate($A19,Trigger)</f>
-        <v>42328</v>
+        <v>42331</v>
       </c>
     </row>
   </sheetData>
@@ -3807,10 +3738,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="130"/>
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
@@ -3856,14 +3787,14 @@
       </c>
       <c r="G2" s="23">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41628</v>
+        <v>41631</v>
       </c>
       <c r="H2" s="24">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41810</v>
+        <v>41813</v>
       </c>
       <c r="I2" s="18">
-        <v>0.99716148001926685</v>
+        <v>0.99713473992907398</v>
       </c>
       <c r="K2" s="22">
         <v>4.8999999999999998E-3</v>
@@ -3895,14 +3826,14 @@
       </c>
       <c r="G3" s="23">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="H3" s="24">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
         <v>41841</v>
       </c>
       <c r="I3" s="18">
-        <v>0.99674708919205179</v>
+        <v>0.99676043774521694</v>
       </c>
       <c r="K3" s="22">
         <v>4.8999999999999998E-3</v>
@@ -3934,14 +3865,14 @@
       </c>
       <c r="G4" s="23">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41690</v>
+        <v>41691</v>
       </c>
       <c r="H4" s="24">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41871</v>
+        <v>41872</v>
       </c>
       <c r="I4" s="18">
-        <v>0.99629692792739299</v>
+        <v>0.99629692792739322</v>
       </c>
       <c r="K4" s="22">
         <v>5.0000000000000001E-3</v>
@@ -3973,14 +3904,14 @@
       </c>
       <c r="G5" s="23">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41718</v>
+        <v>41719</v>
       </c>
       <c r="H5" s="24">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
         <v>41904</v>
       </c>
       <c r="I5" s="18">
-        <v>0.99575368878051163</v>
+        <v>0.99576783756968001</v>
       </c>
       <c r="K5" s="22">
         <v>5.1999999999999998E-3</v>
@@ -4020,7 +3951,7 @@
         <v>41934</v>
       </c>
       <c r="I6" s="18">
-        <v>0.99530584866957905</v>
+        <v>0.99531919410258307</v>
       </c>
       <c r="K6" s="22">
         <v>5.3E-3</v>
@@ -4032,7 +3963,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_RateHelpersSelected#0001</v>
+        <v>HKD_YC6MRH_RateHelpersSelected#0003</v>
       </c>
       <c r="B7" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -4054,11 +3985,11 @@
       </c>
       <c r="G7" s="23">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41779</v>
+        <v>41780</v>
       </c>
       <c r="H7" s="24">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41963</v>
+        <v>41964</v>
       </c>
       <c r="I7" s="18">
         <v>0.99486782211827718</v>
@@ -4087,11 +4018,11 @@
       </c>
       <c r="G8" s="23">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41963</v>
+        <v>41964</v>
       </c>
       <c r="H8" s="24">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="I8" s="18">
         <v>0.99172040044191578</v>
@@ -4120,14 +4051,14 @@
       </c>
       <c r="G9" s="23">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="H9" s="24">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42328</v>
+        <v>42331</v>
       </c>
       <c r="I9" s="18">
-        <v>0.98768738870458617</v>
+        <v>0.98764373182174425</v>
       </c>
       <c r="K9" s="22">
         <v>8.0999999999999996E-3</v>

--- a/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
@@ -1110,7 +1110,7 @@
     <xf numFmtId="173" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,6 +1385,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1398,10 +1402,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -1748,20 +1752,20 @@
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="78"/>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
@@ -1782,7 +1786,7 @@
       <c r="C4" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="131">
+      <c r="D4" s="126">
         <v>6</v>
       </c>
       <c r="E4" s="81"/>
@@ -1793,7 +1797,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="89">
-        <v>41598.740243055552</v>
+        <v>41599.394988425927</v>
       </c>
       <c r="K4" s="90"/>
     </row>
@@ -1864,7 +1868,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="127" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="96" t="str">
@@ -1909,7 +1913,7 @@
       </c>
       <c r="D10" s="89" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D18),NA(),D16:E16),IF(ISERROR(D18),NA(),D17:E17),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC6M#0003</v>
+        <v>_HKDYC6M#0001</v>
       </c>
       <c r="E10" s="81"/>
       <c r="F10" s="82"/>
@@ -1950,12 +1954,12 @@
       <c r="E12" s="81"/>
       <c r="F12" s="82"/>
       <c r="G12" s="78"/>
-      <c r="H12" s="126" t="s">
+      <c r="H12" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -2151,7 +2155,7 @@
         <v>41599</v>
       </c>
       <c r="D23" s="118">
-        <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
+        <f>MAX(_xll.ohPack(Selected!I1:I20))</f>
         <v>1</v>
       </c>
       <c r="E23" s="81"/>
@@ -2166,11 +2170,11 @@
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
       <c r="C24" s="119">
-        <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
+        <f>MAX(_xll.ohPack(Selected!H2:H20))</f>
         <v>42331</v>
       </c>
       <c r="D24" s="92">
-        <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
+        <f>MIN(_xll.ohPack(Selected!I1:I20))</f>
         <v>0.98764373182174425</v>
       </c>
       <c r="E24" s="81"/>
@@ -2378,7 +2382,7 @@
       </c>
       <c r="I3" s="52" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_T6F1#0003</v>
+        <v>HKD_YC6MRH_T6F1#0000</v>
       </c>
       <c r="J3" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -2415,7 +2419,7 @@
       </c>
       <c r="I4" s="57" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_TOM6F1#0003</v>
+        <v>HKD_YC6MRH_TOM6F1#0000</v>
       </c>
       <c r="J4" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -2453,7 +2457,7 @@
       </c>
       <c r="I5" s="52" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_1x7F#0003</v>
+        <v>HKD_YC6MRH_1x7F#0000</v>
       </c>
       <c r="J5" s="51" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -2491,7 +2495,7 @@
       </c>
       <c r="I6" s="46" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_2x8F#0003</v>
+        <v>HKD_YC6MRH_2x8F#0000</v>
       </c>
       <c r="J6" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -2529,7 +2533,7 @@
       </c>
       <c r="I7" s="46" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_3x9F#0003</v>
+        <v>HKD_YC6MRH_3x9F#0000</v>
       </c>
       <c r="J7" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -2567,7 +2571,7 @@
       </c>
       <c r="I8" s="46" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_4x10F#0003</v>
+        <v>HKD_YC6MRH_4x10F#0000</v>
       </c>
       <c r="J8" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -2605,7 +2609,7 @@
       </c>
       <c r="I9" s="46" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_5x11F#0003</v>
+        <v>HKD_YC6MRH_5x11F#0000</v>
       </c>
       <c r="J9" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -2643,7 +2647,7 @@
       </c>
       <c r="I10" s="46" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_6x12F#0003</v>
+        <v>HKD_YC6MRH_6x12F#0000</v>
       </c>
       <c r="J10" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -2681,7 +2685,7 @@
       </c>
       <c r="I11" s="46" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_7x13F#0003</v>
+        <v>HKD_YC6MRH_7x13F#0000</v>
       </c>
       <c r="J11" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -2719,7 +2723,7 @@
       </c>
       <c r="I12" s="46" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_8x14F#0003</v>
+        <v>HKD_YC6MRH_8x14F#0000</v>
       </c>
       <c r="J12" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -2757,7 +2761,7 @@
       </c>
       <c r="I13" s="46" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_9x15F#0003</v>
+        <v>HKD_YC6MRH_9x15F#0000</v>
       </c>
       <c r="J13" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -2795,7 +2799,7 @@
       </c>
       <c r="I14" s="46" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_10x16F#0003</v>
+        <v>HKD_YC6MRH_10x16F#0000</v>
       </c>
       <c r="J14" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -2833,7 +2837,7 @@
       </c>
       <c r="I15" s="46" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_11x17F#0003</v>
+        <v>HKD_YC6MRH_11x17F#0000</v>
       </c>
       <c r="J15" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -2871,7 +2875,7 @@
       </c>
       <c r="I16" s="46" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_12x18F#0003</v>
+        <v>HKD_YC6MRH_12x18F#0000</v>
       </c>
       <c r="J16" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -2909,7 +2913,7 @@
       </c>
       <c r="I17" s="46" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_13x19F#0003</v>
+        <v>HKD_YC6MRH_13x19F#0000</v>
       </c>
       <c r="J17" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -2947,7 +2951,7 @@
       </c>
       <c r="I18" s="46" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_14x20F#0003</v>
+        <v>HKD_YC6MRH_14x20F#0000</v>
       </c>
       <c r="J18" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -2985,7 +2989,7 @@
       </c>
       <c r="I19" s="46" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_15x21F#0003</v>
+        <v>HKD_YC6MRH_15x21F#0000</v>
       </c>
       <c r="J19" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -3023,7 +3027,7 @@
       </c>
       <c r="I20" s="46" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_16x22F#0003</v>
+        <v>HKD_YC6MRH_16x22F#0000</v>
       </c>
       <c r="J20" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -3061,7 +3065,7 @@
       </c>
       <c r="I21" s="46" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_17x23F#0003</v>
+        <v>HKD_YC6MRH_17x23F#0000</v>
       </c>
       <c r="J21" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -3099,7 +3103,7 @@
       </c>
       <c r="I22" s="46" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_18x24F#0003</v>
+        <v>HKD_YC6MRH_18x24F#0000</v>
       </c>
       <c r="J22" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -3716,7 +3720,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -3738,10 +3742,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="130"/>
+      <c r="B1" s="132"/>
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="18">
-        <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
+        <f t="array" ref="I1:I20">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
         <v>1</v>
       </c>
       <c r="L1" s="18">
@@ -3774,7 +3778,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="21" t="str">
-        <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
+        <f t="array" ref="D2:D20">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
         <v>HKD_YC6MRH_1x7F</v>
       </c>
       <c r="E2" s="22">
@@ -3962,7 +3966,7 @@
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="str">
-        <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
+        <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D20),TRUE,,ObjectOverwrite)</f>
         <v>HKD_YC6MRH_RateHelpersSelected#0003</v>
       </c>
       <c r="B7" s="30" t="str">
@@ -4307,23 +4311,23 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="21" t="e">
+    <row r="20" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E20" s="22" t="e">
+      <c r="E20" s="32" t="e">
         <f>_xll.qlRateHelperRate($D20)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="22" t="str">
+      <c r="F20" s="32" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
         <v>--</v>
       </c>
-      <c r="G20" s="23" t="e">
+      <c r="G20" s="33" t="e">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="24" t="e">
+      <c r="H20" s="34" t="e">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
         <v>#VALUE!</v>
       </c>
@@ -4331,2549 +4335,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>--</v>
-      </c>
-      <c r="G21" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>--</v>
-      </c>
-      <c r="G22" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D23" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
-        <v>--</v>
-      </c>
-      <c r="G23" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H23" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D24" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
-        <v>--</v>
-      </c>
-      <c r="G24" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H24" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D25" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
-        <v>--</v>
-      </c>
-      <c r="G25" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H25" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D26" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
-        <v>--</v>
-      </c>
-      <c r="G26" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D27" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
-        <v>--</v>
-      </c>
-      <c r="G27" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D28" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
-        <v>--</v>
-      </c>
-      <c r="G28" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
-        <v>--</v>
-      </c>
-      <c r="G29" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D30" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
-        <v>--</v>
-      </c>
-      <c r="G30" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D31" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
-        <v>--</v>
-      </c>
-      <c r="G31" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D32" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
-        <v>--</v>
-      </c>
-      <c r="G32" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D33" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
-        <v>--</v>
-      </c>
-      <c r="G33" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D34" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
-        <v>--</v>
-      </c>
-      <c r="G34" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D35" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
-        <v>--</v>
-      </c>
-      <c r="G35" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
-        <v>--</v>
-      </c>
-      <c r="G36" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H36" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
-        <v>--</v>
-      </c>
-      <c r="G37" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H37" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I37" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
-        <v>--</v>
-      </c>
-      <c r="G38" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H38" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I38" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D39)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
-        <v>--</v>
-      </c>
-      <c r="G39" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H39" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I39" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
-        <v>--</v>
-      </c>
-      <c r="G40" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I40" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D41" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
-        <v>--</v>
-      </c>
-      <c r="G41" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I41" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D42" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
-        <v>--</v>
-      </c>
-      <c r="G42" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H42" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I42" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D43" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F43" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
-        <v>--</v>
-      </c>
-      <c r="G43" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H43" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I43" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D44" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D44)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F44" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
-        <v>--</v>
-      </c>
-      <c r="G44" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H44" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I44" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D45" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F45" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
-        <v>--</v>
-      </c>
-      <c r="G45" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H45" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I45" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D46" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F46" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
-        <v>--</v>
-      </c>
-      <c r="G46" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H46" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I46" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D47" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D47)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F47" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
-        <v>--</v>
-      </c>
-      <c r="G47" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H47" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I47" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D48" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D48)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F48" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
-        <v>--</v>
-      </c>
-      <c r="G48" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H48" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I48" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D49" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D49)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F49" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
-        <v>--</v>
-      </c>
-      <c r="G49" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H49" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I49" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D50" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
-        <v>--</v>
-      </c>
-      <c r="G50" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D51" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D51)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F51" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
-        <v>--</v>
-      </c>
-      <c r="G51" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I51" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D52" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D52)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
-        <v>--</v>
-      </c>
-      <c r="G52" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H52" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I52" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D53" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
-        <v>--</v>
-      </c>
-      <c r="G53" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I53" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D54" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
-        <v>--</v>
-      </c>
-      <c r="G54" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H54" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I54" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D55" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F55" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
-        <v>--</v>
-      </c>
-      <c r="G55" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H55" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D55)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I55" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D56" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D56)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F56" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
-        <v>--</v>
-      </c>
-      <c r="G56" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D56)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H56" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D56)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I56" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D57" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D57)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F57" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
-        <v>--</v>
-      </c>
-      <c r="G57" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D57)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H57" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D57)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I57" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D58" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E58" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D58)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
-        <v>--</v>
-      </c>
-      <c r="G58" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D58)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H58" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D58)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I58" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D59" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E59" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
-        <v>--</v>
-      </c>
-      <c r="G59" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H59" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I59" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D60" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D60)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
-        <v>--</v>
-      </c>
-      <c r="G60" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D60)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D60)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D61" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
-        <v>--</v>
-      </c>
-      <c r="G61" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D62" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D62)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F62" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
-        <v>--</v>
-      </c>
-      <c r="G62" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D62)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H62" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D62)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I62" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D63" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D63)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F63" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
-        <v>--</v>
-      </c>
-      <c r="G63" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D63)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H63" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D63)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I63" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D64" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D64)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
-        <v>--</v>
-      </c>
-      <c r="G64" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D64)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H64" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D64)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I64" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D65" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F65" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
-        <v>--</v>
-      </c>
-      <c r="G65" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H65" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I65" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D66" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D66)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
-        <v>--</v>
-      </c>
-      <c r="G66" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D66)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H66" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D66)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I66" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D67" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F67" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
-        <v>--</v>
-      </c>
-      <c r="G67" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H67" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I67" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D68" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D68)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F68" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
-        <v>--</v>
-      </c>
-      <c r="G68" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D68)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H68" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D68)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I68" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D69" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F69" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
-        <v>--</v>
-      </c>
-      <c r="G69" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H69" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I69" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D70" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D70)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F70" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
-        <v>--</v>
-      </c>
-      <c r="G70" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D70)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H70" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D70)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I70" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D71" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D71)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F71" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
-        <v>--</v>
-      </c>
-      <c r="G71" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D71)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H71" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D71)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I71" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D72" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F72" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
-        <v>--</v>
-      </c>
-      <c r="G72" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H72" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D72)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I72" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D73" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F73" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
-        <v>--</v>
-      </c>
-      <c r="G73" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H73" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D73)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I73" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D74" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D74)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F74" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
-        <v>--</v>
-      </c>
-      <c r="G74" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D74)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H74" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D74)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I74" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D75" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F75" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
-        <v>--</v>
-      </c>
-      <c r="G75" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H75" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D75)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I75" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D76" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D76)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F76" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
-        <v>--</v>
-      </c>
-      <c r="G76" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D76)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H76" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D76)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I76" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D77" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D77)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
-        <v>--</v>
-      </c>
-      <c r="G77" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D77)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H77" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D77)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I77" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D78" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D78)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F78" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
-        <v>--</v>
-      </c>
-      <c r="G78" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D78)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H78" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D78)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I78" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D79" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D79)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F79" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
-        <v>--</v>
-      </c>
-      <c r="G79" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D79)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H79" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D79)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I79" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D80" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F80" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
-        <v>--</v>
-      </c>
-      <c r="G80" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H80" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I80" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D81" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D81)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F81" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
-        <v>--</v>
-      </c>
-      <c r="G81" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D81)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H81" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D81)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I81" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D82" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D82)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F82" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
-        <v>--</v>
-      </c>
-      <c r="G82" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D82)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H82" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D82)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I82" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D83" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D83)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
-        <v>--</v>
-      </c>
-      <c r="G83" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D83)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H83" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D83)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I83" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D84" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D84)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
-        <v>--</v>
-      </c>
-      <c r="G84" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D84)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H84" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D84)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I84" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D85" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D85)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
-        <v>--</v>
-      </c>
-      <c r="G85" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D85)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H85" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D85)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I85" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D86" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E86" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D86)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
-        <v>--</v>
-      </c>
-      <c r="G86" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D86)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H86" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D86)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I86" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D87" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E87" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D87)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
-        <v>--</v>
-      </c>
-      <c r="G87" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D87)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H87" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D87)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I87" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D88" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D88)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F88" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
-        <v>--</v>
-      </c>
-      <c r="G88" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D88)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H88" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D88)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I88" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D89" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E89" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D89)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
-        <v>--</v>
-      </c>
-      <c r="G89" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D89)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H89" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D89)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I89" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D90" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E90" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D90)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F90" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
-        <v>--</v>
-      </c>
-      <c r="G90" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D90)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H90" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D90)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I90" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D91" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E91" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D91)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F91" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
-        <v>--</v>
-      </c>
-      <c r="G91" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D91)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H91" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D91)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I91" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D92" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E92" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D92)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F92" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
-        <v>--</v>
-      </c>
-      <c r="G92" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D92)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H92" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D92)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I92" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D93" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D93)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F93" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
-        <v>--</v>
-      </c>
-      <c r="G93" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D93)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H93" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D93)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I93" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D94" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E94" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D94)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F94" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
-        <v>--</v>
-      </c>
-      <c r="G94" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D94)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H94" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D94)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I94" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D95" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E95" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D95)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F95" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
-        <v>--</v>
-      </c>
-      <c r="G95" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D95)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H95" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D95)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I95" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D96" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E96" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D96)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F96" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
-        <v>--</v>
-      </c>
-      <c r="G96" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D96)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H96" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D96)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I96" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D97" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E97" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D97)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F97" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
-        <v>--</v>
-      </c>
-      <c r="G97" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D97)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H97" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D97)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I97" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D98" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E98" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D98)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F98" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
-        <v>--</v>
-      </c>
-      <c r="G98" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D98)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H98" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D98)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I98" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D99" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E99" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D99)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F99" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
-        <v>--</v>
-      </c>
-      <c r="G99" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D99)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H99" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D99)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I99" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D100" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E100" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D100)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F100" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
-        <v>--</v>
-      </c>
-      <c r="G100" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D100)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H100" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D100)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I100" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D101" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E101" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D101)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F101" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
-        <v>--</v>
-      </c>
-      <c r="G101" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D101)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H101" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D101)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I101" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D102" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E102" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D102)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F102" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
-        <v>--</v>
-      </c>
-      <c r="G102" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D102)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H102" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D102)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I102" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D103" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E103" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D103)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F103" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
-        <v>--</v>
-      </c>
-      <c r="G103" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D103)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H103" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D103)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I103" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D104" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E104" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D104)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F104" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
-        <v>--</v>
-      </c>
-      <c r="G104" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D104)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H104" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D104)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I104" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D105" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E105" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D105)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
-        <v>--</v>
-      </c>
-      <c r="G105" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D105)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H105" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D105)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I105" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D106" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E106" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D106)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F106" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
-        <v>--</v>
-      </c>
-      <c r="G106" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D106)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H106" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D106)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I106" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D107" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E107" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D107)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F107" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
-        <v>--</v>
-      </c>
-      <c r="G107" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D107)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H107" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D107)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I107" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D108" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E108" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D108)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F108" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
-        <v>--</v>
-      </c>
-      <c r="G108" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D108)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H108" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D108)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I108" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D109" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E109" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D109)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F109" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
-        <v>--</v>
-      </c>
-      <c r="G109" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D109)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H109" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D109)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I109" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D110" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E110" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D110)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F110" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
-        <v>--</v>
-      </c>
-      <c r="G110" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D110)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H110" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D110)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I110" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D111" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E111" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D111)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F111" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
-        <v>--</v>
-      </c>
-      <c r="G111" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D111)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H111" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D111)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I111" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D112" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E112" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D112)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F112" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
-        <v>--</v>
-      </c>
-      <c r="G112" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D112)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H112" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D112)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I112" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D113" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E113" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D113)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F113" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
-        <v>--</v>
-      </c>
-      <c r="G113" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D113)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H113" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D113)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I113" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D114" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E114" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D114)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F114" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
-        <v>--</v>
-      </c>
-      <c r="G114" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D114)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H114" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D114)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I114" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D115" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E115" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D115)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F115" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
-        <v>--</v>
-      </c>
-      <c r="G115" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D115)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H115" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D115)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I115" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D116" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E116" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D116)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F116" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
-        <v>--</v>
-      </c>
-      <c r="G116" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D116)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H116" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D116)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I116" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D117" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E117" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D117)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F117" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
-        <v>--</v>
-      </c>
-      <c r="G117" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D117)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H117" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D117)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I117" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D118" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E118" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D118)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F118" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
-        <v>--</v>
-      </c>
-      <c r="G118" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D118)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H118" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D118)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I118" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D119" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E119" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D119)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F119" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
-        <v>--</v>
-      </c>
-      <c r="G119" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D119)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H119" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D119)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I119" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D120" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E120" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D120)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F120" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
-        <v>--</v>
-      </c>
-      <c r="G120" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D120)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H120" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D120)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I120" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D121" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E121" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D121)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F121" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
-        <v>--</v>
-      </c>
-      <c r="G121" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D121)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H121" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D121)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I121" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D122" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E122" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D122)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F122" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
-        <v>--</v>
-      </c>
-      <c r="G122" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D122)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H122" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D122)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I122" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D123" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E123" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D123)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F123" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
-        <v>--</v>
-      </c>
-      <c r="G123" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D123)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H123" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D123)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I123" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D124" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E124" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D124)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F124" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
-        <v>--</v>
-      </c>
-      <c r="G124" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D124)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H124" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D124)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I124" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D125" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E125" s="22" t="e">
-        <f>_xll.qlRateHelperRate($D125)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F125" s="22" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
-        <v>--</v>
-      </c>
-      <c r="G125" s="23" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D125)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H125" s="24" t="e">
-        <f>_xll.qlRateHelperLatestDate($D125)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I125" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D126" s="31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E126" s="32" t="e">
-        <f>_xll.qlRateHelperRate($D126)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F126" s="32" t="str">
-        <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
-        <v>--</v>
-      </c>
-      <c r="G126" s="33" t="e">
-        <f>_xll.qlRateHelperEarliestDate($D126)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H126" s="34" t="e">
-        <f>_xll.qlRateHelperLatestDate($D126)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I126" s="18" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="D22" s="133"/>
+      <c r="I22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
@@ -33,6 +33,7 @@
     <definedName name="ObjectOverwrite">'General Settings'!$J$6</definedName>
     <definedName name="Permanent">'General Settings'!$J$5</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$J$16</definedName>
+    <definedName name="RateHelperConstructors" localSheetId="1">HKD_YCRH_FRAs_6M!$I$3:$I$22</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$8</definedName>
     <definedName name="RateHelpers">RateHelpers!$A$2:$A$19</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$D$2:$D$19</definedName>
@@ -1389,6 +1390,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1402,10 +1407,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -1752,20 +1753,20 @@
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
       <c r="G2" s="78"/>
-      <c r="H2" s="128" t="s">
+      <c r="H2" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
@@ -1797,7 +1798,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="89">
-        <v>41599.394988425927</v>
+        <v>41599.409629629627</v>
       </c>
       <c r="K4" s="90"/>
     </row>
@@ -1954,12 +1955,12 @@
       <c r="E12" s="81"/>
       <c r="F12" s="82"/>
       <c r="G12" s="78"/>
-      <c r="H12" s="128" t="s">
+      <c r="H12" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -2288,7 +2289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3184,9 +3187,9 @@
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="e">
         <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="b">
@@ -3742,10 +3745,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="134"/>
       <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="21" t="str">
-        <f t="array" ref="D2:D20">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
+        <f t="array" ref="D2:D20">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),ISERROR(HKD_YCRH_FRAs_6M!RateHelperConstructors))</f>
         <v>HKD_YC6MRH_1x7F</v>
       </c>
       <c r="E2" s="22">
@@ -3967,7 +3970,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D20),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_RateHelpersSelected#0003</v>
+        <v>HKD_YC6MRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="30" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -4336,8 +4339,8 @@
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="D22" s="128"/>
+      <c r="I22" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
@@ -2004,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="74">
-        <v>41599.452361111114</v>
+        <v>41599.519699074073</v>
       </c>
       <c r="K4" s="75"/>
     </row>
@@ -2414,9 +2414,7 @@
       <c r="A26" s="63"/>
       <c r="B26" s="107"/>
       <c r="C26" s="108"/>
-      <c r="D26" s="109">
-        <v>0.98768738899999997</v>
-      </c>
+      <c r="D26" s="109"/>
       <c r="E26" s="108"/>
       <c r="F26" s="110"/>
       <c r="G26" s="63"/>
@@ -2495,9 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="20265" yWindow="-15" windowWidth="5070" windowHeight="7875"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15030" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <definedName name="IborType">'General Settings'!$D$6</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$5</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$20</definedName>
-    <definedName name="MinDistance" localSheetId="2">RateHelpers!$J$2:$J$169</definedName>
-    <definedName name="MinDistance" localSheetId="3">RateHelpers!$J$2:$J$169</definedName>
+    <definedName name="MinDistance" localSheetId="2">RateHelpers!$J$2:$J$59</definedName>
+    <definedName name="MinDistance" localSheetId="3">RateHelpers!$J$2:$J$59</definedName>
     <definedName name="Months">'General Settings'!$D$4</definedName>
     <definedName name="NDays">'General Settings'!$D$13</definedName>
     <definedName name="nIMMFutures" localSheetId="3">Selected!$B$2</definedName>
@@ -35,9 +35,9 @@
     <definedName name="QuoteSuffix">'General Settings'!$J$16</definedName>
     <definedName name="RateHelperConstructors" localSheetId="1">HKD_YCRH_FRAs_6M!$I$3:$I$22</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$8</definedName>
-    <definedName name="RateHelpers">RateHelpers!$E$2:$E$169</definedName>
-    <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$169</definedName>
-    <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$169</definedName>
+    <definedName name="RateHelpers">RateHelpers!$E$2:$E$59</definedName>
+    <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$59</definedName>
+    <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$59</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$J$8</definedName>
     <definedName name="Serialize">'General Settings'!$J$7</definedName>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -288,21 +288,6 @@
     <t>nSerialFutures</t>
   </si>
   <si>
-    <t>depo</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>long term futures</t>
-  </si>
-  <si>
-    <t>swap</t>
-  </si>
-  <si>
-    <t>short term futures</t>
-  </si>
-  <si>
     <t>IndexTenor</t>
   </si>
   <si>
@@ -324,18 +309,12 @@
     <t>SwapFixedFreq</t>
   </si>
   <si>
-    <t>exotic swap</t>
-  </si>
-  <si>
     <t>Jump Values</t>
   </si>
   <si>
     <t>Min Distance</t>
   </si>
   <si>
-    <t>main ref depo</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -510,21 +489,6 @@
     <t>1Y</t>
   </si>
   <si>
-    <t>1S</t>
-  </si>
-  <si>
-    <t>2S</t>
-  </si>
-  <si>
-    <t>4S</t>
-  </si>
-  <si>
-    <t>3S</t>
-  </si>
-  <si>
-    <t>X1S</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -534,56 +498,26 @@
     <t>T</t>
   </si>
   <si>
-    <t>1YD</t>
-  </si>
-  <si>
-    <t>9MD</t>
-  </si>
-  <si>
     <t>6MD</t>
   </si>
   <si>
-    <t>5MD</t>
-  </si>
-  <si>
-    <t>4MD</t>
-  </si>
-  <si>
-    <t>3MD</t>
-  </si>
-  <si>
-    <t>2MD</t>
-  </si>
-  <si>
-    <t>1MD</t>
-  </si>
-  <si>
-    <t>3WD</t>
-  </si>
-  <si>
-    <t>2WD</t>
-  </si>
-  <si>
-    <t>SWD</t>
-  </si>
-  <si>
-    <t>SND</t>
-  </si>
-  <si>
-    <t>TND</t>
-  </si>
-  <si>
-    <t>OND</t>
-  </si>
-  <si>
     <t>Instrument code</t>
+  </si>
+  <si>
+    <t>HkdHibor6M</t>
+  </si>
+  <si>
+    <t>HkdHibor6MLastFixing_Quote</t>
+  </si>
+  <si>
+    <t>HkdHibor6MLastFixing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="12">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
@@ -594,8 +528,6 @@
     <numFmt numFmtId="171" formatCode="General_)"/>
     <numFmt numFmtId="172" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="173" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="174" formatCode="0.00000%"/>
-    <numFmt numFmtId="175" formatCode="0.0000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1271,7 +1203,7 @@
     <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1542,7 +1474,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1563,17 +1494,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1599,6 +1519,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1620,9 +1547,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1937,7 +1861,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1972,20 +1896,20 @@
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
       <c r="G2" s="63"/>
-      <c r="H2" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="H2" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
@@ -2003,8 +1927,8 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
       <c r="B4" s="64"/>
-      <c r="C4" s="134" t="s">
-        <v>38</v>
+      <c r="C4" s="128" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="103">
         <v>6</v>
@@ -2013,17 +1937,19 @@
       <c r="F4" s="67"/>
       <c r="G4" s="63"/>
       <c r="H4" s="68"/>
-      <c r="I4" s="142" t="s">
+      <c r="I4" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="72"/>
+      <c r="J4" s="72">
+        <v>41600.74664351852</v>
+      </c>
       <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
-      <c r="C5" s="135" t="s">
-        <v>34</v>
+      <c r="C5" s="129" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="74" t="str">
         <f>_xll.qlPeriodEquivalent(D4&amp;"M")</f>
@@ -2033,7 +1959,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="63"/>
       <c r="H5" s="68"/>
-      <c r="I5" s="142" t="s">
+      <c r="I5" s="136" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="72" t="b">
@@ -2044,17 +1970,17 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="63"/>
       <c r="B6" s="64"/>
-      <c r="C6" s="135" t="s">
-        <v>39</v>
+      <c r="C6" s="129" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="67"/>
       <c r="G6" s="63"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="142" t="s">
+      <c r="I6" s="136" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="72" t="b">
@@ -2065,18 +1991,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="63"/>
       <c r="B7" s="64"/>
-      <c r="C7" s="135" t="s">
-        <v>40</v>
+      <c r="C7" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7" s="66"/>
       <c r="F7" s="67"/>
       <c r="G7" s="63"/>
       <c r="H7" s="68"/>
-      <c r="I7" s="142" t="s">
-        <v>59</v>
+      <c r="I7" s="136" t="s">
+        <v>52</v>
       </c>
       <c r="J7" s="72" t="b">
         <v>1</v>
@@ -2086,7 +2012,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="63"/>
       <c r="B8" s="64"/>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="130" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="78" t="str">
@@ -2097,8 +2023,8 @@
       <c r="F8" s="67"/>
       <c r="G8" s="63"/>
       <c r="H8" s="68"/>
-      <c r="I8" s="142" t="s">
-        <v>58</v>
+      <c r="I8" s="136" t="s">
+        <v>51</v>
       </c>
       <c r="J8" s="72" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
@@ -2109,14 +2035,14 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="63"/>
       <c r="B9" s="64"/>
-      <c r="C9" s="137"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="79"/>
       <c r="E9" s="66"/>
       <c r="F9" s="67"/>
       <c r="G9" s="63"/>
       <c r="H9" s="68"/>
-      <c r="I9" s="142" t="s">
-        <v>57</v>
+      <c r="I9" s="136" t="s">
+        <v>50</v>
       </c>
       <c r="J9" s="72" t="b">
         <v>1</v>
@@ -2126,12 +2052,12 @@
     <row r="10" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
       <c r="B10" s="64"/>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="132" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="72" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D17),NA(),D15:E15),IF(ISERROR(D17),NA(),D16:E16),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC6M#0001</v>
+        <v>_HKDYC6M#0000</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="67"/>
@@ -2144,7 +2070,7 @@
     <row r="11" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63"/>
       <c r="B11" s="64"/>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="133" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="72" t="str">
@@ -2162,7 +2088,7 @@
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="64"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="132" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="83" t="str">
@@ -2172,17 +2098,17 @@
       <c r="E12" s="66"/>
       <c r="F12" s="67"/>
       <c r="G12" s="63"/>
-      <c r="H12" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
+      <c r="H12" s="142" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="63"/>
       <c r="B13" s="64"/>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="84">
@@ -2199,7 +2125,7 @@
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="63"/>
       <c r="B14" s="64"/>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="134" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="88"/>
@@ -2207,19 +2133,19 @@
       <c r="F14" s="67"/>
       <c r="G14" s="63"/>
       <c r="H14" s="80"/>
-      <c r="I14" s="142" t="s">
+      <c r="I14" s="136" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="72" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K14" s="82"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
       <c r="B15" s="64"/>
-      <c r="C15" s="140" t="s">
-        <v>36</v>
+      <c r="C15" s="134" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="89" t="str">
         <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
@@ -2232,19 +2158,19 @@
       <c r="F15" s="67"/>
       <c r="G15" s="63"/>
       <c r="H15" s="80"/>
-      <c r="I15" s="142" t="s">
-        <v>55</v>
+      <c r="I15" s="136" t="s">
+        <v>48</v>
       </c>
       <c r="J15" s="72" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="63"/>
       <c r="B16" s="64"/>
-      <c r="C16" s="140" t="s">
-        <v>37</v>
+      <c r="C16" s="134" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="90">
         <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
@@ -2257,19 +2183,19 @@
       <c r="F16" s="67"/>
       <c r="G16" s="63"/>
       <c r="H16" s="80"/>
-      <c r="I16" s="142" t="s">
-        <v>53</v>
+      <c r="I16" s="136" t="s">
+        <v>46</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="63"/>
       <c r="B17" s="64"/>
-      <c r="C17" s="140" t="s">
-        <v>42</v>
+      <c r="C17" s="134" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="92" t="e">
         <f>NA()</f>
@@ -2281,19 +2207,19 @@
       </c>
       <c r="F17" s="67"/>
       <c r="G17" s="63"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="142" t="s">
+      <c r="H17" s="135"/>
+      <c r="I17" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="143" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="144"/>
+      <c r="J17" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="138"/>
     </row>
     <row r="18" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="64"/>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="134" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="94"/>
@@ -2308,11 +2234,11 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="63"/>
       <c r="B19" s="64"/>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="134" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E19" s="66"/>
       <c r="F19" s="67"/>
@@ -2325,11 +2251,11 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="63"/>
       <c r="B20" s="64"/>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="133" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E20" s="66"/>
       <c r="F20" s="67"/>
@@ -2376,11 +2302,11 @@
       <c r="B23" s="64"/>
       <c r="C23" s="97">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>42149</v>
+        <v>42331</v>
       </c>
       <c r="D23" s="74">
         <f>MIN(_xll.ohPack(Selected!I1:I20))</f>
-        <v>0.99053619288250772</v>
+        <v>0.98767931763767025</v>
       </c>
       <c r="E23" s="66"/>
       <c r="F23" s="67"/>
@@ -2411,11 +2337,11 @@
     <row r="25" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
       <c r="B25" s="100"/>
-      <c r="C25" s="153" t="str">
+      <c r="C25" s="139" t="str">
         <f>UPPER(Currency)&amp;IndexTenor</f>
         <v>HKD6M</v>
       </c>
-      <c r="D25" s="153" t="b">
+      <c r="D25" s="139" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C25,YieldCurve)</f>
         <v>1</v>
       </c>
@@ -2512,7 +2438,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2555,21 +2483,21 @@
       <c r="C2" s="52"/>
       <c r="D2" s="51"/>
       <c r="E2" s="50" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H2" s="49" t="str">
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC6MRH_FRAs.xml</v>
       </c>
       <c r="I2" s="48">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
-        <v>20</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I23,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>21</v>
       </c>
       <c r="J2" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
@@ -2580,14 +2508,14 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3" s="41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" s="41" t="str">
         <f>"T"&amp;D1</f>
         <v>T6</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E3" s="38" t="str">
         <f t="shared" ref="E3:E22" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -2606,7 +2534,7 @@
       </c>
       <c r="I3" s="38" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_T6F1#0001</v>
+        <v>HKD_YC6MRH_T6F1#0000</v>
       </c>
       <c r="J3" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -2617,14 +2545,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="46" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C4" s="46" t="str">
         <f>"TOM"&amp;D1</f>
         <v>TOM6</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E4" s="43" t="str">
         <f t="shared" si="0"/>
@@ -2643,7 +2571,7 @@
       </c>
       <c r="I4" s="43" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_TOM6F1#0001</v>
+        <v>HKD_YC6MRH_TOM6F1#0000</v>
       </c>
       <c r="J4" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -2681,7 +2609,7 @@
       </c>
       <c r="I5" s="38" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_1x7F#0001</v>
+        <v>HKD_YC6MRH_1x7F#0000</v>
       </c>
       <c r="J5" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -2719,7 +2647,7 @@
       </c>
       <c r="I6" s="32" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_2x8F#0001</v>
+        <v>HKD_YC6MRH_2x8F#0000</v>
       </c>
       <c r="J6" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -2757,7 +2685,7 @@
       </c>
       <c r="I7" s="32" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_3x9F#0001</v>
+        <v>HKD_YC6MRH_3x9F#0000</v>
       </c>
       <c r="J7" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -2795,7 +2723,7 @@
       </c>
       <c r="I8" s="32" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_4x10F#0001</v>
+        <v>HKD_YC6MRH_4x10F#0000</v>
       </c>
       <c r="J8" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -2833,7 +2761,7 @@
       </c>
       <c r="I9" s="32" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_5x11F#0001</v>
+        <v>HKD_YC6MRH_5x11F#0000</v>
       </c>
       <c r="J9" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -2871,7 +2799,7 @@
       </c>
       <c r="I10" s="32" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_6x12F#0001</v>
+        <v>HKD_YC6MRH_6x12F#0000</v>
       </c>
       <c r="J10" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -2909,7 +2837,7 @@
       </c>
       <c r="I11" s="32" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_7x13F#0001</v>
+        <v>HKD_YC6MRH_7x13F#0000</v>
       </c>
       <c r="J11" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -2947,7 +2875,7 @@
       </c>
       <c r="I12" s="32" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_8x14F#0001</v>
+        <v>HKD_YC6MRH_8x14F#0000</v>
       </c>
       <c r="J12" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -2985,7 +2913,7 @@
       </c>
       <c r="I13" s="32" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_9x15F#0001</v>
+        <v>HKD_YC6MRH_9x15F#0000</v>
       </c>
       <c r="J13" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -3023,7 +2951,7 @@
       </c>
       <c r="I14" s="32" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_10x16F#0001</v>
+        <v>HKD_YC6MRH_10x16F#0000</v>
       </c>
       <c r="J14" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -3061,7 +2989,7 @@
       </c>
       <c r="I15" s="32" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_11x17F#0001</v>
+        <v>HKD_YC6MRH_11x17F#0000</v>
       </c>
       <c r="J15" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -3099,7 +3027,7 @@
       </c>
       <c r="I16" s="32" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_12x18F#0001</v>
+        <v>HKD_YC6MRH_12x18F#0000</v>
       </c>
       <c r="J16" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -3137,7 +3065,7 @@
       </c>
       <c r="I17" s="32" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_13x19F#0001</v>
+        <v>HKD_YC6MRH_13x19F#0000</v>
       </c>
       <c r="J17" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -3175,7 +3103,7 @@
       </c>
       <c r="I18" s="32" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_14x20F#0001</v>
+        <v>HKD_YC6MRH_14x20F#0000</v>
       </c>
       <c r="J18" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -3213,7 +3141,7 @@
       </c>
       <c r="I19" s="32" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_15x21F#0001</v>
+        <v>HKD_YC6MRH_15x21F#0000</v>
       </c>
       <c r="J19" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -3251,7 +3179,7 @@
       </c>
       <c r="I20" s="32" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_16x22F#0001</v>
+        <v>HKD_YC6MRH_16x22F#0000</v>
       </c>
       <c r="J20" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -3289,7 +3217,7 @@
       </c>
       <c r="I21" s="32" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_17x23F#0001</v>
+        <v>HKD_YC6MRH_17x23F#0000</v>
       </c>
       <c r="J21" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -3327,7 +3255,7 @@
       </c>
       <c r="I22" s="32" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_18x24F#0001</v>
+        <v>HKD_YC6MRH_18x24F#0000</v>
       </c>
       <c r="J22" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -3340,11 +3268,20 @@
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="E23" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
+      <c r="G23" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="141" t="str">
+        <f>_xll.qlDepositRateHelper(H23,G23,E23,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor6MLastFixing#0000</v>
+      </c>
       <c r="J23" s="27"/>
       <c r="K23" s="26"/>
     </row>
@@ -3361,9 +3298,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N169"/>
+  <dimension ref="B1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3384,12 +3323,12 @@
     <col min="17" max="16384" width="9.140625" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="148" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150"/>
+    <row r="1" spans="2:12" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3406,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
@@ -3415,354 +3354,366 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="133"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="127"/>
       <c r="C2" s="118"/>
       <c r="D2" s="117" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E2" s="117" t="str">
-        <f t="shared" ref="E2:E33" si="0">RateHelperPrefix&amp;"_"&amp;$B2&amp;$C2&amp;$D2</f>
-        <v>HKD_YC6MRH_OND</v>
-      </c>
-      <c r="F2" s="116" t="e">
+        <f>HKD_YCRH_FRAs_6M!I23</f>
+        <v>HkdHibor6MLastFixing#0000</v>
+      </c>
+      <c r="F2" s="116">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.4856999999999996E-3</v>
       </c>
       <c r="G2" s="116"/>
       <c r="H2" s="115" t="b">
-        <v>0</v>
+        <f>IF(ISERROR(F2),FALSE,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="I2" s="115">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J2" s="115">
         <v>1</v>
       </c>
-      <c r="K2" s="114" t="e">
+      <c r="K2" s="114">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="113" t="e">
+        <v>41600</v>
+      </c>
+      <c r="L2" s="113">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M2" s="104">
-        <v>10</v>
-      </c>
-      <c r="N2" s="104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="133"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="117" t="str">
+        <v>41781</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="125">
+        <f>Months</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="124" t="str">
+        <f t="shared" ref="E3:E4" si="0">RateHelperPrefix&amp;"_"&amp;$B3&amp;$C3&amp;$D3</f>
+        <v>HKD_YC6MRH_T6F1</v>
+      </c>
+      <c r="F3" s="123" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" s="123"/>
+      <c r="H3" s="122" t="b">
+        <f t="shared" ref="H3:H22" si="1">IF(ISERROR(F3),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="122">
+        <v>20</v>
+      </c>
+      <c r="J3" s="122">
+        <v>1</v>
+      </c>
+      <c r="K3" s="121">
+        <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
+        <v>41600</v>
+      </c>
+      <c r="L3" s="120">
+        <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
+        <v>41781</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="111">
+        <f>Months</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="110" t="str">
         <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_TND</v>
-      </c>
-      <c r="F3" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="115" t="b">
+        <v>HKD_YC6MRH_TOM6F1</v>
+      </c>
+      <c r="F4" s="109" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" s="109"/>
+      <c r="H4" s="108" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I3" s="115">
-        <v>10</v>
-      </c>
-      <c r="J3" s="115">
+      <c r="I4" s="108">
+        <v>20</v>
+      </c>
+      <c r="J4" s="108">
         <v>1</v>
       </c>
-      <c r="K3" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L3" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="104">
-        <v>20</v>
-      </c>
-      <c r="N3" s="104" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="133"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_SND</v>
-      </c>
-      <c r="F4" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="115">
-        <v>10</v>
-      </c>
-      <c r="J4" s="115">
+      <c r="K4" s="107">
+        <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
+        <v>41603</v>
+      </c>
+      <c r="L4" s="106">
+        <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
+        <v>41785</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="119">
         <v>1</v>
       </c>
-      <c r="K4" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L4" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M4" s="104">
-        <v>30</v>
-      </c>
-      <c r="N4" s="104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="133"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="117" t="s">
-        <v>121</v>
+      <c r="C5" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="117" t="str">
+        <f t="shared" ref="D5:D22" si="2">(B5+Months)&amp;"F"</f>
+        <v>7F</v>
       </c>
       <c r="E5" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_SWD</v>
-      </c>
-      <c r="F5" s="116" t="e">
+        <f>HKD_YCRH_FRAs_6M!I5</f>
+        <v>HKD_YC6MRH_1x7F#0000</v>
+      </c>
+      <c r="F5" s="116">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="G5" s="116"/>
       <c r="H5" s="115" t="b">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I5" s="115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J5" s="115">
         <v>1</v>
       </c>
-      <c r="K5" s="114" t="e">
+      <c r="K5" s="114">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L5" s="113" t="e">
+        <v>41631</v>
+      </c>
+      <c r="L5" s="113">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M5" s="104">
-        <v>40</v>
-      </c>
-      <c r="N5" s="104" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="133"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="117" t="s">
-        <v>120</v>
+        <v>41813</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="119">
+        <v>2</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>8F</v>
       </c>
       <c r="E6" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_2WD</v>
-      </c>
-      <c r="F6" s="116" t="e">
+        <f>HKD_YCRH_FRAs_6M!I6</f>
+        <v>HKD_YC6MRH_2x8F#0000</v>
+      </c>
+      <c r="F6" s="116">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="G6" s="116"/>
       <c r="H6" s="115" t="b">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I6" s="115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J6" s="115">
         <v>1</v>
       </c>
-      <c r="K6" s="114" t="e">
+      <c r="K6" s="114">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L6" s="113" t="e">
+        <v>41661</v>
+      </c>
+      <c r="L6" s="113">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M6" s="104">
-        <v>50</v>
-      </c>
-      <c r="N6" s="104" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="133"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="117" t="s">
-        <v>119</v>
+        <v>41842</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="119">
+        <v>3</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>9F</v>
       </c>
       <c r="E7" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_3WD</v>
-      </c>
-      <c r="F7" s="116" t="e">
+        <f>HKD_YCRH_FRAs_6M!I7</f>
+        <v>HKD_YC6MRH_3x9F#0000</v>
+      </c>
+      <c r="F7" s="116">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G7" s="116"/>
       <c r="H7" s="115" t="b">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I7" s="115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J7" s="115">
         <v>1</v>
       </c>
-      <c r="K7" s="114" t="e">
+      <c r="K7" s="114">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L7" s="113" t="e">
+        <v>41694</v>
+      </c>
+      <c r="L7" s="113">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M7" s="104">
-        <v>60</v>
-      </c>
-      <c r="N7" s="104" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="133"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="117" t="s">
-        <v>118</v>
+        <v>41876</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="119">
+        <v>4</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>10F</v>
       </c>
       <c r="E8" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_1MD</v>
-      </c>
-      <c r="F8" s="116" t="e">
+        <f>HKD_YCRH_FRAs_6M!I8</f>
+        <v>HKD_YC6MRH_4x10F#0000</v>
+      </c>
+      <c r="F8" s="116">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="G8" s="116"/>
       <c r="H8" s="115" t="b">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I8" s="115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="114" t="e">
+      <c r="K8" s="114">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L8" s="113" t="e">
+        <v>41722</v>
+      </c>
+      <c r="L8" s="113">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M8" s="104">
-        <v>70</v>
-      </c>
-      <c r="N8" s="104" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="133"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="117" t="s">
-        <v>117</v>
+        <v>41906</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="119">
+        <v>5</v>
+      </c>
+      <c r="C9" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>11F</v>
       </c>
       <c r="E9" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_2MD</v>
-      </c>
-      <c r="F9" s="116" t="e">
+        <f>HKD_YCRH_FRAs_6M!I9</f>
+        <v>HKD_YC6MRH_5x11F#0000</v>
+      </c>
+      <c r="F9" s="116">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="G9" s="116"/>
       <c r="H9" s="115" t="b">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I9" s="115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J9" s="115">
         <v>1</v>
       </c>
-      <c r="K9" s="114" t="e">
+      <c r="K9" s="114">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L9" s="113" t="e">
+        <v>41751</v>
+      </c>
+      <c r="L9" s="113">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="133"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="117" t="s">
-        <v>116</v>
+        <v>41934</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="119">
+        <v>6</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>12F</v>
       </c>
       <c r="E10" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_3MD</v>
-      </c>
-      <c r="F10" s="116" t="e">
+        <f>HKD_YCRH_FRAs_6M!I10</f>
+        <v>HKD_YC6MRH_6x12F#0000</v>
+      </c>
+      <c r="F10" s="116">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="G10" s="116"/>
       <c r="H10" s="115" t="b">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I10" s="115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J10" s="115">
         <v>1</v>
       </c>
-      <c r="K10" s="114" t="e">
+      <c r="K10" s="114">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L10" s="113" t="e">
+        <v>41781</v>
+      </c>
+      <c r="L10" s="113">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="133"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="117" t="s">
-        <v>115</v>
+        <v>41967</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="119">
+        <v>7</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>13F</v>
       </c>
       <c r="E11" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_4MD</v>
+        <f>HKD_YCRH_FRAs_6M!I11</f>
+        <v>HKD_YC6MRH_7x13F#0000</v>
       </c>
       <c r="F11" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
@@ -3770,32 +3721,38 @@
       </c>
       <c r="G11" s="116"/>
       <c r="H11" s="115" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J11" s="115">
         <v>1</v>
       </c>
-      <c r="K11" s="114" t="e">
+      <c r="K11" s="114">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L11" s="113" t="e">
+        <v>41813</v>
+      </c>
+      <c r="L11" s="113">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="133"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="117" t="s">
-        <v>114</v>
+        <v>41996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="119">
+        <v>8</v>
+      </c>
+      <c r="C12" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>14F</v>
       </c>
       <c r="E12" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_5MD</v>
+        <f>HKD_YCRH_FRAs_6M!I12</f>
+        <v>HKD_YC6MRH_8x14F#0000</v>
       </c>
       <c r="F12" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
@@ -3803,32 +3760,38 @@
       </c>
       <c r="G12" s="116"/>
       <c r="H12" s="115" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J12" s="115">
         <v>1</v>
       </c>
-      <c r="K12" s="114" t="e">
+      <c r="K12" s="114">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L12" s="113" t="e">
+        <v>41842</v>
+      </c>
+      <c r="L12" s="113">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="133"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="117" t="s">
-        <v>113</v>
+        <v>42026</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="119">
+        <v>9</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>15F</v>
       </c>
       <c r="E13" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_6MD</v>
+        <f>HKD_YCRH_FRAs_6M!I13</f>
+        <v>HKD_YC6MRH_9x15F#0000</v>
       </c>
       <c r="F13" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
@@ -3836,32 +3799,38 @@
       </c>
       <c r="G13" s="116"/>
       <c r="H13" s="115" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="115">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J13" s="115">
         <v>1</v>
       </c>
-      <c r="K13" s="114" t="e">
+      <c r="K13" s="114">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L13" s="113" t="e">
+        <v>41873</v>
+      </c>
+      <c r="L13" s="113">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="133"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="117" t="s">
-        <v>112</v>
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="119">
+        <v>10</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>16F</v>
       </c>
       <c r="E14" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_9MD</v>
+        <f>HKD_YCRH_FRAs_6M!I14</f>
+        <v>HKD_YC6MRH_10x16F#0000</v>
       </c>
       <c r="F14" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
@@ -3869,154 +3838,164 @@
       </c>
       <c r="G14" s="116"/>
       <c r="H14" s="115" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="115">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J14" s="115">
         <v>1</v>
       </c>
-      <c r="K14" s="114" t="e">
+      <c r="K14" s="114">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L14" s="113" t="e">
+        <v>41904</v>
+      </c>
+      <c r="L14" s="113">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="132"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="110" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_1YD</v>
-      </c>
-      <c r="F15" s="109" t="e">
+        <v>42086</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="119">
+        <v>11</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>17F</v>
+      </c>
+      <c r="E15" s="117" t="str">
+        <f>HKD_YCRH_FRAs_6M!I15</f>
+        <v>HKD_YC6MRH_11x17F#0000</v>
+      </c>
+      <c r="F15" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="108" t="b">
+      <c r="G15" s="116"/>
+      <c r="H15" s="115" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="108">
-        <v>10</v>
-      </c>
-      <c r="J15" s="108">
+      <c r="I15" s="115">
+        <v>20</v>
+      </c>
+      <c r="J15" s="115">
         <v>1</v>
       </c>
-      <c r="K15" s="107" t="e">
+      <c r="K15" s="114">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L15" s="106" t="e">
+        <v>41934</v>
+      </c>
+      <c r="L15" s="113">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="126">
-        <f>Months</f>
-        <v>6</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="125" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_T6F1</v>
-      </c>
-      <c r="F16" s="124" t="e">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="119">
+        <v>12</v>
+      </c>
+      <c r="C16" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>18F</v>
+      </c>
+      <c r="E16" s="117" t="str">
+        <f>HKD_YCRH_FRAs_6M!I16</f>
+        <v>HKD_YC6MRH_12x18F#0000</v>
+      </c>
+      <c r="F16" s="116">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" s="124"/>
-      <c r="H16" s="123" t="b">
+        <v>6.1000000000000013E-3</v>
+      </c>
+      <c r="G16" s="116"/>
+      <c r="H16" s="115" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="115">
+        <v>20</v>
+      </c>
+      <c r="J16" s="115">
+        <v>1</v>
+      </c>
+      <c r="K16" s="114">
+        <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
+        <v>41967</v>
+      </c>
+      <c r="L16" s="113">
+        <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="119">
+        <v>13</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>19F</v>
+      </c>
+      <c r="E17" s="117" t="str">
+        <f>HKD_YCRH_FRAs_6M!I17</f>
+        <v>HKD_YC6MRH_13x19F#0000</v>
+      </c>
+      <c r="F17" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G17" s="116"/>
+      <c r="H17" s="115" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="123">
+      <c r="I17" s="115">
         <v>20</v>
       </c>
-      <c r="J16" s="123">
+      <c r="J17" s="115">
         <v>1</v>
       </c>
-      <c r="K16" s="122">
-        <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41600</v>
-      </c>
-      <c r="L16" s="121">
-        <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41603</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="111">
-        <f>Months</f>
-        <v>6</v>
-      </c>
-      <c r="D17" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="110" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_TOM6F1</v>
-      </c>
-      <c r="F17" s="109" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="108">
-        <v>20</v>
-      </c>
-      <c r="J17" s="108">
-        <v>1</v>
-      </c>
-      <c r="K17" s="107">
+      <c r="K17" s="114">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41603</v>
-      </c>
-      <c r="L17" s="106">
+        <v>41995</v>
+      </c>
+      <c r="L17" s="113">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41604</v>
+        <v>42177</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="119">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C18" s="118" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D18" s="117" t="str">
-        <f t="shared" ref="D18:D35" si="1">(B18+Months)&amp;"F"</f>
-        <v>7F</v>
+        <f t="shared" si="2"/>
+        <v>20F</v>
       </c>
       <c r="E18" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_1x7F</v>
-      </c>
-      <c r="F18" s="116">
+        <f>HKD_YCRH_FRAs_6M!I18</f>
+        <v>HKD_YC6MRH_14x20F#0000</v>
+      </c>
+      <c r="F18" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G18" s="116"/>
       <c r="H18" s="115" t="b">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I18" s="115">
         <v>20</v>
@@ -4026,35 +4005,36 @@
       </c>
       <c r="K18" s="114">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41631</v>
+        <v>42026</v>
       </c>
       <c r="L18" s="113">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41632</v>
+        <v>42207</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="119">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C19" s="118" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D19" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>8F</v>
+        <f t="shared" si="2"/>
+        <v>21F</v>
       </c>
       <c r="E19" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_2x8F</v>
-      </c>
-      <c r="F19" s="116">
+        <f>HKD_YCRH_FRAs_6M!I19</f>
+        <v>HKD_YC6MRH_15x21F#0000</v>
+      </c>
+      <c r="F19" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G19" s="116"/>
       <c r="H19" s="115" t="b">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I19" s="115">
         <v>20</v>
@@ -4064,35 +4044,36 @@
       </c>
       <c r="K19" s="114">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41661</v>
+        <v>42058</v>
       </c>
       <c r="L19" s="113">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>41662</v>
+        <v>42240</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="119">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C20" s="118" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D20" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>9F</v>
+        <f t="shared" si="2"/>
+        <v>22F</v>
       </c>
       <c r="E20" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_3x9F</v>
-      </c>
-      <c r="F20" s="116">
+        <f>HKD_YCRH_FRAs_6M!I20</f>
+        <v>HKD_YC6MRH_16x22F#0000</v>
+      </c>
+      <c r="F20" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G20" s="116"/>
       <c r="H20" s="115" t="b">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I20" s="115">
         <v>20</v>
@@ -4102,35 +4083,36 @@
       </c>
       <c r="K20" s="114">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41694</v>
+        <v>42086</v>
       </c>
       <c r="L20" s="113">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>41695</v>
+        <v>42270</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="119">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C21" s="118" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D21" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>10F</v>
+        <f t="shared" si="2"/>
+        <v>23F</v>
       </c>
       <c r="E21" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_4x10F</v>
-      </c>
-      <c r="F21" s="116">
+        <f>HKD_YCRH_FRAs_6M!I21</f>
+        <v>HKD_YC6MRH_17x23F#0000</v>
+      </c>
+      <c r="F21" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>5.1000000000000004E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G21" s="116"/>
       <c r="H21" s="115" t="b">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I21" s="115">
         <v>20</v>
@@ -4140,575 +4122,641 @@
       </c>
       <c r="K21" s="114">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41722</v>
+        <v>42116</v>
       </c>
       <c r="L21" s="113">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>41723</v>
+        <v>42299</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="119">
-        <v>5</v>
-      </c>
-      <c r="C22" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="117" t="str">
+      <c r="B22" s="112">
+        <v>18</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="110" t="str">
+        <f t="shared" si="2"/>
+        <v>24F</v>
+      </c>
+      <c r="E22" s="110" t="str">
+        <f>HKD_YCRH_FRAs_6M!I22</f>
+        <v>HKD_YC6MRH_18x24F#0000</v>
+      </c>
+      <c r="F22" s="109">
+        <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
+        <v>7.8000000000000005E-3</v>
+      </c>
+      <c r="G22" s="109"/>
+      <c r="H22" s="108" t="b">
         <f t="shared" si="1"/>
-        <v>11F</v>
-      </c>
-      <c r="E22" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_5x11F</v>
-      </c>
-      <c r="F22" s="116">
-        <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="115" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="115">
+      <c r="I22" s="108">
         <v>20</v>
       </c>
-      <c r="J22" s="115">
+      <c r="J22" s="108">
         <v>1</v>
       </c>
-      <c r="K22" s="114">
+      <c r="K22" s="107">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41751</v>
-      </c>
-      <c r="L22" s="113">
+        <v>42146</v>
+      </c>
+      <c r="L22" s="106">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>41752</v>
+        <v>42331</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="119">
-        <v>6</v>
-      </c>
-      <c r="C23" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>12F</v>
+      <c r="B23" s="119" t="str">
+        <f t="shared" ref="B23:B49" si="3">SwapFixedFreq</f>
+        <v>QM</v>
+      </c>
+      <c r="C23" s="118" t="str">
+        <f t="shared" ref="C23:C59" si="4">IborType&amp;"BASIS"</f>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D23" s="117" t="s">
+        <v>95</v>
       </c>
       <c r="E23" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_6x12F</v>
-      </c>
-      <c r="F23" s="116">
+        <f t="shared" ref="E23:E51" si="5">RateHelperPrefix&amp;"_"&amp;$B23&amp;$C23&amp;$D23</f>
+        <v>HKD_YC6MRH_QM3HBASIS1Y</v>
+      </c>
+      <c r="F23" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="G23" s="116"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G23" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E23,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H23" s="115" t="b">
-        <v>1</v>
+        <f t="shared" ref="H23:H33" si="6">IF(ISERROR(F23),FALSE,TRUE)</f>
+        <v>0</v>
       </c>
       <c r="I23" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J23" s="115">
         <v>1</v>
       </c>
-      <c r="K23" s="114">
+      <c r="K23" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41781</v>
-      </c>
-      <c r="L23" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L23" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>41782</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="119">
-        <v>7</v>
-      </c>
-      <c r="C24" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>13F</v>
+      <c r="B24" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C24" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D24" s="117" t="s">
+        <v>94</v>
       </c>
       <c r="E24" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_7x13F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS15M</v>
       </c>
       <c r="F24" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G24" s="116"/>
+      <c r="G24" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E24,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H24" s="115" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I24" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J24" s="115">
         <v>1</v>
       </c>
-      <c r="K24" s="114">
+      <c r="K24" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41813</v>
-      </c>
-      <c r="L24" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L24" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>41814</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="119">
-        <v>8</v>
-      </c>
-      <c r="C25" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>14F</v>
+      <c r="B25" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C25" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D25" s="117" t="s">
+        <v>93</v>
       </c>
       <c r="E25" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_8x14F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS18M</v>
       </c>
       <c r="F25" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G25" s="116"/>
+      <c r="G25" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E25,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H25" s="115" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I25" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J25" s="115">
         <v>1</v>
       </c>
-      <c r="K25" s="114">
+      <c r="K25" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>41842</v>
-      </c>
-      <c r="L25" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L25" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>41843</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="119">
-        <v>9</v>
-      </c>
-      <c r="C26" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>15F</v>
+      <c r="B26" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C26" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D26" s="117" t="s">
+        <v>92</v>
       </c>
       <c r="E26" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_9x15F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS21M</v>
       </c>
       <c r="F26" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G26" s="116"/>
+      <c r="G26" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E26,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H26" s="115" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I26" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J26" s="115">
         <v>1</v>
       </c>
-      <c r="K26" s="114">
+      <c r="K26" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>41873</v>
-      </c>
-      <c r="L26" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L26" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>41876</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="119">
-        <v>10</v>
-      </c>
-      <c r="C27" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>16F</v>
+      <c r="B27" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C27" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>91</v>
       </c>
       <c r="E27" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_10x16F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS2Y</v>
       </c>
       <c r="F27" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G27" s="116"/>
+      <c r="G27" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E27,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H27" s="115" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I27" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J27" s="115">
         <v>1</v>
       </c>
-      <c r="K27" s="114">
+      <c r="K27" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>41904</v>
-      </c>
-      <c r="L27" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L27" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>41905</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="119">
-        <v>11</v>
-      </c>
-      <c r="C28" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>17F</v>
+      <c r="B28" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C28" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D28" s="117" t="s">
+        <v>90</v>
       </c>
       <c r="E28" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_11x17F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS3Y</v>
       </c>
       <c r="F28" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G28" s="116"/>
+      <c r="G28" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E28,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H28" s="115" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I28" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J28" s="115">
         <v>1</v>
       </c>
-      <c r="K28" s="114">
+      <c r="K28" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41934</v>
-      </c>
-      <c r="L28" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L28" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>41935</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="119">
-        <v>12</v>
-      </c>
-      <c r="C29" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>18F</v>
+      <c r="B29" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C29" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D29" s="117" t="s">
+        <v>89</v>
       </c>
       <c r="E29" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_12x18F</v>
-      </c>
-      <c r="F29" s="116">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS4Y</v>
+      </c>
+      <c r="F29" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>6.1000000000000013E-3</v>
-      </c>
-      <c r="G29" s="116"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G29" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E29,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H29" s="115" t="b">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I29" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J29" s="115">
         <v>1</v>
       </c>
-      <c r="K29" s="114">
+      <c r="K29" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41967</v>
-      </c>
-      <c r="L29" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L29" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>41968</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="119">
-        <v>13</v>
-      </c>
-      <c r="C30" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>19F</v>
+      <c r="B30" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C30" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>88</v>
       </c>
       <c r="E30" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_13x19F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS5Y</v>
       </c>
       <c r="F30" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G30" s="116"/>
+      <c r="G30" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E30,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H30" s="115" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I30" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J30" s="115">
         <v>1</v>
       </c>
-      <c r="K30" s="114">
+      <c r="K30" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>41995</v>
-      </c>
-      <c r="L30" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L30" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>41996</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="119">
-        <v>14</v>
-      </c>
-      <c r="C31" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>20F</v>
+      <c r="B31" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C31" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>87</v>
       </c>
       <c r="E31" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_14x20F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS6Y</v>
       </c>
       <c r="F31" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G31" s="116"/>
+      <c r="G31" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E31,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H31" s="115" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I31" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J31" s="115">
         <v>1</v>
       </c>
-      <c r="K31" s="114">
+      <c r="K31" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>42026</v>
-      </c>
-      <c r="L31" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L31" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42027</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="119">
-        <v>15</v>
-      </c>
-      <c r="C32" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>21F</v>
+      <c r="B32" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C32" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D32" s="117" t="s">
+        <v>86</v>
       </c>
       <c r="E32" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_15x21F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS7Y</v>
       </c>
       <c r="F32" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G32" s="116"/>
+      <c r="G32" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E32,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H32" s="115" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I32" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J32" s="115">
         <v>1</v>
       </c>
-      <c r="K32" s="114">
+      <c r="K32" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>42058</v>
-      </c>
-      <c r="L32" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L32" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42059</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="119">
-        <v>16</v>
-      </c>
-      <c r="C33" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>22F</v>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C33" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>85</v>
       </c>
       <c r="E33" s="117" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD_YC6MRH_16x22F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS8Y</v>
       </c>
       <c r="F33" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G33" s="116"/>
+      <c r="G33" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E33,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H33" s="115" t="b">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I33" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J33" s="115">
         <v>1</v>
       </c>
-      <c r="K33" s="114">
+      <c r="K33" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42086</v>
-      </c>
-      <c r="L33" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L33" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42087</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="119">
-        <v>17</v>
-      </c>
-      <c r="C34" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>23F</v>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C34" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D34" s="117" t="s">
+        <v>84</v>
       </c>
       <c r="E34" s="117" t="str">
-        <f t="shared" ref="E34:E65" si="2">RateHelperPrefix&amp;"_"&amp;$B34&amp;$C34&amp;$D34</f>
-        <v>HKD_YC6MRH_17x23F</v>
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS9Y</v>
       </c>
       <c r="F34" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E34,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H34" s="115" t="b">
+        <f t="shared" ref="H34:H59" si="7">IF(ISERROR(F34),FALSE,TRUE)</f>
         <v>0</v>
       </c>
       <c r="I34" s="115">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J34" s="115">
         <v>1</v>
       </c>
-      <c r="K34" s="114">
+      <c r="K34" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42116</v>
-      </c>
-      <c r="L34" s="113">
+        <v>#NUM!</v>
+      </c>
+      <c r="L34" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="112">
-        <v>18</v>
-      </c>
-      <c r="C35" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="110" t="str">
-        <f t="shared" si="1"/>
-        <v>24F</v>
-      </c>
-      <c r="E35" s="110" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_18x24F</v>
-      </c>
-      <c r="F35" s="109">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C35" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D35" s="117" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS10Y</v>
+      </c>
+      <c r="F35" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>7.8000000000000005E-3</v>
-      </c>
-      <c r="G35" s="109"/>
-      <c r="H35" s="108" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="G35" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H35" s="115" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="115">
+        <v>40</v>
+      </c>
+      <c r="J35" s="115">
         <v>1</v>
       </c>
-      <c r="I35" s="108">
-        <v>20</v>
-      </c>
-      <c r="J35" s="108">
-        <v>1</v>
-      </c>
-      <c r="K35" s="107">
+      <c r="K35" s="114" t="e">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42146</v>
-      </c>
-      <c r="L35" s="106">
+        <v>#NUM!</v>
+      </c>
+      <c r="L35" s="113" t="e">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="126" t="b">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C36" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D36" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS11Y</v>
+      </c>
+      <c r="F36" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G36" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H36" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="118" t="str">
-        <f t="shared" ref="C36:C77" si="3">IF(IndexTenor="6M","IMMFRA","FUT")&amp;IndexTenor</f>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D36" s="117" t="str">
-        <f t="array" ref="D36:D77">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A36:$A77)</f>
-        <v>Z3</v>
-      </c>
-      <c r="E36" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MZ3</v>
-      </c>
-      <c r="F36" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G36" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E36,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H36" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I36" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J36" s="115">
         <v>1</v>
@@ -4722,35 +4770,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="118" t="b">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C37" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D37" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS12Y</v>
+      </c>
+      <c r="F37" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G37" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E37,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H37" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D37" s="117" t="str">
-        <v>F4</v>
-      </c>
-      <c r="E37" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MF4</v>
-      </c>
-      <c r="F37" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G37" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E37,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H37" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I37" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J37" s="115">
         <v>1</v>
@@ -4764,35 +4813,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="118" t="b">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C38" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D38" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS13Y</v>
+      </c>
+      <c r="F38" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G38" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H38" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D38" s="117" t="str">
-        <v>G4</v>
-      </c>
-      <c r="E38" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MG4</v>
-      </c>
-      <c r="F38" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G38" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H38" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I38" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J38" s="115">
         <v>1</v>
@@ -4806,35 +4856,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="118" t="b">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C39" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D39" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS14Y</v>
+      </c>
+      <c r="F39" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G39" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E39,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H39" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D39" s="117" t="str">
-        <v>H4</v>
-      </c>
-      <c r="E39" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MH4</v>
-      </c>
-      <c r="F39" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G39" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H39" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I39" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J39" s="115">
         <v>1</v>
@@ -4848,35 +4899,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="118" t="b">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C40" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D40" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS15Y</v>
+      </c>
+      <c r="F40" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G40" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H40" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B40" s="119"/>
-      <c r="C40" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D40" s="117" t="str">
-        <v>J4</v>
-      </c>
-      <c r="E40" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MJ4</v>
-      </c>
-      <c r="F40" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G40" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H40" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I40" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J40" s="115">
         <v>1</v>
@@ -4890,35 +4942,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="118" t="b">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C41" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D41" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS16Y</v>
+      </c>
+      <c r="F41" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G41" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H41" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D41" s="117" t="str">
-        <v>K4</v>
-      </c>
-      <c r="E41" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MK4</v>
-      </c>
-      <c r="F41" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G41" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H41" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I41" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J41" s="115">
         <v>1</v>
@@ -4932,35 +4985,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="118" t="b">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C42" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D42" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS17Y</v>
+      </c>
+      <c r="F42" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G42" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H42" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B42" s="119"/>
-      <c r="C42" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D42" s="117" t="str">
-        <v>M4</v>
-      </c>
-      <c r="E42" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MM4</v>
-      </c>
-      <c r="F42" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G42" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H42" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I42" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J42" s="115">
         <v>1</v>
@@ -4974,35 +5028,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="118" t="b">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C43" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D43" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS18Y</v>
+      </c>
+      <c r="F43" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G43" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H43" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D43" s="117" t="str">
-        <v>N4</v>
-      </c>
-      <c r="E43" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MN4</v>
-      </c>
-      <c r="F43" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G43" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H43" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I43" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J43" s="115">
         <v>1</v>
@@ -5016,35 +5071,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="118" t="b">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C44" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D44" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS19Y</v>
+      </c>
+      <c r="F44" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G44" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H44" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B44" s="119"/>
-      <c r="C44" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D44" s="117" t="str">
-        <v>Q4</v>
-      </c>
-      <c r="E44" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MQ4</v>
-      </c>
-      <c r="F44" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G44" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H44" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I44" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J44" s="115">
         <v>1</v>
@@ -5058,35 +5114,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="118" t="b">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C45" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D45" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS20Y</v>
+      </c>
+      <c r="F45" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G45" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H45" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D45" s="117" t="str">
-        <v>U4</v>
-      </c>
-      <c r="E45" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MU4</v>
-      </c>
-      <c r="F45" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G45" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H45" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I45" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J45" s="115">
         <v>1</v>
@@ -5100,35 +5157,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="118" t="b">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C46" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D46" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS21Y</v>
+      </c>
+      <c r="F46" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G46" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H46" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B46" s="119"/>
-      <c r="C46" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D46" s="117" t="str">
-        <v>V4</v>
-      </c>
-      <c r="E46" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MV4</v>
-      </c>
-      <c r="F46" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G46" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H46" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I46" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J46" s="115">
         <v>1</v>
@@ -5142,35 +5200,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="118" t="b">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
+      <c r="C47" s="118" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D47" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="117" t="str">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS22Y</v>
+      </c>
+      <c r="F47" s="116" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G47" s="116" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E47,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H47" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B47" s="119"/>
-      <c r="C47" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D47" s="117" t="str">
-        <v>X4</v>
-      </c>
-      <c r="E47" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MX4</v>
-      </c>
-      <c r="F47" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G47" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H47" s="115" t="b">
-        <v>0</v>
-      </c>
       <c r="I47" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J47" s="115">
         <v>1</v>
@@ -5184,35 +5243,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B48" s="119"/>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
       <c r="C48" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D48" s="117" t="str">
-        <v>Z4</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D48" s="117" t="s">
+        <v>70</v>
       </c>
       <c r="E48" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MZ4</v>
-      </c>
-      <c r="F48" s="131" t="e">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS23Y</v>
+      </c>
+      <c r="F48" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G48" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H48" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I48" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J48" s="115">
         <v>1</v>
@@ -5226,35 +5286,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B49" s="119"/>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="119" t="str">
+        <f t="shared" si="3"/>
+        <v>QM</v>
+      </c>
       <c r="C49" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D49" s="117" t="str">
-        <v>H5</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D49" s="117" t="s">
+        <v>69</v>
       </c>
       <c r="E49" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MH5</v>
-      </c>
-      <c r="F49" s="131" t="e">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS24Y</v>
+      </c>
+      <c r="F49" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G49" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H49" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I49" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J49" s="115">
         <v>1</v>
@@ -5268,35 +5329,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B50" s="119"/>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="119" t="str">
+        <f t="shared" ref="B50:B59" si="8">SwapFixedFreq</f>
+        <v>QM</v>
+      </c>
       <c r="C50" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D50" s="117" t="str">
-        <v>M5</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D50" s="117" t="s">
+        <v>68</v>
       </c>
       <c r="E50" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MM5</v>
-      </c>
-      <c r="F50" s="131" t="e">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS25Y</v>
+      </c>
+      <c r="F50" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G50" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H50" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I50" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J50" s="115">
         <v>1</v>
@@ -5310,35 +5372,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B51" s="119"/>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="119" t="str">
+        <f t="shared" si="8"/>
+        <v>QM</v>
+      </c>
       <c r="C51" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D51" s="117" t="str">
-        <v>U5</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D51" s="117" t="s">
+        <v>67</v>
       </c>
       <c r="E51" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MU5</v>
-      </c>
-      <c r="F51" s="131" t="e">
+        <f t="shared" si="5"/>
+        <v>HKD_YC6MRH_QM3HBASIS26Y</v>
+      </c>
+      <c r="F51" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G51" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H51" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I51" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J51" s="115">
         <v>1</v>
@@ -5352,35 +5415,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B52" s="119"/>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="119" t="str">
+        <f t="shared" si="8"/>
+        <v>QM</v>
+      </c>
       <c r="C52" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D52" s="117" t="str">
-        <v>Z5</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D52" s="117" t="s">
+        <v>66</v>
       </c>
       <c r="E52" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MZ5</v>
-      </c>
-      <c r="F52" s="131" t="e">
+        <f t="shared" ref="E52:E59" si="9">RateHelperPrefix&amp;"_"&amp;$B52&amp;$C52&amp;$D52</f>
+        <v>HKD_YC6MRH_QM3HBASIS27Y</v>
+      </c>
+      <c r="F52" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G52" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H52" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I52" s="115">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J52" s="115">
         <v>1</v>
@@ -5394,35 +5458,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B53" s="119"/>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="119" t="str">
+        <f t="shared" si="8"/>
+        <v>QM</v>
+      </c>
       <c r="C53" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D53" s="117" t="str">
-        <v>H6</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D53" s="117" t="s">
+        <v>65</v>
       </c>
       <c r="E53" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MH6</v>
-      </c>
-      <c r="F53" s="131" t="e">
+        <f t="shared" si="9"/>
+        <v>HKD_YC6MRH_QM3HBASIS28Y</v>
+      </c>
+      <c r="F53" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G53" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H53" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I53" s="115">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J53" s="115">
         <v>1</v>
@@ -5436,35 +5501,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="119"/>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="119" t="str">
+        <f t="shared" si="8"/>
+        <v>QM</v>
+      </c>
       <c r="C54" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D54" s="117" t="str">
-        <v>M6</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D54" s="117" t="s">
+        <v>64</v>
       </c>
       <c r="E54" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MM6</v>
-      </c>
-      <c r="F54" s="131" t="e">
+        <f t="shared" si="9"/>
+        <v>HKD_YC6MRH_QM3HBASIS29Y</v>
+      </c>
+      <c r="F54" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G54" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H54" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I54" s="115">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J54" s="115">
         <v>1</v>
@@ -5478,35 +5544,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B55" s="119"/>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="119" t="str">
+        <f t="shared" si="8"/>
+        <v>QM</v>
+      </c>
       <c r="C55" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D55" s="117" t="str">
-        <v>U6</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D55" s="117" t="s">
+        <v>63</v>
       </c>
       <c r="E55" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MU6</v>
-      </c>
-      <c r="F55" s="131" t="e">
+        <f t="shared" si="9"/>
+        <v>HKD_YC6MRH_QM3HBASIS30Y</v>
+      </c>
+      <c r="F55" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G55" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H55" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I55" s="115">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J55" s="115">
         <v>1</v>
@@ -5520,35 +5587,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B56" s="119"/>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="119" t="str">
+        <f t="shared" si="8"/>
+        <v>QM</v>
+      </c>
       <c r="C56" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D56" s="117" t="str">
-        <v>Z6</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D56" s="117" t="s">
+        <v>62</v>
       </c>
       <c r="E56" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MZ6</v>
-      </c>
-      <c r="F56" s="131" t="e">
+        <f t="shared" si="9"/>
+        <v>HKD_YC6MRH_QM3HBASIS35Y</v>
+      </c>
+      <c r="F56" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G56" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H56" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I56" s="115">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J56" s="115">
         <v>1</v>
@@ -5562,35 +5630,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B57" s="119"/>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="119" t="str">
+        <f t="shared" si="8"/>
+        <v>QM</v>
+      </c>
       <c r="C57" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D57" s="117" t="str">
-        <v>H7</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D57" s="117" t="s">
+        <v>61</v>
       </c>
       <c r="E57" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MH7</v>
-      </c>
-      <c r="F57" s="131" t="e">
+        <f t="shared" si="9"/>
+        <v>HKD_YC6MRH_QM3HBASIS40Y</v>
+      </c>
+      <c r="F57" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G57" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H57" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I57" s="115">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J57" s="115">
         <v>1</v>
@@ -5604,35 +5673,36 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B58" s="119"/>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="119" t="str">
+        <f t="shared" si="8"/>
+        <v>QM</v>
+      </c>
       <c r="C58" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D58" s="117" t="str">
-        <v>M7</v>
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D58" s="117" t="s">
+        <v>60</v>
       </c>
       <c r="E58" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MM7</v>
-      </c>
-      <c r="F58" s="131" t="e">
+        <f t="shared" si="9"/>
+        <v>HKD_YC6MRH_QM3HBASIS50Y</v>
+      </c>
+      <c r="F58" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="G58" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
+        <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
       <c r="H58" s="115" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I58" s="115">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J58" s="115">
         <v>1</v>
@@ -5646,4744 +5716,46 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="118" t="b">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="112" t="str">
+        <f t="shared" si="8"/>
+        <v>QM</v>
+      </c>
+      <c r="C59" s="111" t="str">
+        <f t="shared" si="4"/>
+        <v>3HBASIS</v>
+      </c>
+      <c r="D59" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="110" t="str">
+        <f t="shared" si="9"/>
+        <v>HKD_YC6MRH_QM3HBASIS60Y</v>
+      </c>
+      <c r="F59" s="109" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G59" s="109" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H59" s="108" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="108">
+        <v>40</v>
+      </c>
+      <c r="J59" s="108">
         <v>1</v>
       </c>
-      <c r="B59" s="119"/>
-      <c r="C59" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D59" s="117" t="str">
-        <v>U7</v>
-      </c>
-      <c r="E59" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MU7</v>
-      </c>
-      <c r="F59" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G59" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H59" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" s="115">
-        <v>30</v>
-      </c>
-      <c r="J59" s="115">
-        <v>1</v>
-      </c>
-      <c r="K59" s="114" t="e">
+      <c r="K59" s="107" t="e">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L59" s="113" t="e">
+      <c r="L59" s="106" t="e">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B60" s="119"/>
-      <c r="C60" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D60" s="117" t="str">
-        <v>Z7</v>
-      </c>
-      <c r="E60" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MZ7</v>
-      </c>
-      <c r="F60" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G60" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H60" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" s="115">
-        <v>30</v>
-      </c>
-      <c r="J60" s="115">
-        <v>1</v>
-      </c>
-      <c r="K60" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L60" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B61" s="119"/>
-      <c r="C61" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D61" s="117" t="str">
-        <v>H8</v>
-      </c>
-      <c r="E61" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MH8</v>
-      </c>
-      <c r="F61" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G61" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H61" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" s="115">
-        <v>30</v>
-      </c>
-      <c r="J61" s="115">
-        <v>1</v>
-      </c>
-      <c r="K61" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L61" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B62" s="119"/>
-      <c r="C62" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D62" s="117" t="str">
-        <v>M8</v>
-      </c>
-      <c r="E62" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MM8</v>
-      </c>
-      <c r="F62" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G62" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H62" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="115">
-        <v>30</v>
-      </c>
-      <c r="J62" s="115">
-        <v>1</v>
-      </c>
-      <c r="K62" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L62" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B63" s="119"/>
-      <c r="C63" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D63" s="117" t="str">
-        <v>U8</v>
-      </c>
-      <c r="E63" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MU8</v>
-      </c>
-      <c r="F63" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G63" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H63" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" s="115">
-        <v>30</v>
-      </c>
-      <c r="J63" s="115">
-        <v>1</v>
-      </c>
-      <c r="K63" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L63" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="119"/>
-      <c r="C64" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D64" s="117" t="str">
-        <v>Z8</v>
-      </c>
-      <c r="E64" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MZ8</v>
-      </c>
-      <c r="F64" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G64" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H64" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" s="115">
-        <v>30</v>
-      </c>
-      <c r="J64" s="115">
-        <v>1</v>
-      </c>
-      <c r="K64" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L64" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="119"/>
-      <c r="C65" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D65" s="117" t="str">
-        <v>H9</v>
-      </c>
-      <c r="E65" s="117" t="str">
-        <f t="shared" si="2"/>
-        <v>HKD_YC6MRH_IMMFRA6MH9</v>
-      </c>
-      <c r="F65" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G65" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H65" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" s="115">
-        <v>30</v>
-      </c>
-      <c r="J65" s="115">
-        <v>1</v>
-      </c>
-      <c r="K65" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L65" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B66" s="119"/>
-      <c r="C66" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D66" s="117" t="str">
-        <v>M9</v>
-      </c>
-      <c r="E66" s="117" t="str">
-        <f t="shared" ref="E66:E97" si="4">RateHelperPrefix&amp;"_"&amp;$B66&amp;$C66&amp;$D66</f>
-        <v>HKD_YC6MRH_IMMFRA6MM9</v>
-      </c>
-      <c r="F66" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G66" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H66" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" s="115">
-        <v>30</v>
-      </c>
-      <c r="J66" s="115">
-        <v>1</v>
-      </c>
-      <c r="K66" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L66" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B67" s="119"/>
-      <c r="C67" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D67" s="117" t="str">
-        <v>U9</v>
-      </c>
-      <c r="E67" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MU9</v>
-      </c>
-      <c r="F67" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G67" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H67" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="115">
-        <v>30</v>
-      </c>
-      <c r="J67" s="115">
-        <v>1</v>
-      </c>
-      <c r="K67" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L67" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="119"/>
-      <c r="C68" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D68" s="117" t="str">
-        <v>Z9</v>
-      </c>
-      <c r="E68" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MZ9</v>
-      </c>
-      <c r="F68" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G68" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H68" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="115">
-        <v>30</v>
-      </c>
-      <c r="J68" s="115">
-        <v>1</v>
-      </c>
-      <c r="K68" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L68" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B69" s="119"/>
-      <c r="C69" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D69" s="117" t="str">
-        <v>H0</v>
-      </c>
-      <c r="E69" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MH0</v>
-      </c>
-      <c r="F69" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G69" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H69" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" s="115">
-        <v>30</v>
-      </c>
-      <c r="J69" s="115">
-        <v>1</v>
-      </c>
-      <c r="K69" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L69" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B70" s="119"/>
-      <c r="C70" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D70" s="117" t="str">
-        <v>M0</v>
-      </c>
-      <c r="E70" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MM0</v>
-      </c>
-      <c r="F70" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G70" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E70,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H70" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="115">
-        <v>30</v>
-      </c>
-      <c r="J70" s="115">
-        <v>1</v>
-      </c>
-      <c r="K70" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L70" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B71" s="119"/>
-      <c r="C71" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D71" s="117" t="str">
-        <v>U0</v>
-      </c>
-      <c r="E71" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MU0</v>
-      </c>
-      <c r="F71" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G71" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E71,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H71" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="115">
-        <v>30</v>
-      </c>
-      <c r="J71" s="115">
-        <v>1</v>
-      </c>
-      <c r="K71" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L71" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B72" s="119"/>
-      <c r="C72" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D72" s="117" t="str">
-        <v>Z0</v>
-      </c>
-      <c r="E72" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MZ0</v>
-      </c>
-      <c r="F72" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G72" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E72,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H72" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" s="115">
-        <v>30</v>
-      </c>
-      <c r="J72" s="115">
-        <v>1</v>
-      </c>
-      <c r="K72" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L72" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B73" s="119"/>
-      <c r="C73" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D73" s="117" t="str">
-        <v>H1</v>
-      </c>
-      <c r="E73" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MH1</v>
-      </c>
-      <c r="F73" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G73" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E73,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H73" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" s="115">
-        <v>30</v>
-      </c>
-      <c r="J73" s="115">
-        <v>1</v>
-      </c>
-      <c r="K73" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L73" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B74" s="119"/>
-      <c r="C74" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D74" s="117" t="str">
-        <v>M1</v>
-      </c>
-      <c r="E74" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MM1</v>
-      </c>
-      <c r="F74" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G74" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E74,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H74" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" s="115">
-        <v>30</v>
-      </c>
-      <c r="J74" s="115">
-        <v>1</v>
-      </c>
-      <c r="K74" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L74" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B75" s="119"/>
-      <c r="C75" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D75" s="117" t="str">
-        <v>U1</v>
-      </c>
-      <c r="E75" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MU1</v>
-      </c>
-      <c r="F75" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G75" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E75,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H75" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" s="115">
-        <v>30</v>
-      </c>
-      <c r="J75" s="115">
-        <v>1</v>
-      </c>
-      <c r="K75" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L75" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="119"/>
-      <c r="C76" s="118" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D76" s="117" t="str">
-        <v>Z1</v>
-      </c>
-      <c r="E76" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MZ1</v>
-      </c>
-      <c r="F76" s="131" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G76" s="116" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H76" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" s="115">
-        <v>30</v>
-      </c>
-      <c r="J76" s="115">
-        <v>1</v>
-      </c>
-      <c r="K76" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L76" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="111" t="b">
-        <v>1</v>
-      </c>
-      <c r="B77" s="112"/>
-      <c r="C77" s="111" t="str">
-        <f t="shared" si="3"/>
-        <v>IMMFRA6M</v>
-      </c>
-      <c r="D77" s="110" t="str">
-        <v>H2</v>
-      </c>
-      <c r="E77" s="110" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_IMMFRA6MH2</v>
-      </c>
-      <c r="F77" s="130" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G77" s="109" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E77,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H77" s="108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" s="108">
-        <v>30</v>
-      </c>
-      <c r="J77" s="115">
-        <v>1</v>
-      </c>
-      <c r="K77" s="107" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L77" s="106" t="e">
-        <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M77" s="129"/>
-    </row>
-    <row r="78" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="127">
-        <v>2</v>
-      </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="125" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_2X1S</v>
-      </c>
-      <c r="F78" s="124" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G78" s="124" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H78" s="123" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" s="123">
-        <v>40</v>
-      </c>
-      <c r="J78" s="123">
-        <v>1</v>
-      </c>
-      <c r="K78" s="122" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L78" s="121" t="e">
-        <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M78" s="120"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B79" s="119">
-        <v>3</v>
-      </c>
-      <c r="C79" s="118"/>
-      <c r="D79" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_3X1S</v>
-      </c>
-      <c r="F79" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G79" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H79" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" s="115">
-        <v>40</v>
-      </c>
-      <c r="J79" s="115">
-        <v>1</v>
-      </c>
-      <c r="K79" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L79" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M79" s="128"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B80" s="119">
-        <v>4</v>
-      </c>
-      <c r="C80" s="118"/>
-      <c r="D80" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_4X1S</v>
-      </c>
-      <c r="F80" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G80" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H80" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" s="115">
-        <v>40</v>
-      </c>
-      <c r="J80" s="115">
-        <v>1</v>
-      </c>
-      <c r="K80" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L80" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="119">
-        <v>5</v>
-      </c>
-      <c r="C81" s="118"/>
-      <c r="D81" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_5X1S</v>
-      </c>
-      <c r="F81" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G81" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H81" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" s="115">
-        <v>40</v>
-      </c>
-      <c r="J81" s="115">
-        <v>1</v>
-      </c>
-      <c r="K81" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L81" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="119">
-        <v>6</v>
-      </c>
-      <c r="C82" s="118"/>
-      <c r="D82" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_6X1S</v>
-      </c>
-      <c r="F82" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G82" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H82" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" s="115">
-        <v>40</v>
-      </c>
-      <c r="J82" s="115">
-        <v>1</v>
-      </c>
-      <c r="K82" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L82" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="119">
-        <v>7</v>
-      </c>
-      <c r="C83" s="118"/>
-      <c r="D83" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_7X1S</v>
-      </c>
-      <c r="F83" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G83" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H83" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" s="115">
-        <v>40</v>
-      </c>
-      <c r="J83" s="115">
-        <v>1</v>
-      </c>
-      <c r="K83" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L83" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="119">
-        <v>8</v>
-      </c>
-      <c r="C84" s="118"/>
-      <c r="D84" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_8X1S</v>
-      </c>
-      <c r="F84" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G84" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H84" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" s="115">
-        <v>40</v>
-      </c>
-      <c r="J84" s="115">
-        <v>1</v>
-      </c>
-      <c r="K84" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L84" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="119">
-        <v>9</v>
-      </c>
-      <c r="C85" s="118"/>
-      <c r="D85" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_9X1S</v>
-      </c>
-      <c r="F85" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G85" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H85" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" s="115">
-        <v>40</v>
-      </c>
-      <c r="J85" s="115">
-        <v>1</v>
-      </c>
-      <c r="K85" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L85" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="119">
-        <v>10</v>
-      </c>
-      <c r="C86" s="118"/>
-      <c r="D86" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_10X1S</v>
-      </c>
-      <c r="F86" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G86" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H86" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" s="115">
-        <v>40</v>
-      </c>
-      <c r="J86" s="115">
-        <v>1</v>
-      </c>
-      <c r="K86" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L86" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="119">
-        <v>11</v>
-      </c>
-      <c r="C87" s="118"/>
-      <c r="D87" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_11X1S</v>
-      </c>
-      <c r="F87" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G87" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H87" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" s="115">
-        <v>40</v>
-      </c>
-      <c r="J87" s="115">
-        <v>1</v>
-      </c>
-      <c r="K87" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L87" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="112">
-        <v>12</v>
-      </c>
-      <c r="C88" s="111"/>
-      <c r="D88" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" s="110" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_12X1S</v>
-      </c>
-      <c r="F88" s="109" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G88" s="109" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H88" s="108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" s="108">
-        <v>40</v>
-      </c>
-      <c r="J88" s="115">
-        <v>1</v>
-      </c>
-      <c r="K88" s="107" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L88" s="106" t="e">
-        <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" s="126">
-        <v>12</v>
-      </c>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_1S12</v>
-      </c>
-      <c r="F89" s="124" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G89" s="124" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E89,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H89" s="123" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="123">
-        <v>40</v>
-      </c>
-      <c r="J89" s="123">
-        <v>1</v>
-      </c>
-      <c r="K89" s="122" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L89" s="121" t="e">
-        <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="118">
-        <v>12</v>
-      </c>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_2S12</v>
-      </c>
-      <c r="F90" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G90" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H90" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" s="115">
-        <v>40</v>
-      </c>
-      <c r="J90" s="115">
-        <v>1</v>
-      </c>
-      <c r="K90" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L90" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="118">
-        <v>12</v>
-      </c>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_3S12</v>
-      </c>
-      <c r="F91" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G91" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E91,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H91" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" s="115">
-        <v>40</v>
-      </c>
-      <c r="J91" s="115">
-        <v>1</v>
-      </c>
-      <c r="K91" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L91" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="119" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="118">
-        <v>12</v>
-      </c>
-      <c r="D92" s="117"/>
-      <c r="E92" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_4S12</v>
-      </c>
-      <c r="F92" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G92" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H92" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="115">
-        <v>40</v>
-      </c>
-      <c r="J92" s="115">
-        <v>1</v>
-      </c>
-      <c r="K92" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L92" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93" s="118">
-        <v>24</v>
-      </c>
-      <c r="D93" s="117"/>
-      <c r="E93" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_1S24</v>
-      </c>
-      <c r="F93" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G93" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H93" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" s="115">
-        <v>40</v>
-      </c>
-      <c r="J93" s="115">
-        <v>1</v>
-      </c>
-      <c r="K93" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L93" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B94" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="118">
-        <v>24</v>
-      </c>
-      <c r="D94" s="117"/>
-      <c r="E94" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_2S24</v>
-      </c>
-      <c r="F94" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G94" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H94" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" s="115">
-        <v>40</v>
-      </c>
-      <c r="J94" s="115">
-        <v>1</v>
-      </c>
-      <c r="K94" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L94" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="111">
-        <v>36</v>
-      </c>
-      <c r="D95" s="110"/>
-      <c r="E95" s="110" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_1S36</v>
-      </c>
-      <c r="F95" s="109" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G95" s="109" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H95" s="108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" s="108">
-        <v>40</v>
-      </c>
-      <c r="J95" s="108">
-        <v>1</v>
-      </c>
-      <c r="K95" s="107" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L95" s="106" t="e">
-        <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="119" t="str">
-        <f t="shared" ref="B96:B127" si="5">SwapFixedFreq</f>
-        <v>QM</v>
-      </c>
-      <c r="C96" s="118" t="str">
-        <f t="shared" ref="C96:C132" si="6">IborType</f>
-        <v>3H</v>
-      </c>
-      <c r="D96" s="117" t="s">
-        <v>102</v>
-      </c>
-      <c r="E96" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_QM3H1Y</v>
-      </c>
-      <c r="F96" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G96" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H96" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" s="115">
-        <v>50</v>
-      </c>
-      <c r="J96" s="115">
-        <v>1</v>
-      </c>
-      <c r="K96" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L96" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N96" s="120" t="e">
-        <f t="shared" ref="N96:N132" si="7">IF(G96=G133,F96-F133,"--")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B97" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C97" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D97" s="117" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97" s="117" t="str">
-        <f t="shared" si="4"/>
-        <v>HKD_YC6MRH_QM3H15M</v>
-      </c>
-      <c r="F97" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G97" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H97" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="115">
-        <v>50</v>
-      </c>
-      <c r="J97" s="115">
-        <v>1</v>
-      </c>
-      <c r="K97" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L97" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N97" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B98" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C98" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D98" s="117" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" s="117" t="str">
-        <f t="shared" ref="E98:E129" si="8">RateHelperPrefix&amp;"_"&amp;$B98&amp;$C98&amp;$D98</f>
-        <v>HKD_YC6MRH_QM3H18M</v>
-      </c>
-      <c r="F98" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G98" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H98" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" s="115">
-        <v>50</v>
-      </c>
-      <c r="J98" s="115">
-        <v>1</v>
-      </c>
-      <c r="K98" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L98" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N98" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B99" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C99" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D99" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H21M</v>
-      </c>
-      <c r="F99" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G99" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H99" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" s="115">
-        <v>50</v>
-      </c>
-      <c r="J99" s="115">
-        <v>1</v>
-      </c>
-      <c r="K99" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L99" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N99" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B100" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C100" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D100" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H2Y</v>
-      </c>
-      <c r="F100" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G100" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H100" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" s="115">
-        <v>50</v>
-      </c>
-      <c r="J100" s="115">
-        <v>1</v>
-      </c>
-      <c r="K100" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L100" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N100" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B101" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C101" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D101" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H3Y</v>
-      </c>
-      <c r="F101" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G101" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H101" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" s="115">
-        <v>50</v>
-      </c>
-      <c r="J101" s="115">
-        <v>1</v>
-      </c>
-      <c r="K101" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L101" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N101" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B102" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C102" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D102" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="E102" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H4Y</v>
-      </c>
-      <c r="F102" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G102" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H102" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" s="115">
-        <v>50</v>
-      </c>
-      <c r="J102" s="115">
-        <v>1</v>
-      </c>
-      <c r="K102" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L102" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N102" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B103" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C103" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D103" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="E103" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H5Y</v>
-      </c>
-      <c r="F103" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G103" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H103" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" s="115">
-        <v>50</v>
-      </c>
-      <c r="J103" s="115">
-        <v>1</v>
-      </c>
-      <c r="K103" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L103" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N103" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B104" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C104" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D104" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="E104" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H6Y</v>
-      </c>
-      <c r="F104" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G104" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H104" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" s="115">
-        <v>50</v>
-      </c>
-      <c r="J104" s="115">
-        <v>1</v>
-      </c>
-      <c r="K104" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L104" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N104" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B105" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C105" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D105" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="E105" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H7Y</v>
-      </c>
-      <c r="F105" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G105" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H105" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" s="115">
-        <v>50</v>
-      </c>
-      <c r="J105" s="115">
-        <v>1</v>
-      </c>
-      <c r="K105" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L105" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N105" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B106" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C106" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D106" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H8Y</v>
-      </c>
-      <c r="F106" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G106" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H106" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" s="115">
-        <v>50</v>
-      </c>
-      <c r="J106" s="115">
-        <v>1</v>
-      </c>
-      <c r="K106" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L106" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N106" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B107" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C107" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D107" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="E107" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H9Y</v>
-      </c>
-      <c r="F107" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G107" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H107" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" s="115">
-        <v>50</v>
-      </c>
-      <c r="J107" s="115">
-        <v>1</v>
-      </c>
-      <c r="K107" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L107" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N107" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B108" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C108" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D108" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="E108" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H10Y</v>
-      </c>
-      <c r="F108" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G108" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H108" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" s="115">
-        <v>50</v>
-      </c>
-      <c r="J108" s="115">
-        <v>1</v>
-      </c>
-      <c r="K108" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L108" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N108" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B109" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C109" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D109" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="E109" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H11Y</v>
-      </c>
-      <c r="F109" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G109" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H109" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" s="115">
-        <v>50</v>
-      </c>
-      <c r="J109" s="115">
-        <v>1</v>
-      </c>
-      <c r="K109" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L109" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N109" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B110" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C110" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D110" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="E110" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H12Y</v>
-      </c>
-      <c r="F110" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G110" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H110" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I110" s="115">
-        <v>50</v>
-      </c>
-      <c r="J110" s="115">
-        <v>1</v>
-      </c>
-      <c r="K110" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L110" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N110" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B111" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C111" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D111" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="E111" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H13Y</v>
-      </c>
-      <c r="F111" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G111" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H111" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" s="115">
-        <v>50</v>
-      </c>
-      <c r="J111" s="115">
-        <v>1</v>
-      </c>
-      <c r="K111" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L111" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N111" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B112" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C112" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D112" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="E112" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H14Y</v>
-      </c>
-      <c r="F112" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G112" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H112" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" s="115">
-        <v>50</v>
-      </c>
-      <c r="J112" s="115">
-        <v>1</v>
-      </c>
-      <c r="K112" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L112" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N112" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B113" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C113" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D113" s="117" t="s">
-        <v>85</v>
-      </c>
-      <c r="E113" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H15Y</v>
-      </c>
-      <c r="F113" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G113" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H113" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I113" s="115">
-        <v>50</v>
-      </c>
-      <c r="J113" s="115">
-        <v>1</v>
-      </c>
-      <c r="K113" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L113" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N113" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B114" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C114" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D114" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="E114" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H16Y</v>
-      </c>
-      <c r="F114" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G114" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H114" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" s="115">
-        <v>50</v>
-      </c>
-      <c r="J114" s="115">
-        <v>1</v>
-      </c>
-      <c r="K114" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L114" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N114" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B115" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C115" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D115" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="E115" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H17Y</v>
-      </c>
-      <c r="F115" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G115" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H115" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I115" s="115">
-        <v>50</v>
-      </c>
-      <c r="J115" s="115">
-        <v>1</v>
-      </c>
-      <c r="K115" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L115" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N115" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B116" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C116" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D116" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="E116" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H18Y</v>
-      </c>
-      <c r="F116" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G116" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H116" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" s="115">
-        <v>50</v>
-      </c>
-      <c r="J116" s="115">
-        <v>1</v>
-      </c>
-      <c r="K116" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L116" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N116" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B117" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C117" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D117" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="E117" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H19Y</v>
-      </c>
-      <c r="F117" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G117" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H117" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" s="115">
-        <v>50</v>
-      </c>
-      <c r="J117" s="115">
-        <v>1</v>
-      </c>
-      <c r="K117" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L117" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N117" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B118" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C118" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D118" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="E118" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H20Y</v>
-      </c>
-      <c r="F118" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G118" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H118" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" s="115">
-        <v>50</v>
-      </c>
-      <c r="J118" s="115">
-        <v>1</v>
-      </c>
-      <c r="K118" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L118" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N118" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B119" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C119" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D119" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="E119" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H21Y</v>
-      </c>
-      <c r="F119" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G119" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H119" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" s="115">
-        <v>50</v>
-      </c>
-      <c r="J119" s="115">
-        <v>1</v>
-      </c>
-      <c r="K119" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L119" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N119" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B120" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C120" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D120" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="E120" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H22Y</v>
-      </c>
-      <c r="F120" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G120" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H120" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" s="115">
-        <v>50</v>
-      </c>
-      <c r="J120" s="115">
-        <v>1</v>
-      </c>
-      <c r="K120" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L120" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N120" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B121" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C121" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D121" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="E121" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H23Y</v>
-      </c>
-      <c r="F121" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G121" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H121" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" s="115">
-        <v>50</v>
-      </c>
-      <c r="J121" s="115">
-        <v>1</v>
-      </c>
-      <c r="K121" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L121" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N121" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B122" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C122" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D122" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="E122" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H24Y</v>
-      </c>
-      <c r="F122" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G122" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H122" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I122" s="115">
-        <v>50</v>
-      </c>
-      <c r="J122" s="115">
-        <v>1</v>
-      </c>
-      <c r="K122" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L122" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N122" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B123" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C123" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D123" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="E123" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H25Y</v>
-      </c>
-      <c r="F123" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G123" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H123" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I123" s="115">
-        <v>50</v>
-      </c>
-      <c r="J123" s="115">
-        <v>1</v>
-      </c>
-      <c r="K123" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L123" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N123" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B124" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C124" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D124" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="E124" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H26Y</v>
-      </c>
-      <c r="F124" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G124" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H124" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" s="115">
-        <v>50</v>
-      </c>
-      <c r="J124" s="115">
-        <v>1</v>
-      </c>
-      <c r="K124" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L124" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N124" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B125" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C125" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D125" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="E125" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H27Y</v>
-      </c>
-      <c r="F125" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G125" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H125" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" s="115">
-        <v>50</v>
-      </c>
-      <c r="J125" s="115">
-        <v>1</v>
-      </c>
-      <c r="K125" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L125" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N125" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B126" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C126" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D126" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="E126" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H28Y</v>
-      </c>
-      <c r="F126" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G126" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H126" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" s="115">
-        <v>50</v>
-      </c>
-      <c r="J126" s="115">
-        <v>1</v>
-      </c>
-      <c r="K126" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L126" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N126" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B127" s="119" t="str">
-        <f t="shared" si="5"/>
-        <v>QM</v>
-      </c>
-      <c r="C127" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D127" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="E127" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H29Y</v>
-      </c>
-      <c r="F127" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G127" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H127" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" s="115">
-        <v>50</v>
-      </c>
-      <c r="J127" s="115">
-        <v>1</v>
-      </c>
-      <c r="K127" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L127" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N127" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B128" s="119" t="str">
-        <f t="shared" ref="B128:B159" si="9">SwapFixedFreq</f>
-        <v>QM</v>
-      </c>
-      <c r="C128" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D128" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="E128" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H30Y</v>
-      </c>
-      <c r="F128" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G128" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H128" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I128" s="115">
-        <v>50</v>
-      </c>
-      <c r="J128" s="115">
-        <v>1</v>
-      </c>
-      <c r="K128" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L128" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N128" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B129" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C129" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D129" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="E129" s="117" t="str">
-        <f t="shared" si="8"/>
-        <v>HKD_YC6MRH_QM3H35Y</v>
-      </c>
-      <c r="F129" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G129" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H129" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I129" s="115">
-        <v>50</v>
-      </c>
-      <c r="J129" s="115">
-        <v>1</v>
-      </c>
-      <c r="K129" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L129" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N129" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B130" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C130" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D130" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="E130" s="117" t="str">
-        <f t="shared" ref="E130:E161" si="10">RateHelperPrefix&amp;"_"&amp;$B130&amp;$C130&amp;$D130</f>
-        <v>HKD_YC6MRH_QM3H40Y</v>
-      </c>
-      <c r="F130" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G130" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H130" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I130" s="115">
-        <v>50</v>
-      </c>
-      <c r="J130" s="115">
-        <v>1</v>
-      </c>
-      <c r="K130" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L130" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N130" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B131" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C131" s="118" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D131" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="E131" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3H50Y</v>
-      </c>
-      <c r="F131" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G131" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H131" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" s="115">
-        <v>50</v>
-      </c>
-      <c r="J131" s="115">
-        <v>1</v>
-      </c>
-      <c r="K131" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L131" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N131" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B132" s="112" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C132" s="111" t="str">
-        <f t="shared" si="6"/>
-        <v>3H</v>
-      </c>
-      <c r="D132" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="E132" s="110" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3H60Y</v>
-      </c>
-      <c r="F132" s="109" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G132" s="109" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H132" s="108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I132" s="108">
-        <v>50</v>
-      </c>
-      <c r="J132" s="108">
-        <v>1</v>
-      </c>
-      <c r="K132" s="107" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L132" s="106" t="e">
-        <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N132" s="120" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B133" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C133" s="118" t="str">
-        <f t="shared" ref="C133:C169" si="11">IborType&amp;"BASIS"</f>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D133" s="117" t="s">
-        <v>102</v>
-      </c>
-      <c r="E133" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS1Y</v>
-      </c>
-      <c r="F133" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G133" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H133" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I133" s="115">
-        <v>40</v>
-      </c>
-      <c r="J133" s="115">
-        <v>1</v>
-      </c>
-      <c r="K133" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L133" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B134" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C134" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D134" s="117" t="s">
-        <v>101</v>
-      </c>
-      <c r="E134" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS15M</v>
-      </c>
-      <c r="F134" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G134" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H134" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" s="115">
-        <v>40</v>
-      </c>
-      <c r="J134" s="115">
-        <v>1</v>
-      </c>
-      <c r="K134" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L134" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B135" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C135" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D135" s="117" t="s">
-        <v>100</v>
-      </c>
-      <c r="E135" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS18M</v>
-      </c>
-      <c r="F135" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G135" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H135" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" s="115">
-        <v>40</v>
-      </c>
-      <c r="J135" s="115">
-        <v>1</v>
-      </c>
-      <c r="K135" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L135" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B136" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C136" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D136" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="E136" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS21M</v>
-      </c>
-      <c r="F136" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G136" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H136" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I136" s="115">
-        <v>40</v>
-      </c>
-      <c r="J136" s="115">
-        <v>1</v>
-      </c>
-      <c r="K136" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L136" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B137" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C137" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D137" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="E137" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS2Y</v>
-      </c>
-      <c r="F137" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G137" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H137" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I137" s="115">
-        <v>40</v>
-      </c>
-      <c r="J137" s="115">
-        <v>1</v>
-      </c>
-      <c r="K137" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L137" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B138" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C138" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D138" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="E138" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS3Y</v>
-      </c>
-      <c r="F138" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G138" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H138" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I138" s="115">
-        <v>40</v>
-      </c>
-      <c r="J138" s="115">
-        <v>1</v>
-      </c>
-      <c r="K138" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L138" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B139" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C139" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D139" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS4Y</v>
-      </c>
-      <c r="F139" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G139" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H139" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I139" s="115">
-        <v>40</v>
-      </c>
-      <c r="J139" s="115">
-        <v>1</v>
-      </c>
-      <c r="K139" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L139" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B140" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C140" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D140" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="E140" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS5Y</v>
-      </c>
-      <c r="F140" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G140" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H140" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I140" s="115">
-        <v>40</v>
-      </c>
-      <c r="J140" s="115">
-        <v>1</v>
-      </c>
-      <c r="K140" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L140" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B141" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C141" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D141" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="E141" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS6Y</v>
-      </c>
-      <c r="F141" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G141" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H141" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I141" s="115">
-        <v>40</v>
-      </c>
-      <c r="J141" s="115">
-        <v>1</v>
-      </c>
-      <c r="K141" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L141" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B142" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C142" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D142" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="E142" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS7Y</v>
-      </c>
-      <c r="F142" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G142" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H142" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I142" s="115">
-        <v>40</v>
-      </c>
-      <c r="J142" s="115">
-        <v>1</v>
-      </c>
-      <c r="K142" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L142" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B143" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C143" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D143" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="E143" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS8Y</v>
-      </c>
-      <c r="F143" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G143" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H143" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" s="115">
-        <v>40</v>
-      </c>
-      <c r="J143" s="115">
-        <v>1</v>
-      </c>
-      <c r="K143" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L143" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B144" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C144" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D144" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS9Y</v>
-      </c>
-      <c r="F144" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G144" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H144" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I144" s="115">
-        <v>40</v>
-      </c>
-      <c r="J144" s="115">
-        <v>1</v>
-      </c>
-      <c r="K144" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L144" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B145" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C145" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D145" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="E145" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS10Y</v>
-      </c>
-      <c r="F145" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G145" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H145" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" s="115">
-        <v>40</v>
-      </c>
-      <c r="J145" s="115">
-        <v>1</v>
-      </c>
-      <c r="K145" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L145" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B146" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C146" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D146" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="E146" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS11Y</v>
-      </c>
-      <c r="F146" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G146" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H146" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I146" s="115">
-        <v>40</v>
-      </c>
-      <c r="J146" s="115">
-        <v>1</v>
-      </c>
-      <c r="K146" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L146" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B147" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C147" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D147" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="E147" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS12Y</v>
-      </c>
-      <c r="F147" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G147" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H147" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I147" s="115">
-        <v>40</v>
-      </c>
-      <c r="J147" s="115">
-        <v>1</v>
-      </c>
-      <c r="K147" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L147" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B148" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C148" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D148" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="E148" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS13Y</v>
-      </c>
-      <c r="F148" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G148" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H148" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I148" s="115">
-        <v>40</v>
-      </c>
-      <c r="J148" s="115">
-        <v>1</v>
-      </c>
-      <c r="K148" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L148" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B149" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C149" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D149" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="E149" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS14Y</v>
-      </c>
-      <c r="F149" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G149" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H149" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I149" s="115">
-        <v>40</v>
-      </c>
-      <c r="J149" s="115">
-        <v>1</v>
-      </c>
-      <c r="K149" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L149" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B150" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C150" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D150" s="117" t="s">
-        <v>85</v>
-      </c>
-      <c r="E150" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS15Y</v>
-      </c>
-      <c r="F150" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G150" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H150" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I150" s="115">
-        <v>40</v>
-      </c>
-      <c r="J150" s="115">
-        <v>1</v>
-      </c>
-      <c r="K150" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L150" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B151" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C151" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D151" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="E151" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS16Y</v>
-      </c>
-      <c r="F151" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G151" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H151" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I151" s="115">
-        <v>40</v>
-      </c>
-      <c r="J151" s="115">
-        <v>1</v>
-      </c>
-      <c r="K151" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L151" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B152" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C152" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D152" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="E152" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS17Y</v>
-      </c>
-      <c r="F152" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G152" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H152" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" s="115">
-        <v>40</v>
-      </c>
-      <c r="J152" s="115">
-        <v>1</v>
-      </c>
-      <c r="K152" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L152" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B153" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C153" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D153" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="E153" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS18Y</v>
-      </c>
-      <c r="F153" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G153" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H153" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I153" s="115">
-        <v>40</v>
-      </c>
-      <c r="J153" s="115">
-        <v>1</v>
-      </c>
-      <c r="K153" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L153" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B154" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C154" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D154" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="E154" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS19Y</v>
-      </c>
-      <c r="F154" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G154" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H154" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I154" s="115">
-        <v>40</v>
-      </c>
-      <c r="J154" s="115">
-        <v>1</v>
-      </c>
-      <c r="K154" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L154" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B155" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C155" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D155" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="E155" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS20Y</v>
-      </c>
-      <c r="F155" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G155" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H155" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I155" s="115">
-        <v>40</v>
-      </c>
-      <c r="J155" s="115">
-        <v>1</v>
-      </c>
-      <c r="K155" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L155" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B156" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C156" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D156" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="E156" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS21Y</v>
-      </c>
-      <c r="F156" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G156" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H156" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I156" s="115">
-        <v>40</v>
-      </c>
-      <c r="J156" s="115">
-        <v>1</v>
-      </c>
-      <c r="K156" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L156" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B157" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C157" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D157" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="E157" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS22Y</v>
-      </c>
-      <c r="F157" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G157" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H157" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I157" s="115">
-        <v>40</v>
-      </c>
-      <c r="J157" s="115">
-        <v>1</v>
-      </c>
-      <c r="K157" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L157" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B158" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C158" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D158" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="E158" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS23Y</v>
-      </c>
-      <c r="F158" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G158" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H158" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I158" s="115">
-        <v>40</v>
-      </c>
-      <c r="J158" s="115">
-        <v>1</v>
-      </c>
-      <c r="K158" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L158" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B159" s="119" t="str">
-        <f t="shared" si="9"/>
-        <v>QM</v>
-      </c>
-      <c r="C159" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D159" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="E159" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS24Y</v>
-      </c>
-      <c r="F159" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G159" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H159" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I159" s="115">
-        <v>40</v>
-      </c>
-      <c r="J159" s="115">
-        <v>1</v>
-      </c>
-      <c r="K159" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L159" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B160" s="119" t="str">
-        <f t="shared" ref="B160:B169" si="12">SwapFixedFreq</f>
-        <v>QM</v>
-      </c>
-      <c r="C160" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D160" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="E160" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS25Y</v>
-      </c>
-      <c r="F160" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G160" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H160" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I160" s="115">
-        <v>40</v>
-      </c>
-      <c r="J160" s="115">
-        <v>1</v>
-      </c>
-      <c r="K160" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L160" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B161" s="119" t="str">
-        <f t="shared" si="12"/>
-        <v>QM</v>
-      </c>
-      <c r="C161" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D161" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="E161" s="117" t="str">
-        <f t="shared" si="10"/>
-        <v>HKD_YC6MRH_QM3HBASIS26Y</v>
-      </c>
-      <c r="F161" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G161" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H161" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" s="115">
-        <v>40</v>
-      </c>
-      <c r="J161" s="115">
-        <v>1</v>
-      </c>
-      <c r="K161" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L161" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B162" s="119" t="str">
-        <f t="shared" si="12"/>
-        <v>QM</v>
-      </c>
-      <c r="C162" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D162" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="E162" s="117" t="str">
-        <f t="shared" ref="E162:E169" si="13">RateHelperPrefix&amp;"_"&amp;$B162&amp;$C162&amp;$D162</f>
-        <v>HKD_YC6MRH_QM3HBASIS27Y</v>
-      </c>
-      <c r="F162" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G162" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H162" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" s="115">
-        <v>40</v>
-      </c>
-      <c r="J162" s="115">
-        <v>1</v>
-      </c>
-      <c r="K162" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L162" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B163" s="119" t="str">
-        <f t="shared" si="12"/>
-        <v>QM</v>
-      </c>
-      <c r="C163" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D163" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="E163" s="117" t="str">
-        <f t="shared" si="13"/>
-        <v>HKD_YC6MRH_QM3HBASIS28Y</v>
-      </c>
-      <c r="F163" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G163" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H163" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I163" s="115">
-        <v>40</v>
-      </c>
-      <c r="J163" s="115">
-        <v>1</v>
-      </c>
-      <c r="K163" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L163" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B164" s="119" t="str">
-        <f t="shared" si="12"/>
-        <v>QM</v>
-      </c>
-      <c r="C164" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D164" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="E164" s="117" t="str">
-        <f t="shared" si="13"/>
-        <v>HKD_YC6MRH_QM3HBASIS29Y</v>
-      </c>
-      <c r="F164" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G164" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H164" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I164" s="115">
-        <v>40</v>
-      </c>
-      <c r="J164" s="115">
-        <v>1</v>
-      </c>
-      <c r="K164" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L164" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B165" s="119" t="str">
-        <f t="shared" si="12"/>
-        <v>QM</v>
-      </c>
-      <c r="C165" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D165" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="E165" s="117" t="str">
-        <f t="shared" si="13"/>
-        <v>HKD_YC6MRH_QM3HBASIS30Y</v>
-      </c>
-      <c r="F165" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G165" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H165" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I165" s="115">
-        <v>40</v>
-      </c>
-      <c r="J165" s="115">
-        <v>1</v>
-      </c>
-      <c r="K165" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L165" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B166" s="119" t="str">
-        <f t="shared" si="12"/>
-        <v>QM</v>
-      </c>
-      <c r="C166" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D166" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="E166" s="117" t="str">
-        <f t="shared" si="13"/>
-        <v>HKD_YC6MRH_QM3HBASIS35Y</v>
-      </c>
-      <c r="F166" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G166" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H166" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I166" s="115">
-        <v>40</v>
-      </c>
-      <c r="J166" s="115">
-        <v>1</v>
-      </c>
-      <c r="K166" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L166" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B167" s="119" t="str">
-        <f t="shared" si="12"/>
-        <v>QM</v>
-      </c>
-      <c r="C167" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D167" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="E167" s="117" t="str">
-        <f t="shared" si="13"/>
-        <v>HKD_YC6MRH_QM3HBASIS40Y</v>
-      </c>
-      <c r="F167" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G167" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H167" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I167" s="115">
-        <v>40</v>
-      </c>
-      <c r="J167" s="115">
-        <v>1</v>
-      </c>
-      <c r="K167" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L167" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B168" s="119" t="str">
-        <f t="shared" si="12"/>
-        <v>QM</v>
-      </c>
-      <c r="C168" s="118" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D168" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="E168" s="117" t="str">
-        <f t="shared" si="13"/>
-        <v>HKD_YC6MRH_QM3HBASIS50Y</v>
-      </c>
-      <c r="F168" s="116" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G168" s="116" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E168,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H168" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I168" s="115">
-        <v>40</v>
-      </c>
-      <c r="J168" s="115">
-        <v>1</v>
-      </c>
-      <c r="K168" s="114" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L168" s="113" t="e">
-        <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B169" s="112" t="str">
-        <f t="shared" si="12"/>
-        <v>QM</v>
-      </c>
-      <c r="C169" s="111" t="str">
-        <f t="shared" si="11"/>
-        <v>3HBASIS</v>
-      </c>
-      <c r="D169" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="E169" s="110" t="str">
-        <f t="shared" si="13"/>
-        <v>HKD_YC6MRH_QM3HBASIS60Y</v>
-      </c>
-      <c r="F169" s="109" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G169" s="109" t="e">
-        <f>_xll.qlSwapRateHelperSpread($E169,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H169" s="108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I169" s="108">
-        <v>40</v>
-      </c>
-      <c r="J169" s="108">
-        <v>1</v>
-      </c>
-      <c r="K169" s="107" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L169" s="106" t="e">
-        <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10403,8 +5775,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10412,7 +5784,7 @@
     <col min="1" max="1" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="23" customWidth="1"/>
     <col min="6" max="6" width="3" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
@@ -10420,16 +5792,16 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+    <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="152"/>
+      <c r="B1" s="149"/>
       <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
@@ -10452,11 +5824,11 @@
       </c>
       <c r="D2" s="9" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),ISERROR(HKD_YCRH_FRAs_6M!RateHelperConstructors))</f>
-        <v>HKD_YC6MRH_1x7F</v>
+        <v>HkdHibor6MLastFixing</v>
       </c>
       <c r="E2" s="10">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>5.4856999999999996E-3</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -10464,14 +5836,14 @@
       </c>
       <c r="G2" s="11">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41631</v>
+        <v>41600</v>
       </c>
       <c r="H2" s="12">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41632</v>
+        <v>41781</v>
       </c>
       <c r="I2" s="6">
-        <v>0.99957050610129217</v>
+        <v>0.99728707396165672</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10482,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="9" t="str">
-        <v>HKD_YC6MRH_2x8F</v>
+        <v>HKD_YC6MRH_1x7F</v>
       </c>
       <c r="E3" s="10">
         <f>_xll.qlRateHelperRate($D3)</f>
@@ -10494,14 +5866,14 @@
       </c>
       <c r="G3" s="11">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41661</v>
+        <v>41631</v>
       </c>
       <c r="H3" s="12">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41662</v>
+        <v>41813</v>
       </c>
       <c r="I3" s="6">
-        <v>0.99916802310445041</v>
+        <v>0.99709863321981806</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -10512,11 +5884,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="str">
-        <v>HKD_YC6MRH_3x9F</v>
+        <v>HKD_YC6MRH_2x8F</v>
       </c>
       <c r="E4" s="10">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -10524,14 +5896,14 @@
       </c>
       <c r="G4" s="11">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41694</v>
+        <v>41661</v>
       </c>
       <c r="H4" s="12">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41695</v>
+        <v>41842</v>
       </c>
       <c r="I4" s="6">
-        <v>0.99871644957765626</v>
+        <v>0.99666312062440998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -10542,11 +5914,11 @@
         <v>24</v>
       </c>
       <c r="D5" s="9" t="str">
-        <v>HKD_YC6MRH_4x10F</v>
+        <v>HKD_YC6MRH_3x9F</v>
       </c>
       <c r="E5" s="10">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>5.1000000000000004E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -10554,14 +5926,14 @@
       </c>
       <c r="G5" s="11">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41722</v>
+        <v>41694</v>
       </c>
       <c r="H5" s="12">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41723</v>
+        <v>41876</v>
       </c>
       <c r="I5" s="6">
-        <v>0.9983257980200394</v>
+        <v>0.99610671309900745</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -10573,11 +5945,11 @@
         <v/>
       </c>
       <c r="D6" s="9" t="str">
-        <v>HKD_YC6MRH_5x11F</v>
+        <v>HKD_YC6MRH_4x10F</v>
       </c>
       <c r="E6" s="10">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.1999999999999998E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="F6" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -10585,31 +5957,31 @@
       </c>
       <c r="G6" s="11">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41751</v>
+        <v>41722</v>
       </c>
       <c r="H6" s="12">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41752</v>
+        <v>41906</v>
       </c>
       <c r="I6" s="6">
-        <v>0.99791342716156162</v>
+        <v>0.99561091366603716</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_RateHelpersSelected#0001</v>
+        <v>HKD_YC6MRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="9" t="str">
-        <v>HKD_YC6MRH_6x12F</v>
+        <v>HKD_YC6MRH_5x11F</v>
       </c>
       <c r="E7" s="10">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.4000000000000003E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="F7" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10617,23 +5989,23 @@
       </c>
       <c r="G7" s="11">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41781</v>
+        <v>41751</v>
       </c>
       <c r="H7" s="12">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41782</v>
+        <v>41934</v>
       </c>
       <c r="I7" s="6">
-        <v>0.99747061919026436</v>
+        <v>0.99514176356087747</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D8" s="9" t="str">
-        <v>HKD_YC6MRH_12x18F</v>
+        <v>HKD_YC6MRH_6x12F</v>
       </c>
       <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>6.1000000000000013E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="F8" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10641,23 +6013,23 @@
       </c>
       <c r="G8" s="11">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41967</v>
+        <v>41781</v>
       </c>
       <c r="H8" s="12">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41968</v>
+        <v>41967</v>
       </c>
       <c r="I8" s="6">
-        <v>0.99437482858587944</v>
+        <v>0.99455028954844549</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9" s="9" t="str">
-        <v>HKD_YC6MRH_18x24F</v>
+        <v>HKD_YC6MRH_12x18F</v>
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>7.8000000000000005E-3</v>
+        <v>6.1000000000000013E-3</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10665,38 +6037,38 @@
       </c>
       <c r="G9" s="11">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42146</v>
+        <v>41967</v>
       </c>
       <c r="H9" s="12">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
         <v>42149</v>
       </c>
       <c r="I9" s="6">
-        <v>0.99053619288250772</v>
+        <v>0.99153439506788554</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="10" t="e">
+      <c r="D10" s="9" t="str">
+        <v>HKD_YC6MRH_18x24F</v>
+      </c>
+      <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>#VALUE!</v>
+        <v>7.8000000000000005E-3</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
         <v>--</v>
       </c>
-      <c r="G10" s="11" t="e">
+      <c r="G10" s="11">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H10" s="12" t="e">
+        <v>42146</v>
+      </c>
+      <c r="H10" s="12">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" s="6" t="e">
-        <v>#N/A</v>
+        <v>42331</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.98767931763767025</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15030" windowHeight="7785" activeTab="3"/>
+    <workbookView visibility="hidden" xWindow="22890" yWindow="-15" windowWidth="7635" windowHeight="11085" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -1882,7 +1882,7 @@
       <c r="A1" s="63"/>
       <c r="B1" s="63" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov 12 2013 12:02:30</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
@@ -1941,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="72">
-        <v>41600.74664351852</v>
+        <v>41606.781886574077</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="J8" s="72" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
+        <v>D:\QuantLibXL-1.3.0\Data2\XML\</v>
       </c>
       <c r="K8" s="73"/>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D10" s="72" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D17),NA(),D15:E15),IF(ISERROR(D17),NA(),D16:E16),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC6M#0000</v>
+        <v>HKDYC6M#0000</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="67"/>
@@ -2092,8 +2092,8 @@
         <v>9</v>
       </c>
       <c r="D12" s="83" t="str">
-        <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
-        <v>_HKDYC6M</v>
+        <f>Currency&amp;"YC"&amp;IndexTenor</f>
+        <v>HKDYC6M</v>
       </c>
       <c r="E12" s="66"/>
       <c r="F12" s="67"/>
@@ -2283,7 +2283,7 @@
       <c r="B22" s="64"/>
       <c r="C22" s="95">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41600</v>
+        <v>41607</v>
       </c>
       <c r="D22" s="96">
         <f>MAX(_xll.ohPack(Selected!I1:I20))</f>
@@ -2302,11 +2302,11 @@
       <c r="B23" s="64"/>
       <c r="C23" s="97">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>42331</v>
+        <v>42341</v>
       </c>
       <c r="D23" s="74">
         <f>MIN(_xll.ohPack(Selected!I1:I20))</f>
-        <v>0.98767931763767025</v>
+        <v>0.98769086712261345</v>
       </c>
       <c r="E23" s="66"/>
       <c r="F23" s="67"/>
@@ -2337,14 +2337,8 @@
     <row r="25" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
       <c r="B25" s="100"/>
-      <c r="C25" s="139" t="str">
-        <f>UPPER(Currency)&amp;IndexTenor</f>
-        <v>HKD6M</v>
-      </c>
-      <c r="D25" s="139" t="b">
-        <f>_xll.qlRelinkableHandleLinkTo(C25,YieldCurve)</f>
-        <v>1</v>
-      </c>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102"/>
       <c r="G25" s="63"/>
@@ -2495,9 +2489,9 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="48" t="e">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I23,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
-        <v>21</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
@@ -3381,11 +3375,11 @@
       </c>
       <c r="K2" s="114">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41600</v>
+        <v>41611</v>
       </c>
       <c r="L2" s="113">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41781</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -3420,11 +3414,11 @@
       </c>
       <c r="K3" s="121">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41600</v>
+        <v>41611</v>
       </c>
       <c r="L3" s="120">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41781</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -3459,11 +3453,11 @@
       </c>
       <c r="K4" s="107">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41603</v>
+        <v>41612</v>
       </c>
       <c r="L4" s="106">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41785</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -3498,11 +3492,11 @@
       </c>
       <c r="K5" s="114">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41631</v>
+        <v>41642</v>
       </c>
       <c r="L5" s="113">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41813</v>
+        <v>41823</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -3537,11 +3531,11 @@
       </c>
       <c r="K6" s="114">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41661</v>
+        <v>41673</v>
       </c>
       <c r="L6" s="113">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41842</v>
+        <v>41855</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -3576,11 +3570,11 @@
       </c>
       <c r="K7" s="114">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41694</v>
+        <v>41701</v>
       </c>
       <c r="L7" s="113">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41876</v>
+        <v>41885</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -3615,11 +3609,11 @@
       </c>
       <c r="K8" s="114">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41722</v>
+        <v>41732</v>
       </c>
       <c r="L8" s="113">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41906</v>
+        <v>41915</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -3654,11 +3648,11 @@
       </c>
       <c r="K9" s="114">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41751</v>
+        <v>41764</v>
       </c>
       <c r="L9" s="113">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41934</v>
+        <v>41948</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -3693,11 +3687,11 @@
       </c>
       <c r="K10" s="114">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41781</v>
+        <v>41793</v>
       </c>
       <c r="L10" s="113">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41967</v>
+        <v>41976</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -3732,11 +3726,11 @@
       </c>
       <c r="K11" s="114">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41813</v>
+        <v>41823</v>
       </c>
       <c r="L11" s="113">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41996</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -3771,11 +3765,11 @@
       </c>
       <c r="K12" s="114">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41842</v>
+        <v>41855</v>
       </c>
       <c r="L12" s="113">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>42026</v>
+        <v>42039</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -3810,11 +3804,11 @@
       </c>
       <c r="K13" s="114">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41873</v>
+        <v>41885</v>
       </c>
       <c r="L13" s="113">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>42058</v>
+        <v>42066</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -3849,11 +3843,11 @@
       </c>
       <c r="K14" s="114">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41904</v>
+        <v>41915</v>
       </c>
       <c r="L14" s="113">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>42086</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -3888,11 +3882,11 @@
       </c>
       <c r="K15" s="114">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41934</v>
+        <v>41946</v>
       </c>
       <c r="L15" s="113">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42116</v>
+        <v>42128</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -3927,11 +3921,11 @@
       </c>
       <c r="K16" s="114">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41967</v>
+        <v>41976</v>
       </c>
       <c r="L16" s="113">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42149</v>
+        <v>42158</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3966,11 +3960,11 @@
       </c>
       <c r="K17" s="114">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41995</v>
+        <v>42009</v>
       </c>
       <c r="L17" s="113">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42177</v>
+        <v>42191</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -4005,11 +3999,11 @@
       </c>
       <c r="K18" s="114">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>42026</v>
+        <v>42038</v>
       </c>
       <c r="L18" s="113">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42207</v>
+        <v>42219</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -4044,11 +4038,11 @@
       </c>
       <c r="K19" s="114">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>42058</v>
+        <v>42066</v>
       </c>
       <c r="L19" s="113">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42240</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -4083,11 +4077,11 @@
       </c>
       <c r="K20" s="114">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>42086</v>
+        <v>42101</v>
       </c>
       <c r="L20" s="113">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42270</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -4122,11 +4116,11 @@
       </c>
       <c r="K21" s="114">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>42116</v>
+        <v>42128</v>
       </c>
       <c r="L21" s="113">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42299</v>
+        <v>42312</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -4146,7 +4140,7 @@
       </c>
       <c r="F22" s="109">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>7.8000000000000005E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="G22" s="109"/>
       <c r="H22" s="108" t="b">
@@ -4161,11 +4155,11 @@
       </c>
       <c r="K22" s="107">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>42146</v>
+        <v>42158</v>
       </c>
       <c r="L22" s="106">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42331</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -5836,14 +5830,14 @@
       </c>
       <c r="G2" s="11">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41600</v>
+        <v>41611</v>
       </c>
       <c r="H2" s="12">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41781</v>
+        <v>41793</v>
       </c>
       <c r="I2" s="6">
-        <v>0.99728707396165672</v>
+        <v>0.99721225668296354</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5866,14 +5860,14 @@
       </c>
       <c r="G3" s="11">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41631</v>
+        <v>41642</v>
       </c>
       <c r="H3" s="12">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41813</v>
+        <v>41823</v>
       </c>
       <c r="I3" s="6">
-        <v>0.99709863321981806</v>
+        <v>0.99705212994891101</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5896,14 +5890,14 @@
       </c>
       <c r="G4" s="11">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41661</v>
+        <v>41673</v>
       </c>
       <c r="H4" s="12">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41842</v>
+        <v>41855</v>
       </c>
       <c r="I4" s="6">
-        <v>0.99666312062440998</v>
+        <v>0.99657499044919295</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5926,14 +5920,14 @@
       </c>
       <c r="G5" s="11">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41694</v>
+        <v>41701</v>
       </c>
       <c r="H5" s="12">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41876</v>
+        <v>41885</v>
       </c>
       <c r="I5" s="6">
-        <v>0.99610671309900745</v>
+        <v>0.99607950165484438</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5957,14 +5951,14 @@
       </c>
       <c r="G6" s="11">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41722</v>
+        <v>41732</v>
       </c>
       <c r="H6" s="12">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41906</v>
+        <v>41915</v>
       </c>
       <c r="I6" s="6">
-        <v>0.99561091366603716</v>
+        <v>0.99557997474673687</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -5989,14 +5983,14 @@
       </c>
       <c r="G7" s="11">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41751</v>
+        <v>41764</v>
       </c>
       <c r="H7" s="12">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41934</v>
+        <v>41948</v>
       </c>
       <c r="I7" s="6">
-        <v>0.99514176356087747</v>
+        <v>0.99503803019528603</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6013,14 +6007,14 @@
       </c>
       <c r="G8" s="11">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41781</v>
+        <v>41793</v>
       </c>
       <c r="H8" s="12">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41967</v>
+        <v>41976</v>
       </c>
       <c r="I8" s="6">
-        <v>0.99455028954844549</v>
+        <v>0.99451969678061169</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6037,14 +6031,14 @@
       </c>
       <c r="G9" s="11">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41967</v>
+        <v>41976</v>
       </c>
       <c r="H9" s="12">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42149</v>
+        <v>42158</v>
       </c>
       <c r="I9" s="6">
-        <v>0.99153439506788554</v>
+        <v>0.99150389507018177</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6053,7 +6047,7 @@
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>7.8000000000000005E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6061,14 +6055,14 @@
       </c>
       <c r="G10" s="11">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42146</v>
+        <v>42158</v>
       </c>
       <c r="H10" s="12">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42331</v>
+        <v>42341</v>
       </c>
       <c r="I10" s="6">
-        <v>0.98767931763767025</v>
+        <v>0.98769086712261345</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="22890" yWindow="-15" windowWidth="7635" windowHeight="11085" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="22890" yWindow="-15" windowWidth="7635" windowHeight="11085" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
-    <sheet name="HKD_YCRH_FRAs_6M" sheetId="6" r:id="rId2"/>
+    <sheet name="FRAs" sheetId="6" r:id="rId2"/>
     <sheet name="RateHelpers" sheetId="7" r:id="rId3"/>
     <sheet name="Selected" sheetId="8" r:id="rId4"/>
   </sheets>
@@ -33,7 +33,7 @@
     <definedName name="ObjectOverwrite">'General Settings'!$J$6</definedName>
     <definedName name="Permanent">'General Settings'!$J$5</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$J$16</definedName>
-    <definedName name="RateHelperConstructors" localSheetId="1">HKD_YCRH_FRAs_6M!$I$3:$I$22</definedName>
+    <definedName name="RateHelperConstructors" localSheetId="1">FRAs!$I$3:$I$22</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$8</definedName>
     <definedName name="RateHelpers">RateHelpers!$E$2:$E$59</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$59</definedName>
@@ -1941,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="72">
-        <v>41606.781886574077</v>
+        <v>41607.530104166668</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="J8" s="72" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>D:\QuantLibXL-1.3.0\Data2\XML\</v>
+        <v>N:\QuantLibXL-1.3.0\Data2\XML\</v>
       </c>
       <c r="K8" s="73"/>
     </row>
@@ -2302,11 +2302,11 @@
       <c r="B23" s="64"/>
       <c r="C23" s="97">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>42341</v>
+        <v>42338</v>
       </c>
       <c r="D23" s="74">
         <f>MIN(_xll.ohPack(Selected!I1:I20))</f>
-        <v>0.98769086712261345</v>
+        <v>0.98762426348985388</v>
       </c>
       <c r="E23" s="66"/>
       <c r="F23" s="67"/>
@@ -2433,7 +2433,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J2" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>ohObjectSave - Invalid parent path : N:\QuantLibXL-1.3.0\Data2\XML\HKD_YC6MRH_FRAs.xml</v>
       </c>
       <c r="K2" s="30"/>
     </row>
@@ -3355,7 +3355,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I23</f>
+        <f>FRAs!I23</f>
         <v>HkdHibor6MLastFixing#0000</v>
       </c>
       <c r="F2" s="116">
@@ -3375,11 +3375,11 @@
       </c>
       <c r="K2" s="114">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="L2" s="113">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41793</v>
+        <v>41789</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -3414,11 +3414,11 @@
       </c>
       <c r="K3" s="121">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="L3" s="120">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41793</v>
+        <v>41789</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -3453,11 +3453,11 @@
       </c>
       <c r="K4" s="107">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41612</v>
+        <v>41610</v>
       </c>
       <c r="L4" s="106">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41794</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -3472,7 +3472,7 @@
         <v>7F</v>
       </c>
       <c r="E5" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I5</f>
+        <f>FRAs!I5</f>
         <v>HKD_YC6MRH_1x7F#0000</v>
       </c>
       <c r="F5" s="116">
@@ -3492,11 +3492,11 @@
       </c>
       <c r="K5" s="114">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="L5" s="113">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41823</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -3511,7 +3511,7 @@
         <v>8F</v>
       </c>
       <c r="E6" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I6</f>
+        <f>FRAs!I6</f>
         <v>HKD_YC6MRH_2x8F#0000</v>
       </c>
       <c r="F6" s="116">
@@ -3531,11 +3531,11 @@
       </c>
       <c r="K6" s="114">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41673</v>
+        <v>41670</v>
       </c>
       <c r="L6" s="113">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41855</v>
+        <v>41851</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -3550,7 +3550,7 @@
         <v>9F</v>
       </c>
       <c r="E7" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I7</f>
+        <f>FRAs!I7</f>
         <v>HKD_YC6MRH_3x9F#0000</v>
       </c>
       <c r="F7" s="116">
@@ -3570,11 +3570,11 @@
       </c>
       <c r="K7" s="114">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41701</v>
+        <v>41698</v>
       </c>
       <c r="L7" s="113">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41885</v>
+        <v>41880</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -3589,7 +3589,7 @@
         <v>10F</v>
       </c>
       <c r="E8" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I8</f>
+        <f>FRAs!I8</f>
         <v>HKD_YC6MRH_4x10F#0000</v>
       </c>
       <c r="F8" s="116">
@@ -3609,11 +3609,11 @@
       </c>
       <c r="K8" s="114">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41732</v>
+        <v>41729</v>
       </c>
       <c r="L8" s="113">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41915</v>
+        <v>41912</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -3628,7 +3628,7 @@
         <v>11F</v>
       </c>
       <c r="E9" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I9</f>
+        <f>FRAs!I9</f>
         <v>HKD_YC6MRH_5x11F#0000</v>
       </c>
       <c r="F9" s="116">
@@ -3648,11 +3648,11 @@
       </c>
       <c r="K9" s="114">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41764</v>
+        <v>41759</v>
       </c>
       <c r="L9" s="113">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41948</v>
+        <v>41943</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
         <v>12F</v>
       </c>
       <c r="E10" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I10</f>
+        <f>FRAs!I10</f>
         <v>HKD_YC6MRH_6x12F#0000</v>
       </c>
       <c r="F10" s="116">
@@ -3687,11 +3687,11 @@
       </c>
       <c r="K10" s="114">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41793</v>
+        <v>41789</v>
       </c>
       <c r="L10" s="113">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41976</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -3706,7 +3706,7 @@
         <v>13F</v>
       </c>
       <c r="E11" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I11</f>
+        <f>FRAs!I11</f>
         <v>HKD_YC6MRH_7x13F#0000</v>
       </c>
       <c r="F11" s="116" t="e">
@@ -3726,11 +3726,11 @@
       </c>
       <c r="K11" s="114">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41823</v>
+        <v>41820</v>
       </c>
       <c r="L11" s="113">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>42009</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -3745,7 +3745,7 @@
         <v>14F</v>
       </c>
       <c r="E12" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I12</f>
+        <f>FRAs!I12</f>
         <v>HKD_YC6MRH_8x14F#0000</v>
       </c>
       <c r="F12" s="116" t="e">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="K12" s="114">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41855</v>
+        <v>41851</v>
       </c>
       <c r="L12" s="113">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>42039</v>
+        <v>42034</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -3784,7 +3784,7 @@
         <v>15F</v>
       </c>
       <c r="E13" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I13</f>
+        <f>FRAs!I13</f>
         <v>HKD_YC6MRH_9x15F#0000</v>
       </c>
       <c r="F13" s="116" t="e">
@@ -3804,11 +3804,11 @@
       </c>
       <c r="K13" s="114">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41885</v>
+        <v>41880</v>
       </c>
       <c r="L13" s="113">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>42066</v>
+        <v>42062</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>16F</v>
       </c>
       <c r="E14" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I14</f>
+        <f>FRAs!I14</f>
         <v>HKD_YC6MRH_10x16F#0000</v>
       </c>
       <c r="F14" s="116" t="e">
@@ -3843,11 +3843,11 @@
       </c>
       <c r="K14" s="114">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41915</v>
+        <v>41912</v>
       </c>
       <c r="L14" s="113">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>42101</v>
+        <v>42094</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -3862,7 +3862,7 @@
         <v>17F</v>
       </c>
       <c r="E15" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I15</f>
+        <f>FRAs!I15</f>
         <v>HKD_YC6MRH_11x17F#0000</v>
       </c>
       <c r="F15" s="116" t="e">
@@ -3882,11 +3882,11 @@
       </c>
       <c r="K15" s="114">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41946</v>
+        <v>41943</v>
       </c>
       <c r="L15" s="113">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42128</v>
+        <v>42124</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -3901,12 +3901,12 @@
         <v>18F</v>
       </c>
       <c r="E16" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I16</f>
+        <f>FRAs!I16</f>
         <v>HKD_YC6MRH_12x18F#0000</v>
       </c>
       <c r="F16" s="116">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>6.1000000000000013E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="G16" s="116"/>
       <c r="H16" s="115" t="b">
@@ -3921,11 +3921,11 @@
       </c>
       <c r="K16" s="114">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41976</v>
+        <v>41971</v>
       </c>
       <c r="L16" s="113">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42158</v>
+        <v>42153</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
         <v>19F</v>
       </c>
       <c r="E17" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I17</f>
+        <f>FRAs!I17</f>
         <v>HKD_YC6MRH_13x19F#0000</v>
       </c>
       <c r="F17" s="116" t="e">
@@ -3960,11 +3960,11 @@
       </c>
       <c r="K17" s="114">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>42009</v>
+        <v>42004</v>
       </c>
       <c r="L17" s="113">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42191</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3979,7 +3979,7 @@
         <v>20F</v>
       </c>
       <c r="E18" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I18</f>
+        <f>FRAs!I18</f>
         <v>HKD_YC6MRH_14x20F#0000</v>
       </c>
       <c r="F18" s="116" t="e">
@@ -3999,11 +3999,11 @@
       </c>
       <c r="K18" s="114">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>42038</v>
+        <v>42034</v>
       </c>
       <c r="L18" s="113">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42219</v>
+        <v>42216</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -4018,7 +4018,7 @@
         <v>21F</v>
       </c>
       <c r="E19" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I19</f>
+        <f>FRAs!I19</f>
         <v>HKD_YC6MRH_15x21F#0000</v>
       </c>
       <c r="F19" s="116" t="e">
@@ -4038,11 +4038,11 @@
       </c>
       <c r="K19" s="114">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>42066</v>
+        <v>42062</v>
       </c>
       <c r="L19" s="113">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42250</v>
+        <v>42247</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -4057,7 +4057,7 @@
         <v>22F</v>
       </c>
       <c r="E20" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I20</f>
+        <f>FRAs!I20</f>
         <v>HKD_YC6MRH_16x22F#0000</v>
       </c>
       <c r="F20" s="116" t="e">
@@ -4077,11 +4077,11 @@
       </c>
       <c r="K20" s="114">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>42101</v>
+        <v>42094</v>
       </c>
       <c r="L20" s="113">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42284</v>
+        <v>42277</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -4096,7 +4096,7 @@
         <v>23F</v>
       </c>
       <c r="E21" s="117" t="str">
-        <f>HKD_YCRH_FRAs_6M!I21</f>
+        <f>FRAs!I21</f>
         <v>HKD_YC6MRH_17x23F#0000</v>
       </c>
       <c r="F21" s="116" t="e">
@@ -4116,11 +4116,11 @@
       </c>
       <c r="K21" s="114">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>42128</v>
+        <v>42124</v>
       </c>
       <c r="L21" s="113">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42312</v>
+        <v>42307</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -4135,12 +4135,12 @@
         <v>24F</v>
       </c>
       <c r="E22" s="110" t="str">
-        <f>HKD_YCRH_FRAs_6M!I22</f>
+        <f>FRAs!I22</f>
         <v>HKD_YC6MRH_18x24F#0000</v>
       </c>
       <c r="F22" s="109">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>7.7000000000000002E-3</v>
+        <v>7.8000000000000005E-3</v>
       </c>
       <c r="G22" s="109"/>
       <c r="H22" s="108" t="b">
@@ -4155,11 +4155,11 @@
       </c>
       <c r="K22" s="107">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>42158</v>
+        <v>42153</v>
       </c>
       <c r="L22" s="106">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42341</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -5817,7 +5817,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),ISERROR(HKD_YCRH_FRAs_6M!RateHelperConstructors))</f>
+        <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),ISERROR(FRAs!RateHelperConstructors))</f>
         <v>HkdHibor6MLastFixing</v>
       </c>
       <c r="E2" s="10">
@@ -5830,14 +5830,14 @@
       </c>
       <c r="G2" s="11">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H2" s="12">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41793</v>
+        <v>41789</v>
       </c>
       <c r="I2" s="6">
-        <v>0.99721225668296354</v>
+        <v>0.9972721263068568</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5860,14 +5860,14 @@
       </c>
       <c r="G3" s="11">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="H3" s="12">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41823</v>
+        <v>41820</v>
       </c>
       <c r="I3" s="6">
-        <v>0.99705212994891101</v>
+        <v>0.99709702461977379</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5890,14 +5890,14 @@
       </c>
       <c r="G4" s="11">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41673</v>
+        <v>41670</v>
       </c>
       <c r="H4" s="12">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41855</v>
+        <v>41851</v>
       </c>
       <c r="I4" s="6">
-        <v>0.99657499044919295</v>
+        <v>0.99663321048504716</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5920,14 +5920,14 @@
       </c>
       <c r="G5" s="11">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41701</v>
+        <v>41698</v>
       </c>
       <c r="H5" s="12">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41885</v>
+        <v>41880</v>
       </c>
       <c r="I5" s="6">
-        <v>0.99607950165484438</v>
+        <v>0.99615157573737345</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5951,14 +5951,14 @@
       </c>
       <c r="G6" s="11">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41732</v>
+        <v>41729</v>
       </c>
       <c r="H6" s="12">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41915</v>
+        <v>41912</v>
       </c>
       <c r="I6" s="6">
-        <v>0.99557997474673687</v>
+        <v>0.99562480313027002</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -5983,14 +5983,14 @@
       </c>
       <c r="G7" s="11">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41764</v>
+        <v>41759</v>
       </c>
       <c r="H7" s="12">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41948</v>
+        <v>41943</v>
       </c>
       <c r="I7" s="6">
-        <v>0.99503803019528603</v>
+        <v>0.9951127046180217</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6007,14 +6007,14 @@
       </c>
       <c r="G8" s="11">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41793</v>
+        <v>41789</v>
       </c>
       <c r="H8" s="12">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41976</v>
+        <v>41971</v>
       </c>
       <c r="I8" s="6">
-        <v>0.99451969678061169</v>
+        <v>0.99459407956331003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.1000000000000013E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6031,14 +6031,14 @@
       </c>
       <c r="G9" s="11">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41976</v>
+        <v>41971</v>
       </c>
       <c r="H9" s="12">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42158</v>
+        <v>42153</v>
       </c>
       <c r="I9" s="6">
-        <v>0.99150389507018177</v>
+        <v>0.99152876160551362</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>7.7000000000000002E-3</v>
+        <v>7.8000000000000005E-3</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6055,14 +6055,14 @@
       </c>
       <c r="G10" s="11">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42158</v>
+        <v>42153</v>
       </c>
       <c r="H10" s="12">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42341</v>
+        <v>42338</v>
       </c>
       <c r="I10" s="6">
-        <v>0.98769086712261345</v>
+        <v>0.98762426348985388</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="22890" yWindow="-15" windowWidth="7635" windowHeight="11085" activeTab="3"/>
+    <workbookView xWindow="22890" yWindow="-15" windowWidth="7635" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -715,18 +715,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1100,43 +1100,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1188,6 +1151,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1203,7 +1177,7 @@
     <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1257,10 +1231,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1329,103 +1303,101 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="19" fillId="6" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="10" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="9" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="17" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="17" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="17" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="17" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1477,19 +1449,19 @@
     <xf numFmtId="170" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,17 +1498,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1547,6 +1512,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1861,537 +1838,535 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="18" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="2.7109375" style="62" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="62" customWidth="1"/>
-    <col min="12" max="16384" width="8" style="62"/>
+    <col min="1" max="2" width="2.7109375" style="146" customWidth="1"/>
+    <col min="3" max="3" width="18" style="146" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="146" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="146" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="2.7109375" style="146" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="146" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" style="146" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="146" customWidth="1"/>
+    <col min="12" max="16384" width="8" style="146"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63" t="str">
+      <c r="A1" s="145"/>
+      <c r="B1" s="145" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="142" t="s">
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
+      </c>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="145"/>
+      <c r="B2" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="142" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="128" t="s">
+      <c r="A4" s="145"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="103">
+      <c r="D4" s="101">
         <v>6</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="136" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="72">
-        <v>41607.530104166668</v>
-      </c>
-      <c r="K4" s="73"/>
+      <c r="J4" s="70">
+        <v>41684.564930555556</v>
+      </c>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="129" t="s">
+      <c r="A5" s="145"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="74" t="str">
+      <c r="D5" s="72" t="str">
         <f>_xll.qlPeriodEquivalent(D4&amp;"M")</f>
         <v>6M</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="136" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="72" t="b">
+      <c r="J5" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="73"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="129" t="s">
+      <c r="A6" s="145"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="136" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="72" t="b">
+      <c r="J6" s="70" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="73"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="129" t="s">
+      <c r="A7" s="145"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="136" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="72" t="b">
+      <c r="J7" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="73"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="130" t="s">
+      <c r="A8" s="145"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="78" t="str">
+      <c r="D8" s="76" t="str">
         <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
         <v>HKD_YC6MRH</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="136" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="72" t="str">
+      <c r="J8" s="70" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>N:\QuantLibXL-1.3.0\Data2\XML\</v>
-      </c>
-      <c r="K8" s="73"/>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
+      </c>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="136" t="s">
+      <c r="A9" s="145"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="72" t="b">
+      <c r="J9" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="73"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="132" t="s">
+      <c r="A10" s="145"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="72" t="str">
+      <c r="D10" s="70" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D17),NA(),D15:E15),IF(ISERROR(D17),NA(),D16:E16),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>HKDYC6M#0000</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
+        <v>HKDYC6M#0003</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="133" t="s">
+      <c r="A11" s="145"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="72" t="str">
+      <c r="D11" s="70" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="132" t="s">
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="145"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="83" t="str">
+      <c r="D12" s="81" t="str">
         <f>Currency&amp;"YC"&amp;IndexTenor</f>
         <v>HKDYC6M</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="142" t="s">
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="150"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="134" t="s">
+      <c r="A13" s="145"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="82">
         <v>0</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="134" t="s">
+      <c r="A14" s="145"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="136" t="s">
+      <c r="D14" s="86"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="82"/>
+      <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="134" t="s">
+      <c r="A15" s="145"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="89" t="str">
+      <c r="D15" s="87" t="str">
         <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>HKDTOY_SYNTH6M_Quote</v>
       </c>
-      <c r="E15" s="71" t="str">
+      <c r="E15" s="69" t="str">
         <f>Currency&amp;"TOY2_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>HKDTOY2_SYNTH6M_Quote</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="136" t="s">
+      <c r="F15" s="65"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="82"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="134" t="s">
+      <c r="A16" s="145"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="88">
         <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
-        <v>41639</v>
-      </c>
-      <c r="E16" s="91">
+        <v>42004</v>
+      </c>
+      <c r="E16" s="89">
         <f>DATE(YEAR(D16+1),12,31)</f>
-        <v>42004</v>
-      </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="136" t="s">
+        <v>42369</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="82"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="134" t="s">
+      <c r="A17" s="145"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="92" t="e">
+      <c r="D17" s="90" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="93" t="e">
+      <c r="E17" s="91" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="136" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="137" t="s">
+      <c r="J17" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="138"/>
+      <c r="K17" s="136"/>
     </row>
     <row r="18" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="134" t="s">
+      <c r="A18" s="145"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="87"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="134" t="s">
+      <c r="A19" s="145"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="133" t="s">
+      <c r="A20" s="145"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="95">
+      <c r="A22" s="145"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="93">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41607</v>
-      </c>
-      <c r="D22" s="96">
+        <v>41684</v>
+      </c>
+      <c r="D22" s="94">
         <f>MAX(_xll.ohPack(Selected!I1:I20))</f>
         <v>1</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="97">
+      <c r="A23" s="145"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="95">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>42338</v>
-      </c>
-      <c r="D23" s="74">
+        <v>42415</v>
+      </c>
+      <c r="D23" s="72">
         <f>MIN(_xll.ohPack(Selected!I1:I20))</f>
-        <v>0.98762426348985388</v>
-      </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
+        <v>0.98772918348282057</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="98" t="s">
+      <c r="A24" s="145"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="99" t="str">
+      <c r="D24" s="97" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
     </row>
     <row r="25" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
+      <c r="A26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
+      <c r="A27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
+      <c r="A28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
+      <c r="A29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
+      <c r="A30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2432,9 +2407,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2489,13 +2462,13 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>HKD_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="48" t="e">
+      <c r="I2" s="48">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I23,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>21</v>
       </c>
       <c r="J2" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>ohObjectSave - Invalid parent path : N:\QuantLibXL-1.3.0\Data2\XML\HKD_YC6MRH_FRAs.xml</v>
+        <v/>
       </c>
       <c r="K2" s="30"/>
     </row>
@@ -2528,7 +2501,7 @@
       </c>
       <c r="I3" s="38" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_T6F1#0000</v>
+        <v>HKD_YC6MRH_T6F1#0002</v>
       </c>
       <c r="J3" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -2565,7 +2538,7 @@
       </c>
       <c r="I4" s="43" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_TOM6F1#0000</v>
+        <v>HKD_YC6MRH_TOM6F1#0002</v>
       </c>
       <c r="J4" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -2603,7 +2576,7 @@
       </c>
       <c r="I5" s="38" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_1x7F#0000</v>
+        <v>HKD_YC6MRH_1x7F#0002</v>
       </c>
       <c r="J5" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -2641,7 +2614,7 @@
       </c>
       <c r="I6" s="32" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_2x8F#0000</v>
+        <v>HKD_YC6MRH_2x8F#0002</v>
       </c>
       <c r="J6" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -2679,7 +2652,7 @@
       </c>
       <c r="I7" s="32" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_3x9F#0000</v>
+        <v>HKD_YC6MRH_3x9F#0002</v>
       </c>
       <c r="J7" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -2717,7 +2690,7 @@
       </c>
       <c r="I8" s="32" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_4x10F#0000</v>
+        <v>HKD_YC6MRH_4x10F#0002</v>
       </c>
       <c r="J8" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -2755,7 +2728,7 @@
       </c>
       <c r="I9" s="32" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_5x11F#0000</v>
+        <v>HKD_YC6MRH_5x11F#0002</v>
       </c>
       <c r="J9" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -2793,7 +2766,7 @@
       </c>
       <c r="I10" s="32" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_6x12F#0000</v>
+        <v>HKD_YC6MRH_6x12F#0002</v>
       </c>
       <c r="J10" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -2831,7 +2804,7 @@
       </c>
       <c r="I11" s="32" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_7x13F#0000</v>
+        <v>HKD_YC6MRH_7x13F#0002</v>
       </c>
       <c r="J11" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -2869,7 +2842,7 @@
       </c>
       <c r="I12" s="32" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_8x14F#0000</v>
+        <v>HKD_YC6MRH_8x14F#0002</v>
       </c>
       <c r="J12" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -2907,7 +2880,7 @@
       </c>
       <c r="I13" s="32" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_9x15F#0000</v>
+        <v>HKD_YC6MRH_9x15F#0002</v>
       </c>
       <c r="J13" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -2945,7 +2918,7 @@
       </c>
       <c r="I14" s="32" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_10x16F#0000</v>
+        <v>HKD_YC6MRH_10x16F#0002</v>
       </c>
       <c r="J14" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -2983,7 +2956,7 @@
       </c>
       <c r="I15" s="32" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_11x17F#0000</v>
+        <v>HKD_YC6MRH_11x17F#0002</v>
       </c>
       <c r="J15" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -3021,7 +2994,7 @@
       </c>
       <c r="I16" s="32" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_12x18F#0000</v>
+        <v>HKD_YC6MRH_12x18F#0002</v>
       </c>
       <c r="J16" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -3059,7 +3032,7 @@
       </c>
       <c r="I17" s="32" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_13x19F#0000</v>
+        <v>HKD_YC6MRH_13x19F#0002</v>
       </c>
       <c r="J17" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -3097,7 +3070,7 @@
       </c>
       <c r="I18" s="32" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_14x20F#0000</v>
+        <v>HKD_YC6MRH_14x20F#0002</v>
       </c>
       <c r="J18" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -3135,7 +3108,7 @@
       </c>
       <c r="I19" s="32" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_15x21F#0000</v>
+        <v>HKD_YC6MRH_15x21F#0002</v>
       </c>
       <c r="J19" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -3173,7 +3146,7 @@
       </c>
       <c r="I20" s="32" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_16x22F#0000</v>
+        <v>HKD_YC6MRH_16x22F#0002</v>
       </c>
       <c r="J20" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -3211,7 +3184,7 @@
       </c>
       <c r="I21" s="32" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_17x23F#0000</v>
+        <v>HKD_YC6MRH_17x23F#0002</v>
       </c>
       <c r="J21" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -3249,7 +3222,7 @@
       </c>
       <c r="I22" s="32" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_18x24F#0000</v>
+        <v>HKD_YC6MRH_18x24F#0002</v>
       </c>
       <c r="J22" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -3266,15 +3239,15 @@
         <v>101</v>
       </c>
       <c r="F23" s="28"/>
-      <c r="G23" s="140" t="s">
+      <c r="G23" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="140" t="s">
+      <c r="H23" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="141" t="str">
+      <c r="I23" s="139" t="str">
         <f>_xll.qlDepositRateHelper(H23,G23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor6MLastFixing#0000</v>
+        <v>HkdHibor6MLastFixing#0001</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="26"/>
@@ -3300,29 +3273,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="104" customWidth="1"/>
-    <col min="2" max="2" width="5" style="105" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="105" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="105" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="105" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" style="105" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="105" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="105" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="104" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="104" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" style="104" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" style="104" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="104"/>
+    <col min="1" max="1" width="5.7109375" style="102" customWidth="1"/>
+    <col min="2" max="2" width="5" style="103" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="103" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="103" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="103" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="102" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="102" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="102" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3349,2406 +3322,2406 @@
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="127"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="117" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="117" t="str">
+      <c r="E2" s="115" t="str">
         <f>FRAs!I23</f>
-        <v>HkdHibor6MLastFixing#0000</v>
-      </c>
-      <c r="F2" s="116">
+        <v>HkdHibor6MLastFixing#0001</v>
+      </c>
+      <c r="F2" s="114">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
         <v>5.4856999999999996E-3</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="115" t="b">
+      <c r="G2" s="114"/>
+      <c r="H2" s="113" t="b">
         <f>IF(ISERROR(F2),FALSE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="115">
+      <c r="I2" s="113">
         <v>70</v>
       </c>
-      <c r="J2" s="115">
+      <c r="J2" s="113">
         <v>1</v>
       </c>
-      <c r="K2" s="114">
+      <c r="K2" s="112">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41607</v>
-      </c>
-      <c r="L2" s="113">
+        <v>41684</v>
+      </c>
+      <c r="L2" s="111">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41789</v>
+        <v>41865</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="125">
+      <c r="C3" s="123">
         <f>Months</f>
         <v>6</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="124" t="str">
+      <c r="E3" s="122" t="str">
         <f t="shared" ref="E3:E4" si="0">RateHelperPrefix&amp;"_"&amp;$B3&amp;$C3&amp;$D3</f>
         <v>HKD_YC6MRH_T6F1</v>
       </c>
-      <c r="F3" s="123" t="e">
+      <c r="F3" s="121" t="e">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="122" t="b">
+      <c r="G3" s="121"/>
+      <c r="H3" s="120" t="b">
         <f t="shared" ref="H3:H22" si="1">IF(ISERROR(F3),FALSE,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="122">
+      <c r="I3" s="120">
         <v>20</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="120">
         <v>1</v>
       </c>
-      <c r="K3" s="121">
+      <c r="K3" s="119">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41607</v>
-      </c>
-      <c r="L3" s="120">
+        <v>41684</v>
+      </c>
+      <c r="L3" s="118">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41789</v>
+        <v>41865</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="109">
         <f>Months</f>
         <v>6</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="110" t="str">
+      <c r="E4" s="108" t="str">
         <f t="shared" si="0"/>
         <v>HKD_YC6MRH_TOM6F1</v>
       </c>
-      <c r="F4" s="109" t="e">
+      <c r="F4" s="107" t="e">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="108" t="b">
+      <c r="G4" s="107"/>
+      <c r="H4" s="106" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="108">
+      <c r="I4" s="106">
         <v>20</v>
       </c>
-      <c r="J4" s="108">
+      <c r="J4" s="106">
         <v>1</v>
       </c>
-      <c r="K4" s="107">
+      <c r="K4" s="105">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41610</v>
-      </c>
-      <c r="L4" s="106">
+        <v>41687</v>
+      </c>
+      <c r="L4" s="104">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41792</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="119">
+      <c r="B5" s="117">
         <v>1</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="117" t="str">
+      <c r="D5" s="115" t="str">
         <f t="shared" ref="D5:D22" si="2">(B5+Months)&amp;"F"</f>
         <v>7F</v>
       </c>
-      <c r="E5" s="117" t="str">
+      <c r="E5" s="115" t="str">
         <f>FRAs!I5</f>
-        <v>HKD_YC6MRH_1x7F#0000</v>
-      </c>
-      <c r="F5" s="116">
+        <v>HKD_YC6MRH_1x7F#0002</v>
+      </c>
+      <c r="F5" s="114">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="115" t="b">
+      <c r="G5" s="114"/>
+      <c r="H5" s="113" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I5" s="115">
+      <c r="I5" s="113">
         <v>20</v>
       </c>
-      <c r="J5" s="115">
+      <c r="J5" s="113">
         <v>1</v>
       </c>
-      <c r="K5" s="114">
+      <c r="K5" s="112">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41639</v>
-      </c>
-      <c r="L5" s="113">
+        <v>41712</v>
+      </c>
+      <c r="L5" s="111">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41820</v>
+        <v>41897</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="119">
+      <c r="B6" s="117">
         <v>2</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="117" t="str">
+      <c r="D6" s="115" t="str">
         <f t="shared" si="2"/>
         <v>8F</v>
       </c>
-      <c r="E6" s="117" t="str">
+      <c r="E6" s="115" t="str">
         <f>FRAs!I6</f>
-        <v>HKD_YC6MRH_2x8F#0000</v>
-      </c>
-      <c r="F6" s="116">
+        <v>HKD_YC6MRH_2x8F#0002</v>
+      </c>
+      <c r="F6" s="114">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="115" t="b">
+      <c r="G6" s="114"/>
+      <c r="H6" s="113" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I6" s="115">
+      <c r="I6" s="113">
         <v>20</v>
       </c>
-      <c r="J6" s="115">
+      <c r="J6" s="113">
         <v>1</v>
       </c>
-      <c r="K6" s="114">
+      <c r="K6" s="112">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41670</v>
-      </c>
-      <c r="L6" s="113">
+        <v>41743</v>
+      </c>
+      <c r="L6" s="111">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41851</v>
+        <v>41926</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="119">
+      <c r="B7" s="117">
         <v>3</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="117" t="str">
+      <c r="D7" s="115" t="str">
         <f t="shared" si="2"/>
         <v>9F</v>
       </c>
-      <c r="E7" s="117" t="str">
+      <c r="E7" s="115" t="str">
         <f>FRAs!I7</f>
-        <v>HKD_YC6MRH_3x9F#0000</v>
-      </c>
-      <c r="F7" s="116">
+        <v>HKD_YC6MRH_3x9F#0002</v>
+      </c>
+      <c r="F7" s="114">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G7" s="116"/>
-      <c r="H7" s="115" t="b">
+      <c r="G7" s="114"/>
+      <c r="H7" s="113" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I7" s="115">
+      <c r="I7" s="113">
         <v>20</v>
       </c>
-      <c r="J7" s="115">
+      <c r="J7" s="113">
         <v>1</v>
       </c>
-      <c r="K7" s="114">
+      <c r="K7" s="112">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41698</v>
-      </c>
-      <c r="L7" s="113">
+        <v>41773</v>
+      </c>
+      <c r="L7" s="111">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41880</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="119">
+      <c r="B8" s="117">
         <v>4</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="117" t="str">
+      <c r="D8" s="115" t="str">
         <f t="shared" si="2"/>
         <v>10F</v>
       </c>
-      <c r="E8" s="117" t="str">
+      <c r="E8" s="115" t="str">
         <f>FRAs!I8</f>
-        <v>HKD_YC6MRH_4x10F#0000</v>
-      </c>
-      <c r="F8" s="116">
+        <v>HKD_YC6MRH_4x10F#0002</v>
+      </c>
+      <c r="F8" s="114">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="G8" s="116"/>
-      <c r="H8" s="115" t="b">
+      <c r="G8" s="114"/>
+      <c r="H8" s="113" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I8" s="115">
+      <c r="I8" s="113">
         <v>20</v>
       </c>
-      <c r="J8" s="115">
+      <c r="J8" s="113">
         <v>1</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="112">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41729</v>
-      </c>
-      <c r="L8" s="113">
+        <v>41806</v>
+      </c>
+      <c r="L8" s="111">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41912</v>
+        <v>41989</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="119">
+      <c r="B9" s="117">
         <v>5</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="117" t="str">
+      <c r="D9" s="115" t="str">
         <f t="shared" si="2"/>
         <v>11F</v>
       </c>
-      <c r="E9" s="117" t="str">
+      <c r="E9" s="115" t="str">
         <f>FRAs!I9</f>
-        <v>HKD_YC6MRH_5x11F#0000</v>
-      </c>
-      <c r="F9" s="116">
+        <v>HKD_YC6MRH_5x11F#0002</v>
+      </c>
+      <c r="F9" s="114">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="115" t="b">
+      <c r="G9" s="114"/>
+      <c r="H9" s="113" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" s="115">
+      <c r="I9" s="113">
         <v>20</v>
       </c>
-      <c r="J9" s="115">
+      <c r="J9" s="113">
         <v>1</v>
       </c>
-      <c r="K9" s="114">
+      <c r="K9" s="112">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41759</v>
-      </c>
-      <c r="L9" s="113">
+        <v>41834</v>
+      </c>
+      <c r="L9" s="111">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41943</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="119">
+      <c r="B10" s="117">
         <v>6</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="117" t="str">
+      <c r="D10" s="115" t="str">
         <f t="shared" si="2"/>
         <v>12F</v>
       </c>
-      <c r="E10" s="117" t="str">
+      <c r="E10" s="115" t="str">
         <f>FRAs!I10</f>
-        <v>HKD_YC6MRH_6x12F#0000</v>
-      </c>
-      <c r="F10" s="116">
+        <v>HKD_YC6MRH_6x12F#0002</v>
+      </c>
+      <c r="F10" s="114">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="115" t="b">
+      <c r="G10" s="114"/>
+      <c r="H10" s="113" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I10" s="115">
+      <c r="I10" s="113">
         <v>20</v>
       </c>
-      <c r="J10" s="115">
+      <c r="J10" s="113">
         <v>1</v>
       </c>
-      <c r="K10" s="114">
+      <c r="K10" s="112">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41789</v>
-      </c>
-      <c r="L10" s="113">
+        <v>41865</v>
+      </c>
+      <c r="L10" s="111">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41971</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="119">
+      <c r="B11" s="117">
         <v>7</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="117" t="str">
+      <c r="D11" s="115" t="str">
         <f t="shared" si="2"/>
         <v>13F</v>
       </c>
-      <c r="E11" s="117" t="str">
+      <c r="E11" s="115" t="str">
         <f>FRAs!I11</f>
-        <v>HKD_YC6MRH_7x13F#0000</v>
-      </c>
-      <c r="F11" s="116" t="e">
+        <v>HKD_YC6MRH_7x13F#0002</v>
+      </c>
+      <c r="F11" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G11" s="116"/>
-      <c r="H11" s="115" t="b">
+      <c r="G11" s="114"/>
+      <c r="H11" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="115">
+      <c r="I11" s="113">
         <v>20</v>
       </c>
-      <c r="J11" s="115">
+      <c r="J11" s="113">
         <v>1</v>
       </c>
-      <c r="K11" s="114">
+      <c r="K11" s="112">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41820</v>
-      </c>
-      <c r="L11" s="113">
+        <v>41897</v>
+      </c>
+      <c r="L11" s="111">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>42004</v>
+        <v>42079</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="119">
+      <c r="B12" s="117">
         <v>8</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="117" t="str">
+      <c r="D12" s="115" t="str">
         <f t="shared" si="2"/>
         <v>14F</v>
       </c>
-      <c r="E12" s="117" t="str">
+      <c r="E12" s="115" t="str">
         <f>FRAs!I12</f>
-        <v>HKD_YC6MRH_8x14F#0000</v>
-      </c>
-      <c r="F12" s="116" t="e">
+        <v>HKD_YC6MRH_8x14F#0002</v>
+      </c>
+      <c r="F12" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G12" s="116"/>
-      <c r="H12" s="115" t="b">
+      <c r="G12" s="114"/>
+      <c r="H12" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="115">
+      <c r="I12" s="113">
         <v>20</v>
       </c>
-      <c r="J12" s="115">
+      <c r="J12" s="113">
         <v>1</v>
       </c>
-      <c r="K12" s="114">
+      <c r="K12" s="112">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41851</v>
-      </c>
-      <c r="L12" s="113">
+        <v>41926</v>
+      </c>
+      <c r="L12" s="111">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>42034</v>
+        <v>42108</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="119">
+      <c r="B13" s="117">
         <v>9</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="117" t="str">
+      <c r="D13" s="115" t="str">
         <f t="shared" si="2"/>
         <v>15F</v>
       </c>
-      <c r="E13" s="117" t="str">
+      <c r="E13" s="115" t="str">
         <f>FRAs!I13</f>
-        <v>HKD_YC6MRH_9x15F#0000</v>
-      </c>
-      <c r="F13" s="116" t="e">
+        <v>HKD_YC6MRH_9x15F#0002</v>
+      </c>
+      <c r="F13" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G13" s="116"/>
-      <c r="H13" s="115" t="b">
+      <c r="G13" s="114"/>
+      <c r="H13" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="115">
+      <c r="I13" s="113">
         <v>20</v>
       </c>
-      <c r="J13" s="115">
+      <c r="J13" s="113">
         <v>1</v>
       </c>
-      <c r="K13" s="114">
+      <c r="K13" s="112">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41880</v>
-      </c>
-      <c r="L13" s="113">
+        <v>41957</v>
+      </c>
+      <c r="L13" s="111">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>42062</v>
+        <v>42138</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="119">
+      <c r="B14" s="117">
         <v>10</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="117" t="str">
+      <c r="D14" s="115" t="str">
         <f t="shared" si="2"/>
         <v>16F</v>
       </c>
-      <c r="E14" s="117" t="str">
+      <c r="E14" s="115" t="str">
         <f>FRAs!I14</f>
-        <v>HKD_YC6MRH_10x16F#0000</v>
-      </c>
-      <c r="F14" s="116" t="e">
+        <v>HKD_YC6MRH_10x16F#0002</v>
+      </c>
+      <c r="F14" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G14" s="116"/>
-      <c r="H14" s="115" t="b">
+      <c r="G14" s="114"/>
+      <c r="H14" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="115">
+      <c r="I14" s="113">
         <v>20</v>
       </c>
-      <c r="J14" s="115">
+      <c r="J14" s="113">
         <v>1</v>
       </c>
-      <c r="K14" s="114">
+      <c r="K14" s="112">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41912</v>
-      </c>
-      <c r="L14" s="113">
+        <v>41988</v>
+      </c>
+      <c r="L14" s="111">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>42094</v>
+        <v>42170</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="119">
+      <c r="B15" s="117">
         <v>11</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="117" t="str">
+      <c r="D15" s="115" t="str">
         <f t="shared" si="2"/>
         <v>17F</v>
       </c>
-      <c r="E15" s="117" t="str">
+      <c r="E15" s="115" t="str">
         <f>FRAs!I15</f>
-        <v>HKD_YC6MRH_11x17F#0000</v>
-      </c>
-      <c r="F15" s="116" t="e">
+        <v>HKD_YC6MRH_11x17F#0002</v>
+      </c>
+      <c r="F15" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G15" s="116"/>
-      <c r="H15" s="115" t="b">
+      <c r="G15" s="114"/>
+      <c r="H15" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="115">
+      <c r="I15" s="113">
         <v>20</v>
       </c>
-      <c r="J15" s="115">
+      <c r="J15" s="113">
         <v>1</v>
       </c>
-      <c r="K15" s="114">
+      <c r="K15" s="112">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41943</v>
-      </c>
-      <c r="L15" s="113">
+        <v>42018</v>
+      </c>
+      <c r="L15" s="111">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42124</v>
+        <v>42199</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="119">
+      <c r="B16" s="117">
         <v>12</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="117" t="str">
+      <c r="D16" s="115" t="str">
         <f t="shared" si="2"/>
         <v>18F</v>
       </c>
-      <c r="E16" s="117" t="str">
+      <c r="E16" s="115" t="str">
         <f>FRAs!I16</f>
-        <v>HKD_YC6MRH_12x18F#0000</v>
-      </c>
-      <c r="F16" s="116">
+        <v>HKD_YC6MRH_12x18F#0002</v>
+      </c>
+      <c r="F16" s="114">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="G16" s="116"/>
-      <c r="H16" s="115" t="b">
+        <v>6.1000000000000013E-3</v>
+      </c>
+      <c r="G16" s="114"/>
+      <c r="H16" s="113" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I16" s="115">
+      <c r="I16" s="113">
         <v>20</v>
       </c>
-      <c r="J16" s="115">
+      <c r="J16" s="113">
         <v>1</v>
       </c>
-      <c r="K16" s="114">
+      <c r="K16" s="112">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41971</v>
-      </c>
-      <c r="L16" s="113">
+        <v>42051</v>
+      </c>
+      <c r="L16" s="111">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42153</v>
+        <v>42233</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="119">
+      <c r="B17" s="117">
         <v>13</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="117" t="str">
+      <c r="D17" s="115" t="str">
         <f t="shared" si="2"/>
         <v>19F</v>
       </c>
-      <c r="E17" s="117" t="str">
+      <c r="E17" s="115" t="str">
         <f>FRAs!I17</f>
-        <v>HKD_YC6MRH_13x19F#0000</v>
-      </c>
-      <c r="F17" s="116" t="e">
+        <v>HKD_YC6MRH_13x19F#0002</v>
+      </c>
+      <c r="F17" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G17" s="116"/>
-      <c r="H17" s="115" t="b">
+      <c r="G17" s="114"/>
+      <c r="H17" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="115">
+      <c r="I17" s="113">
         <v>20</v>
       </c>
-      <c r="J17" s="115">
+      <c r="J17" s="113">
         <v>1</v>
       </c>
-      <c r="K17" s="114">
+      <c r="K17" s="112">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>42004</v>
-      </c>
-      <c r="L17" s="113">
+        <v>42079</v>
+      </c>
+      <c r="L17" s="111">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42185</v>
+        <v>42263</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="119">
+      <c r="B18" s="117">
         <v>14</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="117" t="str">
+      <c r="D18" s="115" t="str">
         <f t="shared" si="2"/>
         <v>20F</v>
       </c>
-      <c r="E18" s="117" t="str">
+      <c r="E18" s="115" t="str">
         <f>FRAs!I18</f>
-        <v>HKD_YC6MRH_14x20F#0000</v>
-      </c>
-      <c r="F18" s="116" t="e">
+        <v>HKD_YC6MRH_14x20F#0002</v>
+      </c>
+      <c r="F18" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G18" s="116"/>
-      <c r="H18" s="115" t="b">
+      <c r="G18" s="114"/>
+      <c r="H18" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="115">
+      <c r="I18" s="113">
         <v>20</v>
       </c>
-      <c r="J18" s="115">
+      <c r="J18" s="113">
         <v>1</v>
       </c>
-      <c r="K18" s="114">
+      <c r="K18" s="112">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>42034</v>
-      </c>
-      <c r="L18" s="113">
+        <v>42108</v>
+      </c>
+      <c r="L18" s="111">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42216</v>
+        <v>42291</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="119">
+      <c r="B19" s="117">
         <v>15</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="117" t="str">
+      <c r="D19" s="115" t="str">
         <f t="shared" si="2"/>
         <v>21F</v>
       </c>
-      <c r="E19" s="117" t="str">
+      <c r="E19" s="115" t="str">
         <f>FRAs!I19</f>
-        <v>HKD_YC6MRH_15x21F#0000</v>
-      </c>
-      <c r="F19" s="116" t="e">
+        <v>HKD_YC6MRH_15x21F#0002</v>
+      </c>
+      <c r="F19" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="115" t="b">
+      <c r="G19" s="114"/>
+      <c r="H19" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="115">
+      <c r="I19" s="113">
         <v>20</v>
       </c>
-      <c r="J19" s="115">
+      <c r="J19" s="113">
         <v>1</v>
       </c>
-      <c r="K19" s="114">
+      <c r="K19" s="112">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>42062</v>
-      </c>
-      <c r="L19" s="113">
+        <v>42138</v>
+      </c>
+      <c r="L19" s="111">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42247</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="119">
+      <c r="B20" s="117">
         <v>16</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="117" t="str">
+      <c r="D20" s="115" t="str">
         <f t="shared" si="2"/>
         <v>22F</v>
       </c>
-      <c r="E20" s="117" t="str">
+      <c r="E20" s="115" t="str">
         <f>FRAs!I20</f>
-        <v>HKD_YC6MRH_16x22F#0000</v>
-      </c>
-      <c r="F20" s="116" t="e">
+        <v>HKD_YC6MRH_16x22F#0002</v>
+      </c>
+      <c r="F20" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G20" s="116"/>
-      <c r="H20" s="115" t="b">
+      <c r="G20" s="114"/>
+      <c r="H20" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="115">
+      <c r="I20" s="113">
         <v>20</v>
       </c>
-      <c r="J20" s="115">
+      <c r="J20" s="113">
         <v>1</v>
       </c>
-      <c r="K20" s="114">
+      <c r="K20" s="112">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>42094</v>
-      </c>
-      <c r="L20" s="113">
+        <v>42170</v>
+      </c>
+      <c r="L20" s="111">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42277</v>
+        <v>42353</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="119">
+      <c r="B21" s="117">
         <v>17</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="117" t="str">
+      <c r="D21" s="115" t="str">
         <f t="shared" si="2"/>
         <v>23F</v>
       </c>
-      <c r="E21" s="117" t="str">
+      <c r="E21" s="115" t="str">
         <f>FRAs!I21</f>
-        <v>HKD_YC6MRH_17x23F#0000</v>
-      </c>
-      <c r="F21" s="116" t="e">
+        <v>HKD_YC6MRH_17x23F#0002</v>
+      </c>
+      <c r="F21" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="115" t="b">
+      <c r="G21" s="114"/>
+      <c r="H21" s="113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="115">
+      <c r="I21" s="113">
         <v>20</v>
       </c>
-      <c r="J21" s="115">
+      <c r="J21" s="113">
         <v>1</v>
       </c>
-      <c r="K21" s="114">
+      <c r="K21" s="112">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>42124</v>
-      </c>
-      <c r="L21" s="113">
+        <v>42199</v>
+      </c>
+      <c r="L21" s="111">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42307</v>
+        <v>42383</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="112">
+      <c r="B22" s="110">
         <v>18</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="110" t="str">
+      <c r="D22" s="108" t="str">
         <f t="shared" si="2"/>
         <v>24F</v>
       </c>
-      <c r="E22" s="110" t="str">
+      <c r="E22" s="108" t="str">
         <f>FRAs!I22</f>
-        <v>HKD_YC6MRH_18x24F#0000</v>
-      </c>
-      <c r="F22" s="109">
+        <v>HKD_YC6MRH_18x24F#0002</v>
+      </c>
+      <c r="F22" s="107">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>7.8000000000000005E-3</v>
-      </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="108" t="b">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="G22" s="107"/>
+      <c r="H22" s="106" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I22" s="108">
+      <c r="I22" s="106">
         <v>20</v>
       </c>
-      <c r="J22" s="108">
+      <c r="J22" s="106">
         <v>1</v>
       </c>
-      <c r="K22" s="107">
+      <c r="K22" s="105">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>42153</v>
-      </c>
-      <c r="L22" s="106">
+        <v>42230</v>
+      </c>
+      <c r="L22" s="104">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42338</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="119" t="str">
+      <c r="B23" s="117" t="str">
         <f t="shared" ref="B23:B49" si="3">SwapFixedFreq</f>
         <v>QM</v>
       </c>
-      <c r="C23" s="118" t="str">
+      <c r="C23" s="116" t="str">
         <f t="shared" ref="C23:C59" si="4">IborType&amp;"BASIS"</f>
         <v>3HBASIS</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="117" t="str">
+      <c r="E23" s="115" t="str">
         <f t="shared" ref="E23:E51" si="5">RateHelperPrefix&amp;"_"&amp;$B23&amp;$C23&amp;$D23</f>
         <v>HKD_YC6MRH_QM3HBASIS1Y</v>
       </c>
-      <c r="F23" s="116" t="e">
+      <c r="F23" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G23" s="116" t="e">
+      <c r="G23" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E23,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H23" s="115" t="b">
+      <c r="H23" s="113" t="b">
         <f t="shared" ref="H23:H33" si="6">IF(ISERROR(F23),FALSE,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="115">
+      <c r="I23" s="113">
         <v>40</v>
       </c>
-      <c r="J23" s="115">
+      <c r="J23" s="113">
         <v>1</v>
       </c>
-      <c r="K23" s="114" t="e">
+      <c r="K23" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L23" s="113" t="e">
+      <c r="L23" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="119" t="str">
+      <c r="B24" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C24" s="118" t="str">
+      <c r="C24" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="117" t="str">
+      <c r="E24" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS15M</v>
       </c>
-      <c r="F24" s="116" t="e">
+      <c r="F24" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G24" s="116" t="e">
+      <c r="G24" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E24,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H24" s="115" t="b">
+      <c r="H24" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I24" s="115">
+      <c r="I24" s="113">
         <v>40</v>
       </c>
-      <c r="J24" s="115">
+      <c r="J24" s="113">
         <v>1</v>
       </c>
-      <c r="K24" s="114" t="e">
+      <c r="K24" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L24" s="113" t="e">
+      <c r="L24" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="119" t="str">
+      <c r="B25" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C25" s="118" t="str">
+      <c r="C25" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="117" t="str">
+      <c r="E25" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS18M</v>
       </c>
-      <c r="F25" s="116" t="e">
+      <c r="F25" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G25" s="116" t="e">
+      <c r="G25" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E25,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H25" s="115" t="b">
+      <c r="H25" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I25" s="115">
+      <c r="I25" s="113">
         <v>40</v>
       </c>
-      <c r="J25" s="115">
+      <c r="J25" s="113">
         <v>1</v>
       </c>
-      <c r="K25" s="114" t="e">
+      <c r="K25" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L25" s="113" t="e">
+      <c r="L25" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="119" t="str">
+      <c r="B26" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C26" s="118" t="str">
+      <c r="C26" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="117" t="str">
+      <c r="E26" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS21M</v>
       </c>
-      <c r="F26" s="116" t="e">
+      <c r="F26" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G26" s="116" t="e">
+      <c r="G26" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E26,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H26" s="115" t="b">
+      <c r="H26" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I26" s="115">
+      <c r="I26" s="113">
         <v>40</v>
       </c>
-      <c r="J26" s="115">
+      <c r="J26" s="113">
         <v>1</v>
       </c>
-      <c r="K26" s="114" t="e">
+      <c r="K26" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L26" s="113" t="e">
+      <c r="L26" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="119" t="str">
+      <c r="B27" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C27" s="118" t="str">
+      <c r="C27" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="117" t="str">
+      <c r="E27" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS2Y</v>
       </c>
-      <c r="F27" s="116" t="e">
+      <c r="F27" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G27" s="116" t="e">
+      <c r="G27" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E27,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H27" s="115" t="b">
+      <c r="H27" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I27" s="115">
+      <c r="I27" s="113">
         <v>40</v>
       </c>
-      <c r="J27" s="115">
+      <c r="J27" s="113">
         <v>1</v>
       </c>
-      <c r="K27" s="114" t="e">
+      <c r="K27" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L27" s="113" t="e">
+      <c r="L27" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="119" t="str">
+      <c r="B28" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C28" s="118" t="str">
+      <c r="C28" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="117" t="str">
+      <c r="E28" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS3Y</v>
       </c>
-      <c r="F28" s="116" t="e">
+      <c r="F28" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G28" s="116" t="e">
+      <c r="G28" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H28" s="115" t="b">
+      <c r="H28" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I28" s="115">
+      <c r="I28" s="113">
         <v>40</v>
       </c>
-      <c r="J28" s="115">
+      <c r="J28" s="113">
         <v>1</v>
       </c>
-      <c r="K28" s="114" t="e">
+      <c r="K28" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L28" s="113" t="e">
+      <c r="L28" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="119" t="str">
+      <c r="B29" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C29" s="118" t="str">
+      <c r="C29" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D29" s="117" t="s">
+      <c r="D29" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="117" t="str">
+      <c r="E29" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS4Y</v>
       </c>
-      <c r="F29" s="116" t="e">
+      <c r="F29" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G29" s="116" t="e">
+      <c r="G29" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E29,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H29" s="115" t="b">
+      <c r="H29" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I29" s="115">
+      <c r="I29" s="113">
         <v>40</v>
       </c>
-      <c r="J29" s="115">
+      <c r="J29" s="113">
         <v>1</v>
       </c>
-      <c r="K29" s="114" t="e">
+      <c r="K29" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L29" s="113" t="e">
+      <c r="L29" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="119" t="str">
+      <c r="B30" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C30" s="118" t="str">
+      <c r="C30" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="117" t="str">
+      <c r="E30" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS5Y</v>
       </c>
-      <c r="F30" s="116" t="e">
+      <c r="F30" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G30" s="116" t="e">
+      <c r="G30" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H30" s="115" t="b">
+      <c r="H30" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I30" s="115">
+      <c r="I30" s="113">
         <v>40</v>
       </c>
-      <c r="J30" s="115">
+      <c r="J30" s="113">
         <v>1</v>
       </c>
-      <c r="K30" s="114" t="e">
+      <c r="K30" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L30" s="113" t="e">
+      <c r="L30" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="119" t="str">
+      <c r="B31" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C31" s="118" t="str">
+      <c r="C31" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D31" s="117" t="s">
+      <c r="D31" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="117" t="str">
+      <c r="E31" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS6Y</v>
       </c>
-      <c r="F31" s="116" t="e">
+      <c r="F31" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G31" s="116" t="e">
+      <c r="G31" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H31" s="115" t="b">
+      <c r="H31" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I31" s="115">
+      <c r="I31" s="113">
         <v>40</v>
       </c>
-      <c r="J31" s="115">
+      <c r="J31" s="113">
         <v>1</v>
       </c>
-      <c r="K31" s="114" t="e">
+      <c r="K31" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L31" s="113" t="e">
+      <c r="L31" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="119" t="str">
+      <c r="B32" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C32" s="118" t="str">
+      <c r="C32" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D32" s="117" t="s">
+      <c r="D32" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="117" t="str">
+      <c r="E32" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS7Y</v>
       </c>
-      <c r="F32" s="116" t="e">
+      <c r="F32" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G32" s="116" t="e">
+      <c r="G32" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E32,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H32" s="115" t="b">
+      <c r="H32" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I32" s="115">
+      <c r="I32" s="113">
         <v>40</v>
       </c>
-      <c r="J32" s="115">
+      <c r="J32" s="113">
         <v>1</v>
       </c>
-      <c r="K32" s="114" t="e">
+      <c r="K32" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L32" s="113" t="e">
+      <c r="L32" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="119" t="str">
+      <c r="B33" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C33" s="118" t="str">
+      <c r="C33" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D33" s="117" t="s">
+      <c r="D33" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="117" t="str">
+      <c r="E33" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS8Y</v>
       </c>
-      <c r="F33" s="116" t="e">
+      <c r="F33" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G33" s="116" t="e">
+      <c r="G33" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H33" s="115" t="b">
+      <c r="H33" s="113" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I33" s="115">
+      <c r="I33" s="113">
         <v>40</v>
       </c>
-      <c r="J33" s="115">
+      <c r="J33" s="113">
         <v>1</v>
       </c>
-      <c r="K33" s="114" t="e">
+      <c r="K33" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L33" s="113" t="e">
+      <c r="L33" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="119" t="str">
+      <c r="B34" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C34" s="118" t="str">
+      <c r="C34" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="117" t="str">
+      <c r="E34" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS9Y</v>
       </c>
-      <c r="F34" s="116" t="e">
+      <c r="F34" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G34" s="116" t="e">
+      <c r="G34" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H34" s="115" t="b">
+      <c r="H34" s="113" t="b">
         <f t="shared" ref="H34:H59" si="7">IF(ISERROR(F34),FALSE,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="115">
+      <c r="I34" s="113">
         <v>40</v>
       </c>
-      <c r="J34" s="115">
+      <c r="J34" s="113">
         <v>1</v>
       </c>
-      <c r="K34" s="114" t="e">
+      <c r="K34" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L34" s="113" t="e">
+      <c r="L34" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="119" t="str">
+      <c r="B35" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C35" s="118" t="str">
+      <c r="C35" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D35" s="117" t="s">
+      <c r="D35" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="117" t="str">
+      <c r="E35" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS10Y</v>
       </c>
-      <c r="F35" s="116" t="e">
+      <c r="F35" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G35" s="116" t="e">
+      <c r="G35" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H35" s="115" t="b">
+      <c r="H35" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I35" s="115">
+      <c r="I35" s="113">
         <v>40</v>
       </c>
-      <c r="J35" s="115">
+      <c r="J35" s="113">
         <v>1</v>
       </c>
-      <c r="K35" s="114" t="e">
+      <c r="K35" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L35" s="113" t="e">
+      <c r="L35" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="119" t="str">
+      <c r="B36" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C36" s="118" t="str">
+      <c r="C36" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="117" t="str">
+      <c r="E36" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS11Y</v>
       </c>
-      <c r="F36" s="116" t="e">
+      <c r="F36" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G36" s="116" t="e">
+      <c r="G36" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H36" s="115" t="b">
+      <c r="H36" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I36" s="115">
+      <c r="I36" s="113">
         <v>40</v>
       </c>
-      <c r="J36" s="115">
+      <c r="J36" s="113">
         <v>1</v>
       </c>
-      <c r="K36" s="114" t="e">
+      <c r="K36" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L36" s="113" t="e">
+      <c r="L36" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="119" t="str">
+      <c r="B37" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C37" s="118" t="str">
+      <c r="C37" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D37" s="117" t="s">
+      <c r="D37" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="117" t="str">
+      <c r="E37" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS12Y</v>
       </c>
-      <c r="F37" s="116" t="e">
+      <c r="F37" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G37" s="116" t="e">
+      <c r="G37" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E37,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H37" s="115" t="b">
+      <c r="H37" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I37" s="115">
+      <c r="I37" s="113">
         <v>40</v>
       </c>
-      <c r="J37" s="115">
+      <c r="J37" s="113">
         <v>1</v>
       </c>
-      <c r="K37" s="114" t="e">
+      <c r="K37" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L37" s="113" t="e">
+      <c r="L37" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="119" t="str">
+      <c r="B38" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C38" s="118" t="str">
+      <c r="C38" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D38" s="117" t="s">
+      <c r="D38" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="117" t="str">
+      <c r="E38" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS13Y</v>
       </c>
-      <c r="F38" s="116" t="e">
+      <c r="F38" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G38" s="116" t="e">
+      <c r="G38" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H38" s="115" t="b">
+      <c r="H38" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I38" s="115">
+      <c r="I38" s="113">
         <v>40</v>
       </c>
-      <c r="J38" s="115">
+      <c r="J38" s="113">
         <v>1</v>
       </c>
-      <c r="K38" s="114" t="e">
+      <c r="K38" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L38" s="113" t="e">
+      <c r="L38" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="119" t="str">
+      <c r="B39" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C39" s="118" t="str">
+      <c r="C39" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D39" s="117" t="s">
+      <c r="D39" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="117" t="str">
+      <c r="E39" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS14Y</v>
       </c>
-      <c r="F39" s="116" t="e">
+      <c r="F39" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G39" s="116" t="e">
+      <c r="G39" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H39" s="115" t="b">
+      <c r="H39" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I39" s="115">
+      <c r="I39" s="113">
         <v>40</v>
       </c>
-      <c r="J39" s="115">
+      <c r="J39" s="113">
         <v>1</v>
       </c>
-      <c r="K39" s="114" t="e">
+      <c r="K39" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L39" s="113" t="e">
+      <c r="L39" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="119" t="str">
+      <c r="B40" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C40" s="118" t="str">
+      <c r="C40" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D40" s="117" t="s">
+      <c r="D40" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="117" t="str">
+      <c r="E40" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS15Y</v>
       </c>
-      <c r="F40" s="116" t="e">
+      <c r="F40" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G40" s="116" t="e">
+      <c r="G40" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H40" s="115" t="b">
+      <c r="H40" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I40" s="115">
+      <c r="I40" s="113">
         <v>40</v>
       </c>
-      <c r="J40" s="115">
+      <c r="J40" s="113">
         <v>1</v>
       </c>
-      <c r="K40" s="114" t="e">
+      <c r="K40" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L40" s="113" t="e">
+      <c r="L40" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="119" t="str">
+      <c r="B41" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C41" s="118" t="str">
+      <c r="C41" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D41" s="117" t="s">
+      <c r="D41" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="117" t="str">
+      <c r="E41" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS16Y</v>
       </c>
-      <c r="F41" s="116" t="e">
+      <c r="F41" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G41" s="116" t="e">
+      <c r="G41" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H41" s="115" t="b">
+      <c r="H41" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I41" s="115">
+      <c r="I41" s="113">
         <v>40</v>
       </c>
-      <c r="J41" s="115">
+      <c r="J41" s="113">
         <v>1</v>
       </c>
-      <c r="K41" s="114" t="e">
+      <c r="K41" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L41" s="113" t="e">
+      <c r="L41" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="119" t="str">
+      <c r="B42" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C42" s="118" t="str">
+      <c r="C42" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D42" s="117" t="s">
+      <c r="D42" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="117" t="str">
+      <c r="E42" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS17Y</v>
       </c>
-      <c r="F42" s="116" t="e">
+      <c r="F42" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G42" s="116" t="e">
+      <c r="G42" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H42" s="115" t="b">
+      <c r="H42" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I42" s="115">
+      <c r="I42" s="113">
         <v>40</v>
       </c>
-      <c r="J42" s="115">
+      <c r="J42" s="113">
         <v>1</v>
       </c>
-      <c r="K42" s="114" t="e">
+      <c r="K42" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L42" s="113" t="e">
+      <c r="L42" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="119" t="str">
+      <c r="B43" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C43" s="118" t="str">
+      <c r="C43" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D43" s="117" t="s">
+      <c r="D43" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="117" t="str">
+      <c r="E43" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS18Y</v>
       </c>
-      <c r="F43" s="116" t="e">
+      <c r="F43" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G43" s="116" t="e">
+      <c r="G43" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H43" s="115" t="b">
+      <c r="H43" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I43" s="115">
+      <c r="I43" s="113">
         <v>40</v>
       </c>
-      <c r="J43" s="115">
+      <c r="J43" s="113">
         <v>1</v>
       </c>
-      <c r="K43" s="114" t="e">
+      <c r="K43" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L43" s="113" t="e">
+      <c r="L43" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="119" t="str">
+      <c r="B44" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C44" s="118" t="str">
+      <c r="C44" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D44" s="117" t="s">
+      <c r="D44" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="117" t="str">
+      <c r="E44" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS19Y</v>
       </c>
-      <c r="F44" s="116" t="e">
+      <c r="F44" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G44" s="116" t="e">
+      <c r="G44" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H44" s="115" t="b">
+      <c r="H44" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I44" s="115">
+      <c r="I44" s="113">
         <v>40</v>
       </c>
-      <c r="J44" s="115">
+      <c r="J44" s="113">
         <v>1</v>
       </c>
-      <c r="K44" s="114" t="e">
+      <c r="K44" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L44" s="113" t="e">
+      <c r="L44" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="119" t="str">
+      <c r="B45" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C45" s="118" t="str">
+      <c r="C45" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="117" t="str">
+      <c r="E45" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS20Y</v>
       </c>
-      <c r="F45" s="116" t="e">
+      <c r="F45" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G45" s="116" t="e">
+      <c r="G45" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H45" s="115" t="b">
+      <c r="H45" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I45" s="115">
+      <c r="I45" s="113">
         <v>40</v>
       </c>
-      <c r="J45" s="115">
+      <c r="J45" s="113">
         <v>1</v>
       </c>
-      <c r="K45" s="114" t="e">
+      <c r="K45" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L45" s="113" t="e">
+      <c r="L45" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="119" t="str">
+      <c r="B46" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C46" s="118" t="str">
+      <c r="C46" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D46" s="117" t="s">
+      <c r="D46" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="117" t="str">
+      <c r="E46" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS21Y</v>
       </c>
-      <c r="F46" s="116" t="e">
+      <c r="F46" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G46" s="116" t="e">
+      <c r="G46" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H46" s="115" t="b">
+      <c r="H46" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I46" s="115">
+      <c r="I46" s="113">
         <v>40</v>
       </c>
-      <c r="J46" s="115">
+      <c r="J46" s="113">
         <v>1</v>
       </c>
-      <c r="K46" s="114" t="e">
+      <c r="K46" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L46" s="113" t="e">
+      <c r="L46" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="119" t="str">
+      <c r="B47" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C47" s="118" t="str">
+      <c r="C47" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D47" s="117" t="s">
+      <c r="D47" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="117" t="str">
+      <c r="E47" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS22Y</v>
       </c>
-      <c r="F47" s="116" t="e">
+      <c r="F47" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G47" s="116" t="e">
+      <c r="G47" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H47" s="115" t="b">
+      <c r="H47" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I47" s="115">
+      <c r="I47" s="113">
         <v>40</v>
       </c>
-      <c r="J47" s="115">
+      <c r="J47" s="113">
         <v>1</v>
       </c>
-      <c r="K47" s="114" t="e">
+      <c r="K47" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L47" s="113" t="e">
+      <c r="L47" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="119" t="str">
+      <c r="B48" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C48" s="118" t="str">
+      <c r="C48" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D48" s="117" t="s">
+      <c r="D48" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="117" t="str">
+      <c r="E48" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS23Y</v>
       </c>
-      <c r="F48" s="116" t="e">
+      <c r="F48" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G48" s="116" t="e">
+      <c r="G48" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H48" s="115" t="b">
+      <c r="H48" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I48" s="115">
+      <c r="I48" s="113">
         <v>40</v>
       </c>
-      <c r="J48" s="115">
+      <c r="J48" s="113">
         <v>1</v>
       </c>
-      <c r="K48" s="114" t="e">
+      <c r="K48" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L48" s="113" t="e">
+      <c r="L48" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="119" t="str">
+      <c r="B49" s="117" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C49" s="118" t="str">
+      <c r="C49" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D49" s="117" t="s">
+      <c r="D49" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="117" t="str">
+      <c r="E49" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS24Y</v>
       </c>
-      <c r="F49" s="116" t="e">
+      <c r="F49" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G49" s="116" t="e">
+      <c r="G49" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H49" s="115" t="b">
+      <c r="H49" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I49" s="115">
+      <c r="I49" s="113">
         <v>40</v>
       </c>
-      <c r="J49" s="115">
+      <c r="J49" s="113">
         <v>1</v>
       </c>
-      <c r="K49" s="114" t="e">
+      <c r="K49" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L49" s="113" t="e">
+      <c r="L49" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="119" t="str">
+      <c r="B50" s="117" t="str">
         <f t="shared" ref="B50:B59" si="8">SwapFixedFreq</f>
         <v>QM</v>
       </c>
-      <c r="C50" s="118" t="str">
+      <c r="C50" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D50" s="117" t="s">
+      <c r="D50" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="117" t="str">
+      <c r="E50" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS25Y</v>
       </c>
-      <c r="F50" s="116" t="e">
+      <c r="F50" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G50" s="116" t="e">
+      <c r="G50" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H50" s="115" t="b">
+      <c r="H50" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I50" s="115">
+      <c r="I50" s="113">
         <v>40</v>
       </c>
-      <c r="J50" s="115">
+      <c r="J50" s="113">
         <v>1</v>
       </c>
-      <c r="K50" s="114" t="e">
+      <c r="K50" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L50" s="113" t="e">
+      <c r="L50" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="119" t="str">
+      <c r="B51" s="117" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C51" s="118" t="str">
+      <c r="C51" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D51" s="117" t="s">
+      <c r="D51" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="117" t="str">
+      <c r="E51" s="115" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS26Y</v>
       </c>
-      <c r="F51" s="116" t="e">
+      <c r="F51" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G51" s="116" t="e">
+      <c r="G51" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H51" s="115" t="b">
+      <c r="H51" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I51" s="115">
+      <c r="I51" s="113">
         <v>40</v>
       </c>
-      <c r="J51" s="115">
+      <c r="J51" s="113">
         <v>1</v>
       </c>
-      <c r="K51" s="114" t="e">
+      <c r="K51" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L51" s="113" t="e">
+      <c r="L51" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="119" t="str">
+      <c r="B52" s="117" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C52" s="118" t="str">
+      <c r="C52" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D52" s="117" t="s">
+      <c r="D52" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="117" t="str">
+      <c r="E52" s="115" t="str">
         <f t="shared" ref="E52:E59" si="9">RateHelperPrefix&amp;"_"&amp;$B52&amp;$C52&amp;$D52</f>
         <v>HKD_YC6MRH_QM3HBASIS27Y</v>
       </c>
-      <c r="F52" s="116" t="e">
+      <c r="F52" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G52" s="116" t="e">
+      <c r="G52" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H52" s="115" t="b">
+      <c r="H52" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I52" s="115">
+      <c r="I52" s="113">
         <v>40</v>
       </c>
-      <c r="J52" s="115">
+      <c r="J52" s="113">
         <v>1</v>
       </c>
-      <c r="K52" s="114" t="e">
+      <c r="K52" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L52" s="113" t="e">
+      <c r="L52" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="119" t="str">
+      <c r="B53" s="117" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C53" s="118" t="str">
+      <c r="C53" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D53" s="117" t="s">
+      <c r="D53" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="117" t="str">
+      <c r="E53" s="115" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS28Y</v>
       </c>
-      <c r="F53" s="116" t="e">
+      <c r="F53" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G53" s="116" t="e">
+      <c r="G53" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H53" s="115" t="b">
+      <c r="H53" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I53" s="115">
+      <c r="I53" s="113">
         <v>40</v>
       </c>
-      <c r="J53" s="115">
+      <c r="J53" s="113">
         <v>1</v>
       </c>
-      <c r="K53" s="114" t="e">
+      <c r="K53" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L53" s="113" t="e">
+      <c r="L53" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="119" t="str">
+      <c r="B54" s="117" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C54" s="118" t="str">
+      <c r="C54" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="117" t="str">
+      <c r="E54" s="115" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS29Y</v>
       </c>
-      <c r="F54" s="116" t="e">
+      <c r="F54" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G54" s="116" t="e">
+      <c r="G54" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H54" s="115" t="b">
+      <c r="H54" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="115">
+      <c r="I54" s="113">
         <v>40</v>
       </c>
-      <c r="J54" s="115">
+      <c r="J54" s="113">
         <v>1</v>
       </c>
-      <c r="K54" s="114" t="e">
+      <c r="K54" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L54" s="113" t="e">
+      <c r="L54" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="119" t="str">
+      <c r="B55" s="117" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C55" s="118" t="str">
+      <c r="C55" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="117" t="str">
+      <c r="E55" s="115" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS30Y</v>
       </c>
-      <c r="F55" s="116" t="e">
+      <c r="F55" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G55" s="116" t="e">
+      <c r="G55" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H55" s="115" t="b">
+      <c r="H55" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I55" s="115">
+      <c r="I55" s="113">
         <v>40</v>
       </c>
-      <c r="J55" s="115">
+      <c r="J55" s="113">
         <v>1</v>
       </c>
-      <c r="K55" s="114" t="e">
+      <c r="K55" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L55" s="113" t="e">
+      <c r="L55" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="119" t="str">
+      <c r="B56" s="117" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C56" s="118" t="str">
+      <c r="C56" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D56" s="117" t="s">
+      <c r="D56" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="117" t="str">
+      <c r="E56" s="115" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS35Y</v>
       </c>
-      <c r="F56" s="116" t="e">
+      <c r="F56" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G56" s="116" t="e">
+      <c r="G56" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H56" s="115" t="b">
+      <c r="H56" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I56" s="115">
+      <c r="I56" s="113">
         <v>40</v>
       </c>
-      <c r="J56" s="115">
+      <c r="J56" s="113">
         <v>1</v>
       </c>
-      <c r="K56" s="114" t="e">
+      <c r="K56" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L56" s="113" t="e">
+      <c r="L56" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="119" t="str">
+      <c r="B57" s="117" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C57" s="118" t="str">
+      <c r="C57" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D57" s="117" t="s">
+      <c r="D57" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="117" t="str">
+      <c r="E57" s="115" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS40Y</v>
       </c>
-      <c r="F57" s="116" t="e">
+      <c r="F57" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G57" s="116" t="e">
+      <c r="G57" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H57" s="115" t="b">
+      <c r="H57" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I57" s="115">
+      <c r="I57" s="113">
         <v>40</v>
       </c>
-      <c r="J57" s="115">
+      <c r="J57" s="113">
         <v>1</v>
       </c>
-      <c r="K57" s="114" t="e">
+      <c r="K57" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L57" s="113" t="e">
+      <c r="L57" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="119" t="str">
+      <c r="B58" s="117" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C58" s="118" t="str">
+      <c r="C58" s="116" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D58" s="117" t="s">
+      <c r="D58" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="117" t="str">
+      <c r="E58" s="115" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS50Y</v>
       </c>
-      <c r="F58" s="116" t="e">
+      <c r="F58" s="114" t="e">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G58" s="116" t="e">
+      <c r="G58" s="114" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H58" s="115" t="b">
+      <c r="H58" s="113" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I58" s="115">
+      <c r="I58" s="113">
         <v>40</v>
       </c>
-      <c r="J58" s="115">
+      <c r="J58" s="113">
         <v>1</v>
       </c>
-      <c r="K58" s="114" t="e">
+      <c r="K58" s="112" t="e">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L58" s="113" t="e">
+      <c r="L58" s="111" t="e">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="112" t="str">
+      <c r="B59" s="110" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C59" s="111" t="str">
+      <c r="C59" s="109" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D59" s="110" t="s">
+      <c r="D59" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="110" t="str">
+      <c r="E59" s="108" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS60Y</v>
       </c>
-      <c r="F59" s="109" t="e">
+      <c r="F59" s="107" t="e">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G59" s="109" t="e">
+      <c r="G59" s="107" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H59" s="108" t="b">
+      <c r="H59" s="106" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I59" s="108">
+      <c r="I59" s="106">
         <v>40</v>
       </c>
-      <c r="J59" s="108">
+      <c r="J59" s="106">
         <v>1</v>
       </c>
-      <c r="K59" s="107" t="e">
+      <c r="K59" s="105" t="e">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L59" s="106" t="e">
+      <c r="L59" s="104" t="e">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
@@ -5769,7 +5742,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -5787,10 +5760,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="149"/>
+      <c r="B1" s="144"/>
       <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
@@ -5830,14 +5803,14 @@
       </c>
       <c r="G2" s="11">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41607</v>
+        <v>41684</v>
       </c>
       <c r="H2" s="12">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41789</v>
+        <v>41865</v>
       </c>
       <c r="I2" s="6">
-        <v>0.9972721263068568</v>
+        <v>0.99728707396165672</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5860,14 +5833,14 @@
       </c>
       <c r="G3" s="11">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41639</v>
+        <v>41712</v>
       </c>
       <c r="H3" s="12">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41820</v>
+        <v>41897</v>
       </c>
       <c r="I3" s="6">
-        <v>0.99709702461977379</v>
+        <v>0.99710347088010043</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5890,14 +5863,14 @@
       </c>
       <c r="G4" s="11">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41670</v>
+        <v>41743</v>
       </c>
       <c r="H4" s="12">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41851</v>
+        <v>41926</v>
       </c>
       <c r="I4" s="6">
-        <v>0.99663321048504716</v>
+        <v>0.99666634378377073</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5920,14 +5893,14 @@
       </c>
       <c r="G5" s="11">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41698</v>
+        <v>41773</v>
       </c>
       <c r="H5" s="12">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41880</v>
+        <v>41957</v>
       </c>
       <c r="I5" s="6">
-        <v>0.99615157573737345</v>
+        <v>0.99615424425997234</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5951,20 +5924,20 @@
       </c>
       <c r="G6" s="11">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41729</v>
+        <v>41806</v>
       </c>
       <c r="H6" s="12">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41912</v>
+        <v>41989</v>
       </c>
       <c r="I6" s="6">
-        <v>0.99562480313027002</v>
+        <v>0.99562478946159827</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_RateHelpersSelected#0000</v>
+        <v>HKD_YC6MRH_RateHelpersSelected#0003</v>
       </c>
       <c r="B7" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -5983,14 +5956,14 @@
       </c>
       <c r="G7" s="11">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41759</v>
+        <v>41834</v>
       </c>
       <c r="H7" s="12">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41943</v>
+        <v>42018</v>
       </c>
       <c r="I7" s="6">
-        <v>0.9951127046180217</v>
+        <v>0.99514255915862948</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6007,14 +5980,14 @@
       </c>
       <c r="G8" s="11">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41789</v>
+        <v>41865</v>
       </c>
       <c r="H8" s="12">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41971</v>
+        <v>42051</v>
       </c>
       <c r="I8" s="6">
-        <v>0.99459407956331003</v>
+        <v>0.99455028954844549</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6023,7 +5996,7 @@
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.1999999999999998E-3</v>
+        <v>6.1000000000000013E-3</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6031,14 +6004,14 @@
       </c>
       <c r="G9" s="11">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41971</v>
+        <v>42051</v>
       </c>
       <c r="H9" s="12">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42153</v>
+        <v>42233</v>
       </c>
       <c r="I9" s="6">
-        <v>0.99152876160551362</v>
+        <v>0.99153439506788554</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6047,7 +6020,7 @@
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>7.8000000000000005E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6055,14 +6028,14 @@
       </c>
       <c r="G10" s="11">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42153</v>
+        <v>42230</v>
       </c>
       <c r="H10" s="12">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42338</v>
+        <v>42415</v>
       </c>
       <c r="I10" s="6">
-        <v>0.98762426348985388</v>
+        <v>0.98772918348282057</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC6MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="22890" yWindow="-15" windowWidth="7635" windowHeight="11085"/>
+    <workbookView xWindow="210" yWindow="270" windowWidth="15165" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -1177,7 +1177,7 @@
     <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1388,12 +1388,6 @@
     <xf numFmtId="170" fontId="17" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1498,23 +1492,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="6" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="6" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1524,6 +1524,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1838,39 +1853,41 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="146" customWidth="1"/>
-    <col min="3" max="3" width="18" style="146" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="146" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="146" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="2.7109375" style="146" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="146" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.42578125" style="146" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="146" customWidth="1"/>
-    <col min="12" max="16384" width="8" style="146"/>
+    <col min="1" max="2" width="2.7109375" style="139" customWidth="1"/>
+    <col min="3" max="3" width="18" style="139" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="139" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="139" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="2.7109375" style="139" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="139" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" style="139" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="139" customWidth="1"/>
+    <col min="12" max="16384" width="8" style="139"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145"/>
-      <c r="B1" s="145" t="str">
+      <c r="A1" s="138"/>
+      <c r="B1" s="138" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
-      </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
+      <c r="A2" s="138"/>
       <c r="B2" s="147" t="s">
         <v>7</v>
       </c>
@@ -1878,7 +1895,7 @@
       <c r="D2" s="148"/>
       <c r="E2" s="148"/>
       <c r="F2" s="149"/>
-      <c r="G2" s="145"/>
+      <c r="G2" s="138"/>
       <c r="H2" s="147" t="s">
         <v>53</v>
       </c>
@@ -1887,43 +1904,43 @@
       <c r="K2" s="150"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="145"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="62"/>
       <c r="C3" s="63"/>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
       <c r="F3" s="65"/>
-      <c r="G3" s="145"/>
+      <c r="G3" s="138"/>
       <c r="H3" s="66"/>
       <c r="I3" s="67"/>
       <c r="J3" s="67"/>
       <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="145"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="62"/>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="99">
         <v>6</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="65"/>
-      <c r="G4" s="145"/>
+      <c r="G4" s="138"/>
       <c r="H4" s="66"/>
-      <c r="I4" s="134" t="s">
+      <c r="I4" s="132" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="70">
-        <v>41684.564930555556</v>
+        <v>41736.631990740738</v>
       </c>
       <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="145"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="62"/>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="125" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="72" t="str">
@@ -1932,9 +1949,9 @@
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="65"/>
-      <c r="G5" s="145"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="66"/>
-      <c r="I5" s="134" t="s">
+      <c r="I5" s="132" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="70" t="b">
@@ -1943,9 +1960,9 @@
       <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="145"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="62"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="125" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="72" t="s">
@@ -1953,9 +1970,9 @@
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="65"/>
-      <c r="G6" s="145"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="66"/>
-      <c r="I6" s="134" t="s">
+      <c r="I6" s="132" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="70" t="b">
@@ -1964,9 +1981,9 @@
       <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="145"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="62"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="125" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="72" t="s">
@@ -1974,9 +1991,9 @@
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="65"/>
-      <c r="G7" s="145"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="66"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="132" t="s">
         <v>52</v>
       </c>
       <c r="J7" s="70" t="b">
@@ -1985,9 +2002,9 @@
       <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="145"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="62"/>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="126" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="76" t="str">
@@ -1996,27 +2013,27 @@
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="65"/>
-      <c r="G8" s="145"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="66"/>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="132" t="s">
         <v>51</v>
       </c>
       <c r="J8" s="70" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="145"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="62"/>
-      <c r="C9" s="129"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="77"/>
       <c r="E9" s="64"/>
       <c r="F9" s="65"/>
-      <c r="G9" s="145"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="66"/>
-      <c r="I9" s="134" t="s">
+      <c r="I9" s="132" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="70" t="b">
@@ -2025,45 +2042,45 @@
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="62"/>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="70" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D17),NA(),D15:E15),IF(ISERROR(D17),NA(),D16:E16),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>HKDYC6M#0003</v>
+      <c r="D10" s="146" t="str">
+        <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
+        <v>HKDYC6M#0000</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="65"/>
-      <c r="G10" s="145"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="73"/>
       <c r="I10" s="74"/>
       <c r="J10" s="74"/>
       <c r="K10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="62"/>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="70" t="str">
+      <c r="D11" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="65"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="145"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="62"/>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="128" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="81" t="str">
@@ -2072,7 +2089,7 @@
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="65"/>
-      <c r="G12" s="145"/>
+      <c r="G12" s="138"/>
       <c r="H12" s="147" t="s">
         <v>49</v>
       </c>
@@ -2081,9 +2098,9 @@
       <c r="K12" s="150"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="145"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="62"/>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="82">
@@ -2091,24 +2108,24 @@
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="65"/>
-      <c r="G13" s="145"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="78"/>
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
       <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="145"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="62"/>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="130" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="86"/>
       <c r="E14" s="64"/>
       <c r="F14" s="65"/>
-      <c r="G14" s="145"/>
+      <c r="G14" s="138"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="134" t="s">
+      <c r="I14" s="132" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="70" t="s">
@@ -2117,9 +2134,9 @@
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="145"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="62"/>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="130" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="87" t="str">
@@ -2131,9 +2148,9 @@
         <v>HKDTOY2_SYNTH6M_Quote</v>
       </c>
       <c r="F15" s="65"/>
-      <c r="G15" s="145"/>
+      <c r="G15" s="138"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="134" t="s">
+      <c r="I15" s="132" t="s">
         <v>48</v>
       </c>
       <c r="J15" s="70" t="s">
@@ -2142,9 +2159,9 @@
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="145"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="62"/>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="130" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="88">
@@ -2156,9 +2173,9 @@
         <v>42369</v>
       </c>
       <c r="F16" s="65"/>
-      <c r="G16" s="145"/>
+      <c r="G16" s="138"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="134" t="s">
+      <c r="I16" s="132" t="s">
         <v>46</v>
       </c>
       <c r="J16" s="70" t="s">
@@ -2167,9 +2184,9 @@
       <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="145"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="62"/>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="130" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="90" t="e">
@@ -2181,35 +2198,35 @@
         <v>#N/A</v>
       </c>
       <c r="F17" s="65"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134" t="s">
+      <c r="G17" s="138"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="135" t="s">
+      <c r="J17" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="136"/>
+      <c r="K17" s="134"/>
     </row>
     <row r="18" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="62"/>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="130" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="92"/>
       <c r="E18" s="64"/>
       <c r="F18" s="65"/>
-      <c r="G18" s="145"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="83"/>
       <c r="I18" s="84"/>
       <c r="J18" s="84"/>
       <c r="K18" s="85"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="145"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="62"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="72" t="s">
@@ -2217,16 +2234,16 @@
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="65"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="145"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="62"/>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="129" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="76" t="s">
@@ -2234,31 +2251,31 @@
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="65"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="145"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="62"/>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
       <c r="E21" s="64"/>
       <c r="F21" s="65"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="145"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="62"/>
       <c r="C22" s="93">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41684</v>
+        <v>41736</v>
       </c>
       <c r="D22" s="94">
         <f>MAX(_xll.ohPack(Selected!I1:I20))</f>
@@ -2266,107 +2283,121 @@
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="65"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="145"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="62"/>
       <c r="C23" s="95">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>42415</v>
+        <v>42467</v>
       </c>
       <c r="D23" s="72">
         <f>MIN(_xll.ohPack(Selected!I1:I20))</f>
-        <v>0.98772918348282057</v>
+        <v>0.98384748690248558</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="65"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="145"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="62"/>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="97" t="str">
+      <c r="D24" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="65"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-    </row>
-    <row r="25" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="138"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="143" t="str">
+        <f>UPPER(Currency)&amp;"6M"</f>
+        <v>HKD6M</v>
+      </c>
+      <c r="D25" s="144" t="b">
+        <f>_xll.qlRelinkableHandleLinkTo(C25,YieldCurve)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+    </row>
+    <row r="26" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="138"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="135" t="b">
+        <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
+      <c r="A27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
+      <c r="A28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
+      <c r="A29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
+      <c r="A30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2375,7 +2406,7 @@
     <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),'1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
@@ -2501,7 +2532,7 @@
       </c>
       <c r="I3" s="38" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_T6F1#0002</v>
+        <v>HKD_YC6MRH_T6F1#0000</v>
       </c>
       <c r="J3" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -2538,7 +2569,7 @@
       </c>
       <c r="I4" s="43" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_TOM6F1#0002</v>
+        <v>HKD_YC6MRH_TOM6F1#0000</v>
       </c>
       <c r="J4" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -2576,7 +2607,7 @@
       </c>
       <c r="I5" s="38" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_1x7F#0002</v>
+        <v>HKD_YC6MRH_1x7F#0000</v>
       </c>
       <c r="J5" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -2614,7 +2645,7 @@
       </c>
       <c r="I6" s="32" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_2x8F#0002</v>
+        <v>HKD_YC6MRH_2x8F#0000</v>
       </c>
       <c r="J6" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -2652,7 +2683,7 @@
       </c>
       <c r="I7" s="32" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_3x9F#0002</v>
+        <v>HKD_YC6MRH_3x9F#0000</v>
       </c>
       <c r="J7" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -2690,7 +2721,7 @@
       </c>
       <c r="I8" s="32" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_4x10F#0002</v>
+        <v>HKD_YC6MRH_4x10F#0000</v>
       </c>
       <c r="J8" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -2728,7 +2759,7 @@
       </c>
       <c r="I9" s="32" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_5x11F#0002</v>
+        <v>HKD_YC6MRH_5x11F#0000</v>
       </c>
       <c r="J9" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -2766,7 +2797,7 @@
       </c>
       <c r="I10" s="32" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_6x12F#0002</v>
+        <v>HKD_YC6MRH_6x12F#0000</v>
       </c>
       <c r="J10" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -2804,7 +2835,7 @@
       </c>
       <c r="I11" s="32" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_7x13F#0002</v>
+        <v>HKD_YC6MRH_7x13F#0000</v>
       </c>
       <c r="J11" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -2842,7 +2873,7 @@
       </c>
       <c r="I12" s="32" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_8x14F#0002</v>
+        <v>HKD_YC6MRH_8x14F#0000</v>
       </c>
       <c r="J12" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -2880,7 +2911,7 @@
       </c>
       <c r="I13" s="32" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_9x15F#0002</v>
+        <v>HKD_YC6MRH_9x15F#0000</v>
       </c>
       <c r="J13" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -2918,7 +2949,7 @@
       </c>
       <c r="I14" s="32" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_10x16F#0002</v>
+        <v>HKD_YC6MRH_10x16F#0000</v>
       </c>
       <c r="J14" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -2956,7 +2987,7 @@
       </c>
       <c r="I15" s="32" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_11x17F#0002</v>
+        <v>HKD_YC6MRH_11x17F#0000</v>
       </c>
       <c r="J15" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -2994,7 +3025,7 @@
       </c>
       <c r="I16" s="32" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_12x18F#0002</v>
+        <v>HKD_YC6MRH_12x18F#0000</v>
       </c>
       <c r="J16" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -3032,7 +3063,7 @@
       </c>
       <c r="I17" s="32" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_13x19F#0002</v>
+        <v>HKD_YC6MRH_13x19F#0000</v>
       </c>
       <c r="J17" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -3070,7 +3101,7 @@
       </c>
       <c r="I18" s="32" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_14x20F#0002</v>
+        <v>HKD_YC6MRH_14x20F#0000</v>
       </c>
       <c r="J18" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -3108,7 +3139,7 @@
       </c>
       <c r="I19" s="32" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_15x21F#0002</v>
+        <v>HKD_YC6MRH_15x21F#0000</v>
       </c>
       <c r="J19" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -3146,7 +3177,7 @@
       </c>
       <c r="I20" s="32" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_16x22F#0002</v>
+        <v>HKD_YC6MRH_16x22F#0000</v>
       </c>
       <c r="J20" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -3184,7 +3215,7 @@
       </c>
       <c r="I21" s="32" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_17x23F#0002</v>
+        <v>HKD_YC6MRH_17x23F#0000</v>
       </c>
       <c r="J21" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -3222,7 +3253,7 @@
       </c>
       <c r="I22" s="32" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_18x24F#0002</v>
+        <v>HKD_YC6MRH_18x24F#0000</v>
       </c>
       <c r="J22" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -3239,15 +3270,15 @@
         <v>101</v>
       </c>
       <c r="F23" s="28"/>
-      <c r="G23" s="138" t="s">
+      <c r="G23" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="138" t="s">
+      <c r="H23" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="139" t="str">
+      <c r="I23" s="137" t="str">
         <f>_xll.qlDepositRateHelper(H23,G23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor6MLastFixing#0001</v>
+        <v>HkdHibor6MLastFixing#0000</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="26"/>
@@ -3268,34 +3299,34 @@
   <dimension ref="B1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="102" customWidth="1"/>
-    <col min="2" max="2" width="5" style="103" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="103" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="103" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="103" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" style="103" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="103" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="103" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="102" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="102" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" style="102" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" style="102" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="102"/>
+    <col min="1" max="1" width="5.7109375" style="100" customWidth="1"/>
+    <col min="2" max="2" width="5" style="101" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="101" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="101" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="100" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="100" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="100" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3322,2406 +3353,2406 @@
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="125"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="115" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="115" t="str">
+      <c r="E2" s="113" t="str">
         <f>FRAs!I23</f>
-        <v>HkdHibor6MLastFixing#0001</v>
-      </c>
-      <c r="F2" s="114">
+        <v>HkdHibor6MLastFixing#0000</v>
+      </c>
+      <c r="F2" s="112">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
         <v>5.4856999999999996E-3</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="113" t="b">
+      <c r="G2" s="112"/>
+      <c r="H2" s="111" t="b">
         <f>IF(ISERROR(F2),FALSE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="113">
+      <c r="I2" s="111">
         <v>70</v>
       </c>
-      <c r="J2" s="113">
+      <c r="J2" s="111">
         <v>1</v>
       </c>
-      <c r="K2" s="112">
+      <c r="K2" s="110">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="L2" s="111">
+        <v>41736</v>
+      </c>
+      <c r="L2" s="109">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41865</v>
+        <v>41919</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="121">
         <f>Months</f>
         <v>6</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="122" t="str">
+      <c r="E3" s="120" t="str">
         <f t="shared" ref="E3:E4" si="0">RateHelperPrefix&amp;"_"&amp;$B3&amp;$C3&amp;$D3</f>
         <v>HKD_YC6MRH_T6F1</v>
       </c>
-      <c r="F3" s="121" t="e">
+      <c r="F3" s="119" t="e">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="120" t="b">
+      <c r="G3" s="119"/>
+      <c r="H3" s="118" t="b">
         <f t="shared" ref="H3:H22" si="1">IF(ISERROR(F3),FALSE,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="120">
+      <c r="I3" s="118">
         <v>20</v>
       </c>
-      <c r="J3" s="120">
+      <c r="J3" s="118">
         <v>1</v>
       </c>
-      <c r="K3" s="119">
+      <c r="K3" s="117">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="L3" s="118">
+        <v>41736</v>
+      </c>
+      <c r="L3" s="116">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41865</v>
+        <v>41919</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="107">
         <f>Months</f>
         <v>6</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="108" t="str">
+      <c r="E4" s="106" t="str">
         <f t="shared" si="0"/>
         <v>HKD_YC6MRH_TOM6F1</v>
       </c>
-      <c r="F4" s="107" t="e">
+      <c r="F4" s="105" t="e">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="106" t="b">
+      <c r="G4" s="105"/>
+      <c r="H4" s="104" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="106">
+      <c r="I4" s="104">
         <v>20</v>
       </c>
-      <c r="J4" s="106">
+      <c r="J4" s="104">
         <v>1</v>
       </c>
-      <c r="K4" s="105">
+      <c r="K4" s="103">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="L4" s="104">
+        <v>41737</v>
+      </c>
+      <c r="L4" s="102">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41869</v>
+        <v>41920</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="117">
+      <c r="B5" s="115">
         <v>1</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="115" t="str">
+      <c r="D5" s="113" t="str">
         <f t="shared" ref="D5:D22" si="2">(B5+Months)&amp;"F"</f>
         <v>7F</v>
       </c>
-      <c r="E5" s="115" t="str">
+      <c r="E5" s="113" t="str">
         <f>FRAs!I5</f>
-        <v>HKD_YC6MRH_1x7F#0002</v>
-      </c>
-      <c r="F5" s="114">
+        <v>HKD_YC6MRH_1x7F#0000</v>
+      </c>
+      <c r="F5" s="112">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="113" t="b">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G5" s="112"/>
+      <c r="H5" s="111" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I5" s="113">
+      <c r="I5" s="111">
         <v>20</v>
       </c>
-      <c r="J5" s="113">
+      <c r="J5" s="111">
         <v>1</v>
       </c>
-      <c r="K5" s="112">
+      <c r="K5" s="110">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41712</v>
-      </c>
-      <c r="L5" s="111">
+        <v>41766</v>
+      </c>
+      <c r="L5" s="109">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41897</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="117">
+      <c r="B6" s="115">
         <v>2</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="115" t="str">
+      <c r="D6" s="113" t="str">
         <f t="shared" si="2"/>
         <v>8F</v>
       </c>
-      <c r="E6" s="115" t="str">
+      <c r="E6" s="113" t="str">
         <f>FRAs!I6</f>
-        <v>HKD_YC6MRH_2x8F#0002</v>
-      </c>
-      <c r="F6" s="114">
+        <v>HKD_YC6MRH_2x8F#0000</v>
+      </c>
+      <c r="F6" s="112">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="113" t="b">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="112"/>
+      <c r="H6" s="111" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I6" s="113">
+      <c r="I6" s="111">
         <v>20</v>
       </c>
-      <c r="J6" s="113">
+      <c r="J6" s="111">
         <v>1</v>
       </c>
-      <c r="K6" s="112">
+      <c r="K6" s="110">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41743</v>
-      </c>
-      <c r="L6" s="111">
+        <v>41799</v>
+      </c>
+      <c r="L6" s="109">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41926</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="117">
+      <c r="B7" s="115">
         <v>3</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="115" t="str">
+      <c r="D7" s="113" t="str">
         <f t="shared" si="2"/>
         <v>9F</v>
       </c>
-      <c r="E7" s="115" t="str">
+      <c r="E7" s="113" t="str">
         <f>FRAs!I7</f>
-        <v>HKD_YC6MRH_3x9F#0002</v>
-      </c>
-      <c r="F7" s="114">
+        <v>HKD_YC6MRH_3x9F#0000</v>
+      </c>
+      <c r="F7" s="112">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="113" t="b">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="G7" s="112"/>
+      <c r="H7" s="111" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="111">
         <v>20</v>
       </c>
-      <c r="J7" s="113">
+      <c r="J7" s="111">
         <v>1</v>
       </c>
-      <c r="K7" s="112">
+      <c r="K7" s="110">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41773</v>
-      </c>
-      <c r="L7" s="111">
+        <v>41827</v>
+      </c>
+      <c r="L7" s="109">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41957</v>
+        <v>42011</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="117">
+      <c r="B8" s="115">
         <v>4</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="115" t="str">
+      <c r="D8" s="113" t="str">
         <f t="shared" si="2"/>
         <v>10F</v>
       </c>
-      <c r="E8" s="115" t="str">
+      <c r="E8" s="113" t="str">
         <f>FRAs!I8</f>
-        <v>HKD_YC6MRH_4x10F#0002</v>
-      </c>
-      <c r="F8" s="114">
+        <v>HKD_YC6MRH_4x10F#0000</v>
+      </c>
+      <c r="F8" s="112">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="113" t="b">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G8" s="112"/>
+      <c r="H8" s="111" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="111">
         <v>20</v>
       </c>
-      <c r="J8" s="113">
+      <c r="J8" s="111">
         <v>1</v>
       </c>
-      <c r="K8" s="112">
+      <c r="K8" s="110">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41806</v>
-      </c>
-      <c r="L8" s="111">
+        <v>41858</v>
+      </c>
+      <c r="L8" s="109">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41989</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="117">
+      <c r="B9" s="115">
         <v>5</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="115" t="str">
+      <c r="D9" s="113" t="str">
         <f t="shared" si="2"/>
         <v>11F</v>
       </c>
-      <c r="E9" s="115" t="str">
+      <c r="E9" s="113" t="str">
         <f>FRAs!I9</f>
-        <v>HKD_YC6MRH_5x11F#0002</v>
-      </c>
-      <c r="F9" s="114">
+        <v>HKD_YC6MRH_5x11F#0000</v>
+      </c>
+      <c r="F9" s="112">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="113" t="b">
+        <v>5.5000000000000005E-3</v>
+      </c>
+      <c r="G9" s="112"/>
+      <c r="H9" s="111" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" s="113">
+      <c r="I9" s="111">
         <v>20</v>
       </c>
-      <c r="J9" s="113">
+      <c r="J9" s="111">
         <v>1</v>
       </c>
-      <c r="K9" s="112">
+      <c r="K9" s="110">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41834</v>
-      </c>
-      <c r="L9" s="111">
+        <v>41890</v>
+      </c>
+      <c r="L9" s="109">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>42018</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="117">
+      <c r="B10" s="115">
         <v>6</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="115" t="str">
+      <c r="D10" s="113" t="str">
         <f t="shared" si="2"/>
         <v>12F</v>
       </c>
-      <c r="E10" s="115" t="str">
+      <c r="E10" s="113" t="str">
         <f>FRAs!I10</f>
-        <v>HKD_YC6MRH_6x12F#0002</v>
-      </c>
-      <c r="F10" s="114">
+        <v>HKD_YC6MRH_6x12F#0000</v>
+      </c>
+      <c r="F10" s="112">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="G10" s="114"/>
-      <c r="H10" s="113" t="b">
+        <v>5.8000000000000005E-3</v>
+      </c>
+      <c r="G10" s="112"/>
+      <c r="H10" s="111" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I10" s="113">
+      <c r="I10" s="111">
         <v>20</v>
       </c>
-      <c r="J10" s="113">
+      <c r="J10" s="111">
         <v>1</v>
       </c>
-      <c r="K10" s="112">
+      <c r="K10" s="110">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41865</v>
-      </c>
-      <c r="L10" s="111">
+        <v>41919</v>
+      </c>
+      <c r="L10" s="109">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>42051</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="117">
+      <c r="B11" s="115">
         <v>7</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="115" t="str">
+      <c r="D11" s="113" t="str">
         <f t="shared" si="2"/>
         <v>13F</v>
       </c>
-      <c r="E11" s="115" t="str">
+      <c r="E11" s="113" t="str">
         <f>FRAs!I11</f>
-        <v>HKD_YC6MRH_7x13F#0002</v>
-      </c>
-      <c r="F11" s="114" t="e">
+        <v>HKD_YC6MRH_7x13F#0000</v>
+      </c>
+      <c r="F11" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="113" t="b">
+      <c r="G11" s="112"/>
+      <c r="H11" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="113">
+      <c r="I11" s="111">
         <v>20</v>
       </c>
-      <c r="J11" s="113">
+      <c r="J11" s="111">
         <v>1</v>
       </c>
-      <c r="K11" s="112">
+      <c r="K11" s="110">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41897</v>
-      </c>
-      <c r="L11" s="111">
+        <v>41950</v>
+      </c>
+      <c r="L11" s="109">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>42079</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="117">
+      <c r="B12" s="115">
         <v>8</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="115" t="str">
+      <c r="D12" s="113" t="str">
         <f t="shared" si="2"/>
         <v>14F</v>
       </c>
-      <c r="E12" s="115" t="str">
+      <c r="E12" s="113" t="str">
         <f>FRAs!I12</f>
-        <v>HKD_YC6MRH_8x14F#0002</v>
-      </c>
-      <c r="F12" s="114" t="e">
+        <v>HKD_YC6MRH_8x14F#0000</v>
+      </c>
+      <c r="F12" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G12" s="114"/>
-      <c r="H12" s="113" t="b">
+      <c r="G12" s="112"/>
+      <c r="H12" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="111">
         <v>20</v>
       </c>
-      <c r="J12" s="113">
+      <c r="J12" s="111">
         <v>1</v>
       </c>
-      <c r="K12" s="112">
+      <c r="K12" s="110">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41926</v>
-      </c>
-      <c r="L12" s="111">
+        <v>41981</v>
+      </c>
+      <c r="L12" s="109">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>42108</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="117">
+      <c r="B13" s="115">
         <v>9</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="115" t="str">
+      <c r="D13" s="113" t="str">
         <f t="shared" si="2"/>
         <v>15F</v>
       </c>
-      <c r="E13" s="115" t="str">
+      <c r="E13" s="113" t="str">
         <f>FRAs!I13</f>
-        <v>HKD_YC6MRH_9x15F#0002</v>
-      </c>
-      <c r="F13" s="114" t="e">
+        <v>HKD_YC6MRH_9x15F#0000</v>
+      </c>
+      <c r="F13" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G13" s="114"/>
-      <c r="H13" s="113" t="b">
+      <c r="G13" s="112"/>
+      <c r="H13" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="111">
         <v>20</v>
       </c>
-      <c r="J13" s="113">
+      <c r="J13" s="111">
         <v>1</v>
       </c>
-      <c r="K13" s="112">
+      <c r="K13" s="110">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41957</v>
-      </c>
-      <c r="L13" s="111">
+        <v>42011</v>
+      </c>
+      <c r="L13" s="109">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>42138</v>
+        <v>42192</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="117">
+      <c r="B14" s="115">
         <v>10</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="115" t="str">
+      <c r="D14" s="113" t="str">
         <f t="shared" si="2"/>
         <v>16F</v>
       </c>
-      <c r="E14" s="115" t="str">
+      <c r="E14" s="113" t="str">
         <f>FRAs!I14</f>
-        <v>HKD_YC6MRH_10x16F#0002</v>
-      </c>
-      <c r="F14" s="114" t="e">
+        <v>HKD_YC6MRH_10x16F#0000</v>
+      </c>
+      <c r="F14" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="113" t="b">
+      <c r="G14" s="112"/>
+      <c r="H14" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="113">
+      <c r="I14" s="111">
         <v>20</v>
       </c>
-      <c r="J14" s="113">
+      <c r="J14" s="111">
         <v>1</v>
       </c>
-      <c r="K14" s="112">
+      <c r="K14" s="110">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41988</v>
-      </c>
-      <c r="L14" s="111">
+        <v>42044</v>
+      </c>
+      <c r="L14" s="109">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>42170</v>
+        <v>42226</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="117">
+      <c r="B15" s="115">
         <v>11</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="115" t="str">
+      <c r="D15" s="113" t="str">
         <f t="shared" si="2"/>
         <v>17F</v>
       </c>
-      <c r="E15" s="115" t="str">
+      <c r="E15" s="113" t="str">
         <f>FRAs!I15</f>
-        <v>HKD_YC6MRH_11x17F#0002</v>
-      </c>
-      <c r="F15" s="114" t="e">
+        <v>HKD_YC6MRH_11x17F#0000</v>
+      </c>
+      <c r="F15" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G15" s="114"/>
-      <c r="H15" s="113" t="b">
+      <c r="G15" s="112"/>
+      <c r="H15" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="111">
         <v>20</v>
       </c>
-      <c r="J15" s="113">
+      <c r="J15" s="111">
         <v>1</v>
       </c>
-      <c r="K15" s="112">
+      <c r="K15" s="110">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>42018</v>
-      </c>
-      <c r="L15" s="111">
+        <v>42072</v>
+      </c>
+      <c r="L15" s="109">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>42199</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="117">
+      <c r="B16" s="115">
         <v>12</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="115" t="str">
+      <c r="D16" s="113" t="str">
         <f t="shared" si="2"/>
         <v>18F</v>
       </c>
-      <c r="E16" s="115" t="str">
+      <c r="E16" s="113" t="str">
         <f>FRAs!I16</f>
-        <v>HKD_YC6MRH_12x18F#0002</v>
-      </c>
-      <c r="F16" s="114">
+        <v>HKD_YC6MRH_12x18F#0000</v>
+      </c>
+      <c r="F16" s="112">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>6.1000000000000013E-3</v>
-      </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="113" t="b">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G16" s="112"/>
+      <c r="H16" s="111" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I16" s="113">
+      <c r="I16" s="111">
         <v>20</v>
       </c>
-      <c r="J16" s="113">
+      <c r="J16" s="111">
         <v>1</v>
       </c>
-      <c r="K16" s="112">
+      <c r="K16" s="110">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>42051</v>
-      </c>
-      <c r="L16" s="111">
+        <v>42101</v>
+      </c>
+      <c r="L16" s="109">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42233</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="117">
+      <c r="B17" s="115">
         <v>13</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="115" t="str">
+      <c r="D17" s="113" t="str">
         <f t="shared" si="2"/>
         <v>19F</v>
       </c>
-      <c r="E17" s="115" t="str">
+      <c r="E17" s="113" t="str">
         <f>FRAs!I17</f>
-        <v>HKD_YC6MRH_13x19F#0002</v>
-      </c>
-      <c r="F17" s="114" t="e">
+        <v>HKD_YC6MRH_13x19F#0000</v>
+      </c>
+      <c r="F17" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="113" t="b">
+      <c r="G17" s="112"/>
+      <c r="H17" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="113">
+      <c r="I17" s="111">
         <v>20</v>
       </c>
-      <c r="J17" s="113">
+      <c r="J17" s="111">
         <v>1</v>
       </c>
-      <c r="K17" s="112">
+      <c r="K17" s="110">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>42079</v>
-      </c>
-      <c r="L17" s="111">
+        <v>42131</v>
+      </c>
+      <c r="L17" s="109">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42263</v>
+        <v>42317</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="117">
+      <c r="B18" s="115">
         <v>14</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="115" t="str">
+      <c r="D18" s="113" t="str">
         <f t="shared" si="2"/>
         <v>20F</v>
       </c>
-      <c r="E18" s="115" t="str">
+      <c r="E18" s="113" t="str">
         <f>FRAs!I18</f>
-        <v>HKD_YC6MRH_14x20F#0002</v>
-      </c>
-      <c r="F18" s="114" t="e">
+        <v>HKD_YC6MRH_14x20F#0000</v>
+      </c>
+      <c r="F18" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="113" t="b">
+      <c r="G18" s="112"/>
+      <c r="H18" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="113">
+      <c r="I18" s="111">
         <v>20</v>
       </c>
-      <c r="J18" s="113">
+      <c r="J18" s="111">
         <v>1</v>
       </c>
-      <c r="K18" s="112">
+      <c r="K18" s="110">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>42108</v>
-      </c>
-      <c r="L18" s="111">
+        <v>42163</v>
+      </c>
+      <c r="L18" s="109">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42291</v>
+        <v>42346</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="117">
+      <c r="B19" s="115">
         <v>15</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="115" t="str">
+      <c r="D19" s="113" t="str">
         <f t="shared" si="2"/>
         <v>21F</v>
       </c>
-      <c r="E19" s="115" t="str">
+      <c r="E19" s="113" t="str">
         <f>FRAs!I19</f>
-        <v>HKD_YC6MRH_15x21F#0002</v>
-      </c>
-      <c r="F19" s="114" t="e">
+        <v>HKD_YC6MRH_15x21F#0000</v>
+      </c>
+      <c r="F19" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G19" s="114"/>
-      <c r="H19" s="113" t="b">
+      <c r="G19" s="112"/>
+      <c r="H19" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="113">
+      <c r="I19" s="111">
         <v>20</v>
       </c>
-      <c r="J19" s="113">
+      <c r="J19" s="111">
         <v>1</v>
       </c>
-      <c r="K19" s="112">
+      <c r="K19" s="110">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>42138</v>
-      </c>
-      <c r="L19" s="111">
+        <v>42192</v>
+      </c>
+      <c r="L19" s="109">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42324</v>
+        <v>42376</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="117">
+      <c r="B20" s="115">
         <v>16</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="115" t="str">
+      <c r="D20" s="113" t="str">
         <f t="shared" si="2"/>
         <v>22F</v>
       </c>
-      <c r="E20" s="115" t="str">
+      <c r="E20" s="113" t="str">
         <f>FRAs!I20</f>
-        <v>HKD_YC6MRH_16x22F#0002</v>
-      </c>
-      <c r="F20" s="114" t="e">
+        <v>HKD_YC6MRH_16x22F#0000</v>
+      </c>
+      <c r="F20" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G20" s="114"/>
-      <c r="H20" s="113" t="b">
+      <c r="G20" s="112"/>
+      <c r="H20" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="113">
+      <c r="I20" s="111">
         <v>20</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="111">
         <v>1</v>
       </c>
-      <c r="K20" s="112">
+      <c r="K20" s="110">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>42170</v>
-      </c>
-      <c r="L20" s="111">
+        <v>42223</v>
+      </c>
+      <c r="L20" s="109">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42353</v>
+        <v>42408</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="117">
+      <c r="B21" s="115">
         <v>17</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="115" t="str">
+      <c r="D21" s="113" t="str">
         <f t="shared" si="2"/>
         <v>23F</v>
       </c>
-      <c r="E21" s="115" t="str">
+      <c r="E21" s="113" t="str">
         <f>FRAs!I21</f>
-        <v>HKD_YC6MRH_17x23F#0002</v>
-      </c>
-      <c r="F21" s="114" t="e">
+        <v>HKD_YC6MRH_17x23F#0000</v>
+      </c>
+      <c r="F21" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="113" t="b">
+      <c r="G21" s="112"/>
+      <c r="H21" s="111" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="113">
+      <c r="I21" s="111">
         <v>20</v>
       </c>
-      <c r="J21" s="113">
+      <c r="J21" s="111">
         <v>1</v>
       </c>
-      <c r="K21" s="112">
+      <c r="K21" s="110">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>42199</v>
-      </c>
-      <c r="L21" s="111">
+        <v>42254</v>
+      </c>
+      <c r="L21" s="109">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42383</v>
+        <v>42436</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="110">
+      <c r="B22" s="108">
         <v>18</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="108" t="str">
+      <c r="D22" s="106" t="str">
         <f t="shared" si="2"/>
         <v>24F</v>
       </c>
-      <c r="E22" s="108" t="str">
+      <c r="E22" s="106" t="str">
         <f>FRAs!I22</f>
-        <v>HKD_YC6MRH_18x24F#0002</v>
-      </c>
-      <c r="F22" s="107">
+        <v>HKD_YC6MRH_18x24F#0000</v>
+      </c>
+      <c r="F22" s="105">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="106" t="b">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G22" s="105"/>
+      <c r="H22" s="104" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I22" s="106">
+      <c r="I22" s="104">
         <v>20</v>
       </c>
-      <c r="J22" s="106">
+      <c r="J22" s="104">
         <v>1</v>
       </c>
-      <c r="K22" s="105">
+      <c r="K22" s="103">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>42230</v>
-      </c>
-      <c r="L22" s="104">
+        <v>42284</v>
+      </c>
+      <c r="L22" s="102">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42415</v>
+        <v>42467</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="117" t="str">
+      <c r="B23" s="115" t="str">
         <f t="shared" ref="B23:B49" si="3">SwapFixedFreq</f>
         <v>QM</v>
       </c>
-      <c r="C23" s="116" t="str">
+      <c r="C23" s="114" t="str">
         <f t="shared" ref="C23:C59" si="4">IborType&amp;"BASIS"</f>
         <v>3HBASIS</v>
       </c>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="115" t="str">
+      <c r="E23" s="113" t="str">
         <f t="shared" ref="E23:E51" si="5">RateHelperPrefix&amp;"_"&amp;$B23&amp;$C23&amp;$D23</f>
         <v>HKD_YC6MRH_QM3HBASIS1Y</v>
       </c>
-      <c r="F23" s="114" t="e">
+      <c r="F23" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G23" s="114" t="e">
+      <c r="G23" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E23,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H23" s="113" t="b">
+      <c r="H23" s="111" t="b">
         <f t="shared" ref="H23:H33" si="6">IF(ISERROR(F23),FALSE,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="113">
+      <c r="I23" s="111">
         <v>40</v>
       </c>
-      <c r="J23" s="113">
+      <c r="J23" s="111">
         <v>1</v>
       </c>
-      <c r="K23" s="112" t="e">
+      <c r="K23" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L23" s="111" t="e">
+      <c r="L23" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="117" t="str">
+      <c r="B24" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C24" s="116" t="str">
+      <c r="C24" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D24" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="115" t="str">
+      <c r="E24" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS15M</v>
       </c>
-      <c r="F24" s="114" t="e">
+      <c r="F24" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G24" s="114" t="e">
+      <c r="G24" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E24,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H24" s="113" t="b">
+      <c r="H24" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I24" s="113">
+      <c r="I24" s="111">
         <v>40</v>
       </c>
-      <c r="J24" s="113">
+      <c r="J24" s="111">
         <v>1</v>
       </c>
-      <c r="K24" s="112" t="e">
+      <c r="K24" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L24" s="111" t="e">
+      <c r="L24" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="117" t="str">
+      <c r="B25" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C25" s="116" t="str">
+      <c r="C25" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="115" t="str">
+      <c r="E25" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS18M</v>
       </c>
-      <c r="F25" s="114" t="e">
+      <c r="F25" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G25" s="114" t="e">
+      <c r="G25" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E25,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H25" s="113" t="b">
+      <c r="H25" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I25" s="113">
+      <c r="I25" s="111">
         <v>40</v>
       </c>
-      <c r="J25" s="113">
+      <c r="J25" s="111">
         <v>1</v>
       </c>
-      <c r="K25" s="112" t="e">
+      <c r="K25" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L25" s="111" t="e">
+      <c r="L25" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="117" t="str">
+      <c r="B26" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C26" s="116" t="str">
+      <c r="C26" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="115" t="str">
+      <c r="E26" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS21M</v>
       </c>
-      <c r="F26" s="114" t="e">
+      <c r="F26" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G26" s="114" t="e">
+      <c r="G26" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E26,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H26" s="113" t="b">
+      <c r="H26" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I26" s="113">
+      <c r="I26" s="111">
         <v>40</v>
       </c>
-      <c r="J26" s="113">
+      <c r="J26" s="111">
         <v>1</v>
       </c>
-      <c r="K26" s="112" t="e">
+      <c r="K26" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L26" s="111" t="e">
+      <c r="L26" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="117" t="str">
+      <c r="B27" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C27" s="116" t="str">
+      <c r="C27" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D27" s="115" t="s">
+      <c r="D27" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="115" t="str">
+      <c r="E27" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS2Y</v>
       </c>
-      <c r="F27" s="114" t="e">
+      <c r="F27" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G27" s="114" t="e">
+      <c r="G27" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E27,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H27" s="113" t="b">
+      <c r="H27" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I27" s="113">
+      <c r="I27" s="111">
         <v>40</v>
       </c>
-      <c r="J27" s="113">
+      <c r="J27" s="111">
         <v>1</v>
       </c>
-      <c r="K27" s="112" t="e">
+      <c r="K27" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L27" s="111" t="e">
+      <c r="L27" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="117" t="str">
+      <c r="B28" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C28" s="116" t="str">
+      <c r="C28" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="115" t="str">
+      <c r="E28" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS3Y</v>
       </c>
-      <c r="F28" s="114" t="e">
+      <c r="F28" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G28" s="114" t="e">
+      <c r="G28" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H28" s="113" t="b">
+      <c r="H28" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I28" s="113">
+      <c r="I28" s="111">
         <v>40</v>
       </c>
-      <c r="J28" s="113">
+      <c r="J28" s="111">
         <v>1</v>
       </c>
-      <c r="K28" s="112" t="e">
+      <c r="K28" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L28" s="111" t="e">
+      <c r="L28" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="117" t="str">
+      <c r="B29" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C29" s="116" t="str">
+      <c r="C29" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="115" t="str">
+      <c r="E29" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS4Y</v>
       </c>
-      <c r="F29" s="114" t="e">
+      <c r="F29" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G29" s="114" t="e">
+      <c r="G29" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E29,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H29" s="113" t="b">
+      <c r="H29" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I29" s="113">
+      <c r="I29" s="111">
         <v>40</v>
       </c>
-      <c r="J29" s="113">
+      <c r="J29" s="111">
         <v>1</v>
       </c>
-      <c r="K29" s="112" t="e">
+      <c r="K29" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L29" s="111" t="e">
+      <c r="L29" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="117" t="str">
+      <c r="B30" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C30" s="116" t="str">
+      <c r="C30" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D30" s="115" t="s">
+      <c r="D30" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="115" t="str">
+      <c r="E30" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS5Y</v>
       </c>
-      <c r="F30" s="114" t="e">
+      <c r="F30" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G30" s="114" t="e">
+      <c r="G30" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H30" s="113" t="b">
+      <c r="H30" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I30" s="113">
+      <c r="I30" s="111">
         <v>40</v>
       </c>
-      <c r="J30" s="113">
+      <c r="J30" s="111">
         <v>1</v>
       </c>
-      <c r="K30" s="112" t="e">
+      <c r="K30" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L30" s="111" t="e">
+      <c r="L30" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="117" t="str">
+      <c r="B31" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C31" s="116" t="str">
+      <c r="C31" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="115" t="str">
+      <c r="E31" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS6Y</v>
       </c>
-      <c r="F31" s="114" t="e">
+      <c r="F31" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G31" s="114" t="e">
+      <c r="G31" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H31" s="113" t="b">
+      <c r="H31" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I31" s="113">
+      <c r="I31" s="111">
         <v>40</v>
       </c>
-      <c r="J31" s="113">
+      <c r="J31" s="111">
         <v>1</v>
       </c>
-      <c r="K31" s="112" t="e">
+      <c r="K31" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L31" s="111" t="e">
+      <c r="L31" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="117" t="str">
+      <c r="B32" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C32" s="116" t="str">
+      <c r="C32" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D32" s="115" t="s">
+      <c r="D32" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="115" t="str">
+      <c r="E32" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS7Y</v>
       </c>
-      <c r="F32" s="114" t="e">
+      <c r="F32" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G32" s="114" t="e">
+      <c r="G32" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E32,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H32" s="113" t="b">
+      <c r="H32" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I32" s="113">
+      <c r="I32" s="111">
         <v>40</v>
       </c>
-      <c r="J32" s="113">
+      <c r="J32" s="111">
         <v>1</v>
       </c>
-      <c r="K32" s="112" t="e">
+      <c r="K32" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L32" s="111" t="e">
+      <c r="L32" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="117" t="str">
+      <c r="B33" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C33" s="116" t="str">
+      <c r="C33" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D33" s="115" t="s">
+      <c r="D33" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="115" t="str">
+      <c r="E33" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS8Y</v>
       </c>
-      <c r="F33" s="114" t="e">
+      <c r="F33" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G33" s="114" t="e">
+      <c r="G33" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H33" s="113" t="b">
+      <c r="H33" s="111" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I33" s="113">
+      <c r="I33" s="111">
         <v>40</v>
       </c>
-      <c r="J33" s="113">
+      <c r="J33" s="111">
         <v>1</v>
       </c>
-      <c r="K33" s="112" t="e">
+      <c r="K33" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L33" s="111" t="e">
+      <c r="L33" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="117" t="str">
+      <c r="B34" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C34" s="116" t="str">
+      <c r="C34" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="115" t="str">
+      <c r="E34" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS9Y</v>
       </c>
-      <c r="F34" s="114" t="e">
+      <c r="F34" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G34" s="114" t="e">
+      <c r="G34" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H34" s="113" t="b">
+      <c r="H34" s="111" t="b">
         <f t="shared" ref="H34:H59" si="7">IF(ISERROR(F34),FALSE,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="113">
+      <c r="I34" s="111">
         <v>40</v>
       </c>
-      <c r="J34" s="113">
+      <c r="J34" s="111">
         <v>1</v>
       </c>
-      <c r="K34" s="112" t="e">
+      <c r="K34" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L34" s="111" t="e">
+      <c r="L34" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="117" t="str">
+      <c r="B35" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C35" s="116" t="str">
+      <c r="C35" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D35" s="115" t="s">
+      <c r="D35" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="115" t="str">
+      <c r="E35" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS10Y</v>
       </c>
-      <c r="F35" s="114" t="e">
+      <c r="F35" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G35" s="114" t="e">
+      <c r="G35" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H35" s="113" t="b">
+      <c r="H35" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I35" s="113">
+      <c r="I35" s="111">
         <v>40</v>
       </c>
-      <c r="J35" s="113">
+      <c r="J35" s="111">
         <v>1</v>
       </c>
-      <c r="K35" s="112" t="e">
+      <c r="K35" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L35" s="111" t="e">
+      <c r="L35" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="117" t="str">
+      <c r="B36" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C36" s="116" t="str">
+      <c r="C36" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="115" t="str">
+      <c r="E36" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS11Y</v>
       </c>
-      <c r="F36" s="114" t="e">
+      <c r="F36" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G36" s="114" t="e">
+      <c r="G36" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H36" s="113" t="b">
+      <c r="H36" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I36" s="113">
+      <c r="I36" s="111">
         <v>40</v>
       </c>
-      <c r="J36" s="113">
+      <c r="J36" s="111">
         <v>1</v>
       </c>
-      <c r="K36" s="112" t="e">
+      <c r="K36" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L36" s="111" t="e">
+      <c r="L36" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="117" t="str">
+      <c r="B37" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C37" s="116" t="str">
+      <c r="C37" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D37" s="115" t="s">
+      <c r="D37" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="115" t="str">
+      <c r="E37" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS12Y</v>
       </c>
-      <c r="F37" s="114" t="e">
+      <c r="F37" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G37" s="114" t="e">
+      <c r="G37" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E37,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H37" s="113" t="b">
+      <c r="H37" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I37" s="113">
+      <c r="I37" s="111">
         <v>40</v>
       </c>
-      <c r="J37" s="113">
+      <c r="J37" s="111">
         <v>1</v>
       </c>
-      <c r="K37" s="112" t="e">
+      <c r="K37" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L37" s="111" t="e">
+      <c r="L37" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="117" t="str">
+      <c r="B38" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C38" s="116" t="str">
+      <c r="C38" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D38" s="115" t="s">
+      <c r="D38" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="115" t="str">
+      <c r="E38" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS13Y</v>
       </c>
-      <c r="F38" s="114" t="e">
+      <c r="F38" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G38" s="114" t="e">
+      <c r="G38" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H38" s="113" t="b">
+      <c r="H38" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I38" s="113">
+      <c r="I38" s="111">
         <v>40</v>
       </c>
-      <c r="J38" s="113">
+      <c r="J38" s="111">
         <v>1</v>
       </c>
-      <c r="K38" s="112" t="e">
+      <c r="K38" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L38" s="111" t="e">
+      <c r="L38" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="117" t="str">
+      <c r="B39" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C39" s="116" t="str">
+      <c r="C39" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D39" s="115" t="s">
+      <c r="D39" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="115" t="str">
+      <c r="E39" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS14Y</v>
       </c>
-      <c r="F39" s="114" t="e">
+      <c r="F39" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G39" s="114" t="e">
+      <c r="G39" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H39" s="113" t="b">
+      <c r="H39" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I39" s="113">
+      <c r="I39" s="111">
         <v>40</v>
       </c>
-      <c r="J39" s="113">
+      <c r="J39" s="111">
         <v>1</v>
       </c>
-      <c r="K39" s="112" t="e">
+      <c r="K39" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L39" s="111" t="e">
+      <c r="L39" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="117" t="str">
+      <c r="B40" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C40" s="116" t="str">
+      <c r="C40" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D40" s="115" t="s">
+      <c r="D40" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="115" t="str">
+      <c r="E40" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS15Y</v>
       </c>
-      <c r="F40" s="114" t="e">
+      <c r="F40" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G40" s="114" t="e">
+      <c r="G40" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H40" s="113" t="b">
+      <c r="H40" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I40" s="113">
+      <c r="I40" s="111">
         <v>40</v>
       </c>
-      <c r="J40" s="113">
+      <c r="J40" s="111">
         <v>1</v>
       </c>
-      <c r="K40" s="112" t="e">
+      <c r="K40" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L40" s="111" t="e">
+      <c r="L40" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="117" t="str">
+      <c r="B41" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C41" s="116" t="str">
+      <c r="C41" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D41" s="115" t="s">
+      <c r="D41" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="115" t="str">
+      <c r="E41" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS16Y</v>
       </c>
-      <c r="F41" s="114" t="e">
+      <c r="F41" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G41" s="114" t="e">
+      <c r="G41" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H41" s="113" t="b">
+      <c r="H41" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I41" s="113">
+      <c r="I41" s="111">
         <v>40</v>
       </c>
-      <c r="J41" s="113">
+      <c r="J41" s="111">
         <v>1</v>
       </c>
-      <c r="K41" s="112" t="e">
+      <c r="K41" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L41" s="111" t="e">
+      <c r="L41" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="117" t="str">
+      <c r="B42" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C42" s="116" t="str">
+      <c r="C42" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D42" s="115" t="s">
+      <c r="D42" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="115" t="str">
+      <c r="E42" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS17Y</v>
       </c>
-      <c r="F42" s="114" t="e">
+      <c r="F42" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G42" s="114" t="e">
+      <c r="G42" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H42" s="113" t="b">
+      <c r="H42" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I42" s="113">
+      <c r="I42" s="111">
         <v>40</v>
       </c>
-      <c r="J42" s="113">
+      <c r="J42" s="111">
         <v>1</v>
       </c>
-      <c r="K42" s="112" t="e">
+      <c r="K42" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L42" s="111" t="e">
+      <c r="L42" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="117" t="str">
+      <c r="B43" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C43" s="116" t="str">
+      <c r="C43" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D43" s="115" t="s">
+      <c r="D43" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="115" t="str">
+      <c r="E43" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS18Y</v>
       </c>
-      <c r="F43" s="114" t="e">
+      <c r="F43" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G43" s="114" t="e">
+      <c r="G43" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H43" s="113" t="b">
+      <c r="H43" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I43" s="113">
+      <c r="I43" s="111">
         <v>40</v>
       </c>
-      <c r="J43" s="113">
+      <c r="J43" s="111">
         <v>1</v>
       </c>
-      <c r="K43" s="112" t="e">
+      <c r="K43" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L43" s="111" t="e">
+      <c r="L43" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="117" t="str">
+      <c r="B44" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C44" s="116" t="str">
+      <c r="C44" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="115" t="str">
+      <c r="E44" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS19Y</v>
       </c>
-      <c r="F44" s="114" t="e">
+      <c r="F44" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G44" s="114" t="e">
+      <c r="G44" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H44" s="113" t="b">
+      <c r="H44" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I44" s="113">
+      <c r="I44" s="111">
         <v>40</v>
       </c>
-      <c r="J44" s="113">
+      <c r="J44" s="111">
         <v>1</v>
       </c>
-      <c r="K44" s="112" t="e">
+      <c r="K44" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L44" s="111" t="e">
+      <c r="L44" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="117" t="str">
+      <c r="B45" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C45" s="116" t="str">
+      <c r="C45" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D45" s="115" t="s">
+      <c r="D45" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="115" t="str">
+      <c r="E45" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS20Y</v>
       </c>
-      <c r="F45" s="114" t="e">
+      <c r="F45" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G45" s="114" t="e">
+      <c r="G45" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H45" s="113" t="b">
+      <c r="H45" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I45" s="113">
+      <c r="I45" s="111">
         <v>40</v>
       </c>
-      <c r="J45" s="113">
+      <c r="J45" s="111">
         <v>1</v>
       </c>
-      <c r="K45" s="112" t="e">
+      <c r="K45" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L45" s="111" t="e">
+      <c r="L45" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="117" t="str">
+      <c r="B46" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C46" s="116" t="str">
+      <c r="C46" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D46" s="115" t="s">
+      <c r="D46" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="115" t="str">
+      <c r="E46" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS21Y</v>
       </c>
-      <c r="F46" s="114" t="e">
+      <c r="F46" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G46" s="114" t="e">
+      <c r="G46" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H46" s="113" t="b">
+      <c r="H46" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I46" s="113">
+      <c r="I46" s="111">
         <v>40</v>
       </c>
-      <c r="J46" s="113">
+      <c r="J46" s="111">
         <v>1</v>
       </c>
-      <c r="K46" s="112" t="e">
+      <c r="K46" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L46" s="111" t="e">
+      <c r="L46" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="117" t="str">
+      <c r="B47" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C47" s="116" t="str">
+      <c r="C47" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D47" s="115" t="s">
+      <c r="D47" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="115" t="str">
+      <c r="E47" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS22Y</v>
       </c>
-      <c r="F47" s="114" t="e">
+      <c r="F47" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G47" s="114" t="e">
+      <c r="G47" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H47" s="113" t="b">
+      <c r="H47" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I47" s="113">
+      <c r="I47" s="111">
         <v>40</v>
       </c>
-      <c r="J47" s="113">
+      <c r="J47" s="111">
         <v>1</v>
       </c>
-      <c r="K47" s="112" t="e">
+      <c r="K47" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L47" s="111" t="e">
+      <c r="L47" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="117" t="str">
+      <c r="B48" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C48" s="116" t="str">
+      <c r="C48" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D48" s="115" t="s">
+      <c r="D48" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="115" t="str">
+      <c r="E48" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS23Y</v>
       </c>
-      <c r="F48" s="114" t="e">
+      <c r="F48" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G48" s="114" t="e">
+      <c r="G48" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H48" s="113" t="b">
+      <c r="H48" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I48" s="113">
+      <c r="I48" s="111">
         <v>40</v>
       </c>
-      <c r="J48" s="113">
+      <c r="J48" s="111">
         <v>1</v>
       </c>
-      <c r="K48" s="112" t="e">
+      <c r="K48" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L48" s="111" t="e">
+      <c r="L48" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="117" t="str">
+      <c r="B49" s="115" t="str">
         <f t="shared" si="3"/>
         <v>QM</v>
       </c>
-      <c r="C49" s="116" t="str">
+      <c r="C49" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D49" s="115" t="s">
+      <c r="D49" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="115" t="str">
+      <c r="E49" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS24Y</v>
       </c>
-      <c r="F49" s="114" t="e">
+      <c r="F49" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G49" s="114" t="e">
+      <c r="G49" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H49" s="113" t="b">
+      <c r="H49" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I49" s="113">
+      <c r="I49" s="111">
         <v>40</v>
       </c>
-      <c r="J49" s="113">
+      <c r="J49" s="111">
         <v>1</v>
       </c>
-      <c r="K49" s="112" t="e">
+      <c r="K49" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L49" s="111" t="e">
+      <c r="L49" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="117" t="str">
+      <c r="B50" s="115" t="str">
         <f t="shared" ref="B50:B59" si="8">SwapFixedFreq</f>
         <v>QM</v>
       </c>
-      <c r="C50" s="116" t="str">
+      <c r="C50" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D50" s="115" t="s">
+      <c r="D50" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="115" t="str">
+      <c r="E50" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS25Y</v>
       </c>
-      <c r="F50" s="114" t="e">
+      <c r="F50" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G50" s="114" t="e">
+      <c r="G50" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H50" s="113" t="b">
+      <c r="H50" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I50" s="113">
+      <c r="I50" s="111">
         <v>40</v>
       </c>
-      <c r="J50" s="113">
+      <c r="J50" s="111">
         <v>1</v>
       </c>
-      <c r="K50" s="112" t="e">
+      <c r="K50" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L50" s="111" t="e">
+      <c r="L50" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="117" t="str">
+      <c r="B51" s="115" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C51" s="116" t="str">
+      <c r="C51" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D51" s="115" t="s">
+      <c r="D51" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="115" t="str">
+      <c r="E51" s="113" t="str">
         <f t="shared" si="5"/>
         <v>HKD_YC6MRH_QM3HBASIS26Y</v>
       </c>
-      <c r="F51" s="114" t="e">
+      <c r="F51" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G51" s="114" t="e">
+      <c r="G51" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H51" s="113" t="b">
+      <c r="H51" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I51" s="113">
+      <c r="I51" s="111">
         <v>40</v>
       </c>
-      <c r="J51" s="113">
+      <c r="J51" s="111">
         <v>1</v>
       </c>
-      <c r="K51" s="112" t="e">
+      <c r="K51" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L51" s="111" t="e">
+      <c r="L51" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="117" t="str">
+      <c r="B52" s="115" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C52" s="116" t="str">
+      <c r="C52" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D52" s="115" t="s">
+      <c r="D52" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="115" t="str">
+      <c r="E52" s="113" t="str">
         <f t="shared" ref="E52:E59" si="9">RateHelperPrefix&amp;"_"&amp;$B52&amp;$C52&amp;$D52</f>
         <v>HKD_YC6MRH_QM3HBASIS27Y</v>
       </c>
-      <c r="F52" s="114" t="e">
+      <c r="F52" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G52" s="114" t="e">
+      <c r="G52" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H52" s="113" t="b">
+      <c r="H52" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I52" s="113">
+      <c r="I52" s="111">
         <v>40</v>
       </c>
-      <c r="J52" s="113">
+      <c r="J52" s="111">
         <v>1</v>
       </c>
-      <c r="K52" s="112" t="e">
+      <c r="K52" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L52" s="111" t="e">
+      <c r="L52" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="117" t="str">
+      <c r="B53" s="115" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C53" s="116" t="str">
+      <c r="C53" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D53" s="115" t="s">
+      <c r="D53" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="115" t="str">
+      <c r="E53" s="113" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS28Y</v>
       </c>
-      <c r="F53" s="114" t="e">
+      <c r="F53" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G53" s="114" t="e">
+      <c r="G53" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H53" s="113" t="b">
+      <c r="H53" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I53" s="113">
+      <c r="I53" s="111">
         <v>40</v>
       </c>
-      <c r="J53" s="113">
+      <c r="J53" s="111">
         <v>1</v>
       </c>
-      <c r="K53" s="112" t="e">
+      <c r="K53" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L53" s="111" t="e">
+      <c r="L53" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="117" t="str">
+      <c r="B54" s="115" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C54" s="116" t="str">
+      <c r="C54" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D54" s="115" t="s">
+      <c r="D54" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="115" t="str">
+      <c r="E54" s="113" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS29Y</v>
       </c>
-      <c r="F54" s="114" t="e">
+      <c r="F54" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G54" s="114" t="e">
+      <c r="G54" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H54" s="113" t="b">
+      <c r="H54" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="113">
+      <c r="I54" s="111">
         <v>40</v>
       </c>
-      <c r="J54" s="113">
+      <c r="J54" s="111">
         <v>1</v>
       </c>
-      <c r="K54" s="112" t="e">
+      <c r="K54" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L54" s="111" t="e">
+      <c r="L54" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="117" t="str">
+      <c r="B55" s="115" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C55" s="116" t="str">
+      <c r="C55" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D55" s="115" t="s">
+      <c r="D55" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="115" t="str">
+      <c r="E55" s="113" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS30Y</v>
       </c>
-      <c r="F55" s="114" t="e">
+      <c r="F55" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G55" s="114" t="e">
+      <c r="G55" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H55" s="113" t="b">
+      <c r="H55" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I55" s="113">
+      <c r="I55" s="111">
         <v>40</v>
       </c>
-      <c r="J55" s="113">
+      <c r="J55" s="111">
         <v>1</v>
       </c>
-      <c r="K55" s="112" t="e">
+      <c r="K55" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L55" s="111" t="e">
+      <c r="L55" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="117" t="str">
+      <c r="B56" s="115" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C56" s="116" t="str">
+      <c r="C56" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D56" s="115" t="s">
+      <c r="D56" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="115" t="str">
+      <c r="E56" s="113" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS35Y</v>
       </c>
-      <c r="F56" s="114" t="e">
+      <c r="F56" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G56" s="114" t="e">
+      <c r="G56" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H56" s="113" t="b">
+      <c r="H56" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I56" s="113">
+      <c r="I56" s="111">
         <v>40</v>
       </c>
-      <c r="J56" s="113">
+      <c r="J56" s="111">
         <v>1</v>
       </c>
-      <c r="K56" s="112" t="e">
+      <c r="K56" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L56" s="111" t="e">
+      <c r="L56" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="117" t="str">
+      <c r="B57" s="115" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C57" s="116" t="str">
+      <c r="C57" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D57" s="115" t="s">
+      <c r="D57" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="115" t="str">
+      <c r="E57" s="113" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS40Y</v>
       </c>
-      <c r="F57" s="114" t="e">
+      <c r="F57" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G57" s="114" t="e">
+      <c r="G57" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H57" s="113" t="b">
+      <c r="H57" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I57" s="113">
+      <c r="I57" s="111">
         <v>40</v>
       </c>
-      <c r="J57" s="113">
+      <c r="J57" s="111">
         <v>1</v>
       </c>
-      <c r="K57" s="112" t="e">
+      <c r="K57" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L57" s="111" t="e">
+      <c r="L57" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="117" t="str">
+      <c r="B58" s="115" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C58" s="116" t="str">
+      <c r="C58" s="114" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D58" s="115" t="s">
+      <c r="D58" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="115" t="str">
+      <c r="E58" s="113" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS50Y</v>
       </c>
-      <c r="F58" s="114" t="e">
+      <c r="F58" s="112" t="e">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G58" s="114" t="e">
+      <c r="G58" s="112" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H58" s="113" t="b">
+      <c r="H58" s="111" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I58" s="113">
+      <c r="I58" s="111">
         <v>40</v>
       </c>
-      <c r="J58" s="113">
+      <c r="J58" s="111">
         <v>1</v>
       </c>
-      <c r="K58" s="112" t="e">
+      <c r="K58" s="110" t="e">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L58" s="111" t="e">
+      <c r="L58" s="109" t="e">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="110" t="str">
+      <c r="B59" s="108" t="str">
         <f t="shared" si="8"/>
         <v>QM</v>
       </c>
-      <c r="C59" s="109" t="str">
+      <c r="C59" s="107" t="str">
         <f t="shared" si="4"/>
         <v>3HBASIS</v>
       </c>
-      <c r="D59" s="108" t="s">
+      <c r="D59" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="108" t="str">
+      <c r="E59" s="106" t="str">
         <f t="shared" si="9"/>
         <v>HKD_YC6MRH_QM3HBASIS60Y</v>
       </c>
-      <c r="F59" s="107" t="e">
+      <c r="F59" s="105" t="e">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G59" s="107" t="e">
+      <c r="G59" s="105" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H59" s="106" t="b">
+      <c r="H59" s="104" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I59" s="106">
+      <c r="I59" s="104">
         <v>40</v>
       </c>
-      <c r="J59" s="106">
+      <c r="J59" s="104">
         <v>1</v>
       </c>
-      <c r="K59" s="105" t="e">
+      <c r="K59" s="103" t="e">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L59" s="104" t="e">
+      <c r="L59" s="102" t="e">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
@@ -5743,7 +5774,7 @@
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5760,10 +5791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="155"/>
       <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
@@ -5803,14 +5834,14 @@
       </c>
       <c r="G2" s="11">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41684</v>
+        <v>41736</v>
       </c>
       <c r="H2" s="12">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41865</v>
+        <v>41919</v>
       </c>
       <c r="I2" s="6">
-        <v>0.99728707396165672</v>
+        <v>0.99725717910013068</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5825,7 +5856,7 @@
       </c>
       <c r="E3" s="10">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F3" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -5833,14 +5864,14 @@
       </c>
       <c r="G3" s="11">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41712</v>
+        <v>41766</v>
       </c>
       <c r="H3" s="12">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41897</v>
+        <v>41950</v>
       </c>
       <c r="I3" s="6">
-        <v>0.99710347088010043</v>
+        <v>0.99713704235265099</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5855,7 +5886,7 @@
       </c>
       <c r="E4" s="10">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -5863,14 +5894,14 @@
       </c>
       <c r="G4" s="11">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41743</v>
+        <v>41799</v>
       </c>
       <c r="H4" s="12">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41926</v>
+        <v>41982</v>
       </c>
       <c r="I4" s="6">
-        <v>0.99666634378377073</v>
+        <v>0.99655668230754935</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5885,7 +5916,7 @@
       </c>
       <c r="E5" s="10">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -5893,14 +5924,14 @@
       </c>
       <c r="G5" s="11">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41773</v>
+        <v>41827</v>
       </c>
       <c r="H5" s="12">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41957</v>
+        <v>42011</v>
       </c>
       <c r="I5" s="6">
-        <v>0.99615424425997234</v>
+        <v>0.99607427591799991</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5916,7 +5947,7 @@
       </c>
       <c r="E6" s="10">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.1000000000000004E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="F6" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -5924,20 +5955,20 @@
       </c>
       <c r="G6" s="11">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41806</v>
+        <v>41858</v>
       </c>
       <c r="H6" s="12">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41989</v>
+        <v>42044</v>
       </c>
       <c r="I6" s="6">
-        <v>0.99562478946159827</v>
+        <v>0.99548199622234712</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_RateHelpersSelected#0003</v>
+        <v>HKD_YC6MRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -5948,7 +5979,7 @@
       </c>
       <c r="E7" s="10">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>5.1999999999999998E-3</v>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="F7" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -5956,14 +5987,14 @@
       </c>
       <c r="G7" s="11">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41834</v>
+        <v>41890</v>
       </c>
       <c r="H7" s="12">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42018</v>
+        <v>42072</v>
       </c>
       <c r="I7" s="6">
-        <v>0.99514255915862948</v>
+        <v>0.99496268054121861</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5972,7 +6003,7 @@
       </c>
       <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>5.4000000000000003E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="F8" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -5980,14 +6011,14 @@
       </c>
       <c r="G8" s="11">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41865</v>
+        <v>41919</v>
       </c>
       <c r="H8" s="12">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42051</v>
+        <v>42101</v>
       </c>
       <c r="I8" s="6">
-        <v>0.99455028954844549</v>
+        <v>0.9943813736807966</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5996,7 +6027,7 @@
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>6.1000000000000013E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6004,14 +6035,14 @@
       </c>
       <c r="G9" s="11">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42051</v>
+        <v>42101</v>
       </c>
       <c r="H9" s="12">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42233</v>
+        <v>42284</v>
       </c>
       <c r="I9" s="6">
-        <v>0.99153439506788554</v>
+        <v>0.99001338039916709</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6020,7 +6051,7 @@
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>7.7000000000000002E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6028,14 +6059,14 @@
       </c>
       <c r="G10" s="11">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42230</v>
+        <v>42284</v>
       </c>
       <c r="H10" s="12">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42415</v>
+        <v>42467</v>
       </c>
       <c r="I10" s="6">
-        <v>0.98772918348282057</v>
+        <v>0.98384748690248558</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
